--- a/Översikt YDRE.xlsx
+++ b/Översikt YDRE.xlsx
@@ -572,7 +572,7 @@
         <v>44257</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>43409</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>43517</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>45070</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         <v>43405</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1013,7 +1013,7 @@
         <v>44732</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>45138</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         <v>43524</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1275,7 +1275,7 @@
         <v>43665</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>43910</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1449,7 +1449,7 @@
         <v>44087</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
         <v>44187</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1624,7 +1624,7 @@
         <v>44358</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1709,7 +1709,7 @@
         <v>44468</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
         <v>44468</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1889,7 +1889,7 @@
         <v>44831</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1979,7 +1979,7 @@
         <v>44874</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>45090</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2154,7 +2154,7 @@
         <v>43336</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2211,7 +2211,7 @@
         <v>43339</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
         <v>43354</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2325,7 +2325,7 @@
         <v>43355</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2382,7 +2382,7 @@
         <v>43355</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2439,7 +2439,7 @@
         <v>43356</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2496,7 +2496,7 @@
         <v>43362</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2553,7 +2553,7 @@
         <v>43375</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
         <v>43375</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2667,7 +2667,7 @@
         <v>43381</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2724,7 +2724,7 @@
         <v>43385</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         <v>43385</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2838,7 +2838,7 @@
         <v>43389</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2895,7 +2895,7 @@
         <v>43390</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2952,7 +2952,7 @@
         <v>43390</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3009,7 +3009,7 @@
         <v>43392</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3066,7 +3066,7 @@
         <v>43399</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3123,7 +3123,7 @@
         <v>43403</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         <v>43403</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3237,7 +3237,7 @@
         <v>43411</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3294,7 +3294,7 @@
         <v>43411</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3351,7 +3351,7 @@
         <v>43411</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3408,7 +3408,7 @@
         <v>43412</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3465,7 +3465,7 @@
         <v>43416</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3522,7 +3522,7 @@
         <v>43423</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3584,7 +3584,7 @@
         <v>43424</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3641,7 +3641,7 @@
         <v>43425</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3698,7 +3698,7 @@
         <v>43425</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3755,7 +3755,7 @@
         <v>43433</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3812,7 +3812,7 @@
         <v>43433</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3869,7 +3869,7 @@
         <v>43433</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3926,7 +3926,7 @@
         <v>43434</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3983,7 +3983,7 @@
         <v>43439</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>43439</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>43440</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>43445</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         <v>43445</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>43451</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>43451</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>43452</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4449,7 +4449,7 @@
         <v>43455</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>43455</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         <v>43468</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>43468</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
         <v>43475</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>43475</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>43479</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
         <v>43479</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4910,7 +4910,7 @@
         <v>43480</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4972,7 +4972,7 @@
         <v>43486</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5029,7 +5029,7 @@
         <v>43487</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>43489</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>43494</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>43494</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         <v>43495</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
         <v>43496</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         <v>43496</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         <v>43502</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>43503</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5557,7 +5557,7 @@
         <v>43509</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5614,7 +5614,7 @@
         <v>43514</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5671,7 +5671,7 @@
         <v>43514</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5728,7 +5728,7 @@
         <v>43517</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
         <v>43521</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5842,7 +5842,7 @@
         <v>43521</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5899,7 +5899,7 @@
         <v>43524</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5956,7 +5956,7 @@
         <v>43524</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6013,7 +6013,7 @@
         <v>43524</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6070,7 +6070,7 @@
         <v>43524</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
         <v>43524</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>43524</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
         <v>43528</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6298,7 +6298,7 @@
         <v>43528</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6360,7 +6360,7 @@
         <v>43532</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6417,7 +6417,7 @@
         <v>43544</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6474,7 +6474,7 @@
         <v>43546</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6536,7 +6536,7 @@
         <v>43553</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6593,7 +6593,7 @@
         <v>43553</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6650,7 +6650,7 @@
         <v>43558</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6707,7 +6707,7 @@
         <v>43560</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6764,7 +6764,7 @@
         <v>43564</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6821,7 +6821,7 @@
         <v>43585</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>43587</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6935,7 +6935,7 @@
         <v>43593</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6997,7 +6997,7 @@
         <v>43594</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7054,7 +7054,7 @@
         <v>43594</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7111,7 +7111,7 @@
         <v>43595</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7168,7 +7168,7 @@
         <v>43601</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
         <v>43605</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>43608</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7349,7 +7349,7 @@
         <v>43626</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7406,7 +7406,7 @@
         <v>43628</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7463,7 +7463,7 @@
         <v>43630</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         <v>43634</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7577,7 +7577,7 @@
         <v>43647</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7634,7 +7634,7 @@
         <v>43661</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7691,7 +7691,7 @@
         <v>43679</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7748,7 +7748,7 @@
         <v>43682</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7805,7 +7805,7 @@
         <v>43683</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7862,7 +7862,7 @@
         <v>43689</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7919,7 +7919,7 @@
         <v>43692</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7976,7 +7976,7 @@
         <v>43692</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         <v>43699</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8090,7 +8090,7 @@
         <v>43705</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8147,7 +8147,7 @@
         <v>43711</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>43712</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>43712</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>43713</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>43713</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>43717</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>43721</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>43731</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>43735</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>43738</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>43748</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>43753</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8836,7 +8836,7 @@
         <v>43761</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8898,7 +8898,7 @@
         <v>43768</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8955,7 +8955,7 @@
         <v>43769</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9012,7 +9012,7 @@
         <v>43773</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9069,7 +9069,7 @@
         <v>43773</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9126,7 +9126,7 @@
         <v>43773</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9183,7 +9183,7 @@
         <v>43773</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9240,7 +9240,7 @@
         <v>43781</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9297,7 +9297,7 @@
         <v>43788</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9359,7 +9359,7 @@
         <v>43791</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9421,7 +9421,7 @@
         <v>43796</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9478,7 +9478,7 @@
         <v>43805</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9535,7 +9535,7 @@
         <v>43808</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9597,7 +9597,7 @@
         <v>43811</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9659,7 +9659,7 @@
         <v>43812</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9716,7 +9716,7 @@
         <v>43837</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9773,7 +9773,7 @@
         <v>43837</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9830,7 +9830,7 @@
         <v>43839</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9887,7 +9887,7 @@
         <v>43850</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9944,7 +9944,7 @@
         <v>43851</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10001,7 +10001,7 @@
         <v>43851</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10058,7 +10058,7 @@
         <v>43854</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10115,7 +10115,7 @@
         <v>43859</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10172,7 +10172,7 @@
         <v>43859</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10229,7 +10229,7 @@
         <v>43866</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10286,7 +10286,7 @@
         <v>43866</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10343,7 +10343,7 @@
         <v>43867</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10400,7 +10400,7 @@
         <v>43867</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
         <v>43867</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10514,7 +10514,7 @@
         <v>43867</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10571,7 +10571,7 @@
         <v>43875</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10628,7 +10628,7 @@
         <v>43892</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10685,7 +10685,7 @@
         <v>43892</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10742,7 +10742,7 @@
         <v>43899</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10799,7 +10799,7 @@
         <v>43900</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10856,7 +10856,7 @@
         <v>43907</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10913,7 +10913,7 @@
         <v>43914</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10970,7 +10970,7 @@
         <v>43928</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11027,7 +11027,7 @@
         <v>43945</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>43955</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>43958</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11203,7 +11203,7 @@
         <v>43963</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11265,7 +11265,7 @@
         <v>43964</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11327,7 +11327,7 @@
         <v>43964</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11389,7 +11389,7 @@
         <v>43964</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11451,7 +11451,7 @@
         <v>43964</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11513,7 +11513,7 @@
         <v>43970</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11575,7 +11575,7 @@
         <v>43970</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11637,7 +11637,7 @@
         <v>43970</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11699,7 +11699,7 @@
         <v>43970</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11761,7 +11761,7 @@
         <v>43970</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11823,7 +11823,7 @@
         <v>43980</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11885,7 +11885,7 @@
         <v>43987</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11942,7 +11942,7 @@
         <v>43987</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11999,7 +11999,7 @@
         <v>43987</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12056,7 +12056,7 @@
         <v>43990</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12113,7 +12113,7 @@
         <v>44015</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12170,7 +12170,7 @@
         <v>44018</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12227,7 +12227,7 @@
         <v>44018</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12284,7 +12284,7 @@
         <v>44020</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12341,7 +12341,7 @@
         <v>44020</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12398,7 +12398,7 @@
         <v>44028</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12455,7 +12455,7 @@
         <v>44029</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12517,7 +12517,7 @@
         <v>44029</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12579,7 +12579,7 @@
         <v>44029</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12641,7 +12641,7 @@
         <v>44039</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12698,7 +12698,7 @@
         <v>44049</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12755,7 +12755,7 @@
         <v>44049</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12812,7 +12812,7 @@
         <v>44049</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12869,7 +12869,7 @@
         <v>44057</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12926,7 +12926,7 @@
         <v>44064</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12983,7 +12983,7 @@
         <v>44069</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13040,7 +13040,7 @@
         <v>44074</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13102,7 +13102,7 @@
         <v>44074</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13164,7 +13164,7 @@
         <v>44074</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13226,7 +13226,7 @@
         <v>44077</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>44083</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         <v>44087</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13407,7 +13407,7 @@
         <v>44087</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13469,7 +13469,7 @@
         <v>44088</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13526,7 +13526,7 @@
         <v>44089</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13583,7 +13583,7 @@
         <v>44089</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13640,7 +13640,7 @@
         <v>44092</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13697,7 +13697,7 @@
         <v>44095</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13754,7 +13754,7 @@
         <v>44095</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13811,7 +13811,7 @@
         <v>44102</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13868,7 +13868,7 @@
         <v>44104</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13925,7 +13925,7 @@
         <v>44104</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13982,7 +13982,7 @@
         <v>44104</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14039,7 +14039,7 @@
         <v>44104</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14096,7 +14096,7 @@
         <v>44104</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14153,7 +14153,7 @@
         <v>44109</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14210,7 +14210,7 @@
         <v>44116</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14267,7 +14267,7 @@
         <v>44120</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14324,7 +14324,7 @@
         <v>44124</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14381,7 +14381,7 @@
         <v>44124</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14438,7 +14438,7 @@
         <v>44126</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14495,7 +14495,7 @@
         <v>44130</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14552,7 +14552,7 @@
         <v>44130</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14609,7 +14609,7 @@
         <v>44130</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>44138</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14723,7 +14723,7 @@
         <v>44141</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14780,7 +14780,7 @@
         <v>44144</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14842,7 +14842,7 @@
         <v>44168</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14899,7 +14899,7 @@
         <v>44168</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14956,7 +14956,7 @@
         <v>44168</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15013,7 +15013,7 @@
         <v>44168</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15070,7 +15070,7 @@
         <v>44179</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15127,7 +15127,7 @@
         <v>44181</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15184,7 +15184,7 @@
         <v>44183</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15246,7 +15246,7 @@
         <v>44186</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15303,7 +15303,7 @@
         <v>44187</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15360,7 +15360,7 @@
         <v>44200</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15417,7 +15417,7 @@
         <v>44203</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15474,7 +15474,7 @@
         <v>44211</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15531,7 +15531,7 @@
         <v>44211</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15593,7 +15593,7 @@
         <v>44257</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15650,7 +15650,7 @@
         <v>44257</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15707,7 +15707,7 @@
         <v>44260</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15764,7 +15764,7 @@
         <v>44263</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15821,7 +15821,7 @@
         <v>44267</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15883,7 +15883,7 @@
         <v>44270</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15965,7 +15965,7 @@
         <v>44292</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16022,7 +16022,7 @@
         <v>44295</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16079,7 +16079,7 @@
         <v>44298</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16136,7 +16136,7 @@
         <v>44305</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16198,7 +16198,7 @@
         <v>44305</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16260,7 +16260,7 @@
         <v>44305</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16322,7 +16322,7 @@
         <v>44316</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16379,7 +16379,7 @@
         <v>44340</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16441,7 +16441,7 @@
         <v>44343</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16498,7 +16498,7 @@
         <v>44344</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16555,7 +16555,7 @@
         <v>44347</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16612,7 +16612,7 @@
         <v>44347</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16669,7 +16669,7 @@
         <v>44347</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16726,7 +16726,7 @@
         <v>44347</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16783,7 +16783,7 @@
         <v>44362</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16845,7 +16845,7 @@
         <v>44371</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16902,7 +16902,7 @@
         <v>44382</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16959,7 +16959,7 @@
         <v>44386</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17016,7 +17016,7 @@
         <v>44392</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17078,7 +17078,7 @@
         <v>44413</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17135,7 +17135,7 @@
         <v>44428</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17197,7 +17197,7 @@
         <v>44438</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17254,7 +17254,7 @@
         <v>44438</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17311,7 +17311,7 @@
         <v>44439</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17368,7 +17368,7 @@
         <v>44447</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17430,7 +17430,7 @@
         <v>44447</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17492,7 +17492,7 @@
         <v>44454</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17549,7 +17549,7 @@
         <v>44461</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17606,7 +17606,7 @@
         <v>44461</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17663,7 +17663,7 @@
         <v>44468</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17725,7 +17725,7 @@
         <v>44469</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17782,7 +17782,7 @@
         <v>44474</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17839,7 +17839,7 @@
         <v>44476</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17901,7 +17901,7 @@
         <v>44477</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17958,7 +17958,7 @@
         <v>44480</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18040,7 +18040,7 @@
         <v>44490</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18097,7 +18097,7 @@
         <v>44490</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18154,7 +18154,7 @@
         <v>44491</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18216,7 +18216,7 @@
         <v>44491</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18278,7 +18278,7 @@
         <v>44501</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18335,7 +18335,7 @@
         <v>44502</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18392,7 +18392,7 @@
         <v>44502</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18449,7 +18449,7 @@
         <v>44503</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18511,7 +18511,7 @@
         <v>44510</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         <v>44515</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18625,7 +18625,7 @@
         <v>44516</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18682,7 +18682,7 @@
         <v>44530</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         <v>44531</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18796,7 +18796,7 @@
         <v>44538</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18853,7 +18853,7 @@
         <v>44540</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18910,7 +18910,7 @@
         <v>44566</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18967,7 +18967,7 @@
         <v>44572</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19024,7 +19024,7 @@
         <v>44582</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19081,7 +19081,7 @@
         <v>44585</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19138,7 +19138,7 @@
         <v>44592</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19195,7 +19195,7 @@
         <v>44593</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19257,7 +19257,7 @@
         <v>44600</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19314,7 +19314,7 @@
         <v>44602</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19371,7 +19371,7 @@
         <v>44620</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19428,7 +19428,7 @@
         <v>44621</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19485,7 +19485,7 @@
         <v>44624</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19542,7 +19542,7 @@
         <v>44634</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19599,7 +19599,7 @@
         <v>44635</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19656,7 +19656,7 @@
         <v>44650</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19713,7 +19713,7 @@
         <v>44651</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19770,7 +19770,7 @@
         <v>44651</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19827,7 +19827,7 @@
         <v>44655</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19884,7 +19884,7 @@
         <v>44670</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19941,7 +19941,7 @@
         <v>44693</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19998,7 +19998,7 @@
         <v>44698</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20055,7 +20055,7 @@
         <v>44713</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20117,7 +20117,7 @@
         <v>44728</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         <v>44728</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20241,7 +20241,7 @@
         <v>44743</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20298,7 +20298,7 @@
         <v>44743</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20355,7 +20355,7 @@
         <v>44749</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20412,7 +20412,7 @@
         <v>44789</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20474,7 +20474,7 @@
         <v>44789</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20536,7 +20536,7 @@
         <v>44798</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20593,7 +20593,7 @@
         <v>44816</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20650,7 +20650,7 @@
         <v>44816</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20707,7 +20707,7 @@
         <v>44816</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20764,7 +20764,7 @@
         <v>44820</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20821,7 +20821,7 @@
         <v>44827</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20883,7 +20883,7 @@
         <v>44827</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20945,7 +20945,7 @@
         <v>44858</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21007,7 +21007,7 @@
         <v>44866</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21069,7 +21069,7 @@
         <v>44868</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21131,7 +21131,7 @@
         <v>44872</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21188,7 +21188,7 @@
         <v>44872</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21250,7 +21250,7 @@
         <v>44874</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21307,7 +21307,7 @@
         <v>44874</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21364,7 +21364,7 @@
         <v>44879</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21421,7 +21421,7 @@
         <v>44879</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21478,7 +21478,7 @@
         <v>44903</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21535,7 +21535,7 @@
         <v>44916</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21592,7 +21592,7 @@
         <v>44944</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21649,7 +21649,7 @@
         <v>44953</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21706,7 +21706,7 @@
         <v>44953</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21763,7 +21763,7 @@
         <v>44953</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21820,7 +21820,7 @@
         <v>44971</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21882,7 +21882,7 @@
         <v>44985</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21944,7 +21944,7 @@
         <v>44985</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22006,7 +22006,7 @@
         <v>44986</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22063,7 +22063,7 @@
         <v>44987</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22120,7 +22120,7 @@
         <v>44987</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22177,7 +22177,7 @@
         <v>44994</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22234,7 +22234,7 @@
         <v>44994</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22291,7 +22291,7 @@
         <v>45016</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22353,7 +22353,7 @@
         <v>45022</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22415,7 +22415,7 @@
         <v>45048</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22472,7 +22472,7 @@
         <v>45048</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22529,7 +22529,7 @@
         <v>45070</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22591,7 +22591,7 @@
         <v>45077</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22648,7 +22648,7 @@
         <v>45077</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22705,7 +22705,7 @@
         <v>45077</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22762,7 +22762,7 @@
         <v>45077</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22819,7 +22819,7 @@
         <v>45077</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22876,7 +22876,7 @@
         <v>45077</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22933,7 +22933,7 @@
         <v>45077</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22990,7 +22990,7 @@
         <v>45085</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23047,7 +23047,7 @@
         <v>45090</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23109,7 +23109,7 @@
         <v>45090</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23171,7 +23171,7 @@
         <v>45093</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23233,7 +23233,7 @@
         <v>45096</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23290,7 +23290,7 @@
         <v>45096</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23347,7 +23347,7 @@
         <v>45099</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23404,7 +23404,7 @@
         <v>45104</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23461,7 +23461,7 @@
         <v>45104</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23518,7 +23518,7 @@
         <v>45105</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23575,7 +23575,7 @@
         <v>45105</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23632,7 +23632,7 @@
         <v>45110</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23689,7 +23689,7 @@
         <v>45110</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23746,7 +23746,7 @@
         <v>45110</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23803,7 +23803,7 @@
         <v>45117</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23865,7 +23865,7 @@
         <v>45118</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23927,7 +23927,7 @@
         <v>45119</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23989,7 +23989,7 @@
         <v>45119</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24051,7 +24051,7 @@
         <v>45119</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24113,7 +24113,7 @@
         <v>45119</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24170,7 +24170,7 @@
         <v>45138</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24227,7 +24227,7 @@
         <v>45138</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24284,7 +24284,7 @@
         <v>45145</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24341,7 +24341,7 @@
         <v>45149</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24398,7 +24398,7 @@
         <v>45159</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24455,7 +24455,7 @@
         <v>45159</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24512,7 +24512,7 @@
         <v>45161</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24569,7 +24569,7 @@
         <v>45169</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24619,14 +24619,14 @@
     <row r="406" ht="15" customHeight="1">
       <c r="A406" t="inlineStr">
         <is>
-          <t>A 40692-2023</t>
+          <t>A 40700-2023</t>
         </is>
       </c>
       <c r="B406" s="1" t="n">
         <v>45170</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24639,7 +24639,7 @@
         </is>
       </c>
       <c r="G406" t="n">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="H406" t="n">
         <v>0</v>
@@ -24676,14 +24676,14 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>A 40700-2023</t>
+          <t>A 40692-2023</t>
         </is>
       </c>
       <c r="B407" s="1" t="n">
         <v>45170</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="G407" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H407" t="n">
         <v>0</v>

--- a/Översikt YDRE.xlsx
+++ b/Översikt YDRE.xlsx
@@ -572,7 +572,7 @@
         <v>44257</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>43409</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>43517</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>45070</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         <v>43405</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1013,7 +1013,7 @@
         <v>44732</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>45138</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         <v>43524</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1275,7 +1275,7 @@
         <v>43665</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>43910</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1449,7 +1449,7 @@
         <v>44087</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
         <v>44187</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1624,7 +1624,7 @@
         <v>44358</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1709,7 +1709,7 @@
         <v>44468</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
         <v>44468</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1889,7 +1889,7 @@
         <v>44831</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1979,7 +1979,7 @@
         <v>44874</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>45090</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2154,7 +2154,7 @@
         <v>43336</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2211,7 +2211,7 @@
         <v>43339</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
         <v>43354</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2325,7 +2325,7 @@
         <v>43355</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2382,7 +2382,7 @@
         <v>43355</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2439,7 +2439,7 @@
         <v>43356</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2496,7 +2496,7 @@
         <v>43362</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2553,7 +2553,7 @@
         <v>43375</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
         <v>43375</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2667,7 +2667,7 @@
         <v>43381</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2724,7 +2724,7 @@
         <v>43385</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         <v>43385</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2838,7 +2838,7 @@
         <v>43389</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2895,7 +2895,7 @@
         <v>43390</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2952,7 +2952,7 @@
         <v>43390</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3009,7 +3009,7 @@
         <v>43392</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3066,7 +3066,7 @@
         <v>43399</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3123,7 +3123,7 @@
         <v>43403</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         <v>43403</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3237,7 +3237,7 @@
         <v>43411</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3294,7 +3294,7 @@
         <v>43411</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3351,7 +3351,7 @@
         <v>43411</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3408,7 +3408,7 @@
         <v>43412</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3465,7 +3465,7 @@
         <v>43416</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3522,7 +3522,7 @@
         <v>43423</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3584,7 +3584,7 @@
         <v>43424</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3641,7 +3641,7 @@
         <v>43425</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3698,7 +3698,7 @@
         <v>43425</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3755,7 +3755,7 @@
         <v>43433</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3812,7 +3812,7 @@
         <v>43433</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3869,7 +3869,7 @@
         <v>43433</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3926,7 +3926,7 @@
         <v>43434</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3983,7 +3983,7 @@
         <v>43439</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>43439</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>43440</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>43445</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         <v>43445</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>43451</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>43451</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>43452</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4449,7 +4449,7 @@
         <v>43455</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>43455</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         <v>43468</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>43468</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
         <v>43475</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>43475</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>43479</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
         <v>43479</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4910,7 +4910,7 @@
         <v>43480</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4972,7 +4972,7 @@
         <v>43486</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5029,7 +5029,7 @@
         <v>43487</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>43489</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>43494</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>43494</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         <v>43495</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
         <v>43496</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         <v>43496</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         <v>43502</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>43503</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5557,7 +5557,7 @@
         <v>43509</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5614,7 +5614,7 @@
         <v>43514</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5671,7 +5671,7 @@
         <v>43514</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5728,7 +5728,7 @@
         <v>43517</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
         <v>43521</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5842,7 +5842,7 @@
         <v>43521</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5899,7 +5899,7 @@
         <v>43524</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5956,7 +5956,7 @@
         <v>43524</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6013,7 +6013,7 @@
         <v>43524</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6070,7 +6070,7 @@
         <v>43524</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
         <v>43524</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>43524</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
         <v>43528</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6298,7 +6298,7 @@
         <v>43528</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6360,7 +6360,7 @@
         <v>43532</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6417,7 +6417,7 @@
         <v>43544</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6474,7 +6474,7 @@
         <v>43546</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6536,7 +6536,7 @@
         <v>43553</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6593,7 +6593,7 @@
         <v>43553</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6650,7 +6650,7 @@
         <v>43558</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6707,7 +6707,7 @@
         <v>43560</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6764,7 +6764,7 @@
         <v>43564</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6821,7 +6821,7 @@
         <v>43585</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>43587</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6935,7 +6935,7 @@
         <v>43593</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6997,7 +6997,7 @@
         <v>43594</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7054,7 +7054,7 @@
         <v>43594</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7111,7 +7111,7 @@
         <v>43595</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7168,7 +7168,7 @@
         <v>43601</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
         <v>43605</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>43608</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7349,7 +7349,7 @@
         <v>43626</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7406,7 +7406,7 @@
         <v>43628</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7463,7 +7463,7 @@
         <v>43630</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         <v>43634</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7577,7 +7577,7 @@
         <v>43647</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7634,7 +7634,7 @@
         <v>43661</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7691,7 +7691,7 @@
         <v>43679</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7748,7 +7748,7 @@
         <v>43682</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7805,7 +7805,7 @@
         <v>43683</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7862,7 +7862,7 @@
         <v>43689</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7919,7 +7919,7 @@
         <v>43692</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7976,7 +7976,7 @@
         <v>43692</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         <v>43699</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8090,7 +8090,7 @@
         <v>43705</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8147,7 +8147,7 @@
         <v>43711</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>43712</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>43712</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>43713</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>43713</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>43717</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>43721</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>43731</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>43735</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>43738</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>43748</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>43753</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8836,7 +8836,7 @@
         <v>43761</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8898,7 +8898,7 @@
         <v>43768</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8955,7 +8955,7 @@
         <v>43769</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9012,7 +9012,7 @@
         <v>43773</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9069,7 +9069,7 @@
         <v>43773</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9126,7 +9126,7 @@
         <v>43773</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9183,7 +9183,7 @@
         <v>43773</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9240,7 +9240,7 @@
         <v>43781</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9297,7 +9297,7 @@
         <v>43788</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9359,7 +9359,7 @@
         <v>43791</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9421,7 +9421,7 @@
         <v>43796</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9478,7 +9478,7 @@
         <v>43805</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9535,7 +9535,7 @@
         <v>43808</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9597,7 +9597,7 @@
         <v>43811</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9659,7 +9659,7 @@
         <v>43812</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9716,7 +9716,7 @@
         <v>43837</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9773,7 +9773,7 @@
         <v>43837</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9830,7 +9830,7 @@
         <v>43839</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9887,7 +9887,7 @@
         <v>43850</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9944,7 +9944,7 @@
         <v>43851</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10001,7 +10001,7 @@
         <v>43851</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10058,7 +10058,7 @@
         <v>43854</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10115,7 +10115,7 @@
         <v>43859</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10172,7 +10172,7 @@
         <v>43859</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10229,7 +10229,7 @@
         <v>43866</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10286,7 +10286,7 @@
         <v>43866</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10343,7 +10343,7 @@
         <v>43867</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10400,7 +10400,7 @@
         <v>43867</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
         <v>43867</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10514,7 +10514,7 @@
         <v>43867</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10571,7 +10571,7 @@
         <v>43875</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10628,7 +10628,7 @@
         <v>43892</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10685,7 +10685,7 @@
         <v>43892</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10742,7 +10742,7 @@
         <v>43899</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10799,7 +10799,7 @@
         <v>43900</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10856,7 +10856,7 @@
         <v>43907</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10913,7 +10913,7 @@
         <v>43914</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10970,7 +10970,7 @@
         <v>43928</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11027,7 +11027,7 @@
         <v>43945</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>43955</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>43958</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11203,7 +11203,7 @@
         <v>43963</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11265,7 +11265,7 @@
         <v>43964</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11327,7 +11327,7 @@
         <v>43964</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11389,7 +11389,7 @@
         <v>43964</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11451,7 +11451,7 @@
         <v>43964</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11513,7 +11513,7 @@
         <v>43970</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11575,7 +11575,7 @@
         <v>43970</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11637,7 +11637,7 @@
         <v>43970</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11699,7 +11699,7 @@
         <v>43970</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11761,7 +11761,7 @@
         <v>43970</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11823,7 +11823,7 @@
         <v>43980</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11885,7 +11885,7 @@
         <v>43987</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11942,7 +11942,7 @@
         <v>43987</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11999,7 +11999,7 @@
         <v>43987</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12056,7 +12056,7 @@
         <v>43990</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12113,7 +12113,7 @@
         <v>44015</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12170,7 +12170,7 @@
         <v>44018</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12227,7 +12227,7 @@
         <v>44018</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12284,7 +12284,7 @@
         <v>44020</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12341,7 +12341,7 @@
         <v>44020</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12398,7 +12398,7 @@
         <v>44028</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12455,7 +12455,7 @@
         <v>44029</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12517,7 +12517,7 @@
         <v>44029</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12579,7 +12579,7 @@
         <v>44029</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12641,7 +12641,7 @@
         <v>44039</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12698,7 +12698,7 @@
         <v>44049</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12755,7 +12755,7 @@
         <v>44049</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12812,7 +12812,7 @@
         <v>44049</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12869,7 +12869,7 @@
         <v>44057</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12926,7 +12926,7 @@
         <v>44064</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12983,7 +12983,7 @@
         <v>44069</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13040,7 +13040,7 @@
         <v>44074</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13102,7 +13102,7 @@
         <v>44074</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13164,7 +13164,7 @@
         <v>44074</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13226,7 +13226,7 @@
         <v>44077</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>44083</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         <v>44087</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13407,7 +13407,7 @@
         <v>44087</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13469,7 +13469,7 @@
         <v>44088</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13526,7 +13526,7 @@
         <v>44089</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13583,7 +13583,7 @@
         <v>44089</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13640,7 +13640,7 @@
         <v>44092</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13697,7 +13697,7 @@
         <v>44095</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13754,7 +13754,7 @@
         <v>44095</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13811,7 +13811,7 @@
         <v>44102</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13868,7 +13868,7 @@
         <v>44104</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13925,7 +13925,7 @@
         <v>44104</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13982,7 +13982,7 @@
         <v>44104</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14039,7 +14039,7 @@
         <v>44104</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14096,7 +14096,7 @@
         <v>44104</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14153,7 +14153,7 @@
         <v>44109</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14210,7 +14210,7 @@
         <v>44116</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14267,7 +14267,7 @@
         <v>44120</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14324,7 +14324,7 @@
         <v>44124</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14381,7 +14381,7 @@
         <v>44124</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14438,7 +14438,7 @@
         <v>44126</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14495,7 +14495,7 @@
         <v>44130</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14552,7 +14552,7 @@
         <v>44130</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14609,7 +14609,7 @@
         <v>44130</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>44138</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14723,7 +14723,7 @@
         <v>44141</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14780,7 +14780,7 @@
         <v>44144</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14842,7 +14842,7 @@
         <v>44168</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14899,7 +14899,7 @@
         <v>44168</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14956,7 +14956,7 @@
         <v>44168</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15013,7 +15013,7 @@
         <v>44168</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15070,7 +15070,7 @@
         <v>44179</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15127,7 +15127,7 @@
         <v>44181</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15184,7 +15184,7 @@
         <v>44183</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15246,7 +15246,7 @@
         <v>44186</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15303,7 +15303,7 @@
         <v>44187</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15360,7 +15360,7 @@
         <v>44200</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15417,7 +15417,7 @@
         <v>44203</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15474,7 +15474,7 @@
         <v>44211</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15531,7 +15531,7 @@
         <v>44211</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15593,7 +15593,7 @@
         <v>44257</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15650,7 +15650,7 @@
         <v>44257</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15707,7 +15707,7 @@
         <v>44260</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15764,7 +15764,7 @@
         <v>44263</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15821,7 +15821,7 @@
         <v>44267</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15883,7 +15883,7 @@
         <v>44270</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15965,7 +15965,7 @@
         <v>44292</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16022,7 +16022,7 @@
         <v>44295</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16079,7 +16079,7 @@
         <v>44298</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16136,7 +16136,7 @@
         <v>44305</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16198,7 +16198,7 @@
         <v>44305</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16260,7 +16260,7 @@
         <v>44305</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16322,7 +16322,7 @@
         <v>44316</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16379,7 +16379,7 @@
         <v>44340</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16441,7 +16441,7 @@
         <v>44343</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16498,7 +16498,7 @@
         <v>44344</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16555,7 +16555,7 @@
         <v>44347</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16612,7 +16612,7 @@
         <v>44347</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16669,7 +16669,7 @@
         <v>44347</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16726,7 +16726,7 @@
         <v>44347</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16783,7 +16783,7 @@
         <v>44362</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16845,7 +16845,7 @@
         <v>44371</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16902,7 +16902,7 @@
         <v>44382</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16959,7 +16959,7 @@
         <v>44386</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17016,7 +17016,7 @@
         <v>44392</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17078,7 +17078,7 @@
         <v>44413</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17135,7 +17135,7 @@
         <v>44428</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17197,7 +17197,7 @@
         <v>44438</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17254,7 +17254,7 @@
         <v>44438</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17311,7 +17311,7 @@
         <v>44439</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17368,7 +17368,7 @@
         <v>44447</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17430,7 +17430,7 @@
         <v>44447</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17492,7 +17492,7 @@
         <v>44454</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17549,7 +17549,7 @@
         <v>44461</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17606,7 +17606,7 @@
         <v>44461</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17663,7 +17663,7 @@
         <v>44468</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17725,7 +17725,7 @@
         <v>44469</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17782,7 +17782,7 @@
         <v>44474</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17839,7 +17839,7 @@
         <v>44476</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17901,7 +17901,7 @@
         <v>44477</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17958,7 +17958,7 @@
         <v>44480</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18040,7 +18040,7 @@
         <v>44490</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18097,7 +18097,7 @@
         <v>44490</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18154,7 +18154,7 @@
         <v>44491</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18216,7 +18216,7 @@
         <v>44491</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18278,7 +18278,7 @@
         <v>44501</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18335,7 +18335,7 @@
         <v>44502</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18392,7 +18392,7 @@
         <v>44502</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18449,7 +18449,7 @@
         <v>44503</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18511,7 +18511,7 @@
         <v>44510</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         <v>44515</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18625,7 +18625,7 @@
         <v>44516</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18682,7 +18682,7 @@
         <v>44530</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         <v>44531</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18796,7 +18796,7 @@
         <v>44538</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18853,7 +18853,7 @@
         <v>44540</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18910,7 +18910,7 @@
         <v>44566</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18967,7 +18967,7 @@
         <v>44572</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19024,7 +19024,7 @@
         <v>44582</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19081,7 +19081,7 @@
         <v>44585</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19138,7 +19138,7 @@
         <v>44592</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19195,7 +19195,7 @@
         <v>44593</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19257,7 +19257,7 @@
         <v>44600</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19314,7 +19314,7 @@
         <v>44602</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19371,7 +19371,7 @@
         <v>44620</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19428,7 +19428,7 @@
         <v>44621</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19485,7 +19485,7 @@
         <v>44624</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19542,7 +19542,7 @@
         <v>44634</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19599,7 +19599,7 @@
         <v>44635</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19656,7 +19656,7 @@
         <v>44650</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19713,7 +19713,7 @@
         <v>44651</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19770,7 +19770,7 @@
         <v>44651</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19827,7 +19827,7 @@
         <v>44655</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19884,7 +19884,7 @@
         <v>44670</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19941,7 +19941,7 @@
         <v>44693</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19998,7 +19998,7 @@
         <v>44698</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20055,7 +20055,7 @@
         <v>44713</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20117,7 +20117,7 @@
         <v>44728</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         <v>44728</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20241,7 +20241,7 @@
         <v>44743</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20298,7 +20298,7 @@
         <v>44743</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20355,7 +20355,7 @@
         <v>44749</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20412,7 +20412,7 @@
         <v>44789</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20474,7 +20474,7 @@
         <v>44789</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20536,7 +20536,7 @@
         <v>44798</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20593,7 +20593,7 @@
         <v>44816</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20650,7 +20650,7 @@
         <v>44816</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20707,7 +20707,7 @@
         <v>44816</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20764,7 +20764,7 @@
         <v>44820</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20821,7 +20821,7 @@
         <v>44827</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20883,7 +20883,7 @@
         <v>44827</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20945,7 +20945,7 @@
         <v>44858</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21007,7 +21007,7 @@
         <v>44866</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21069,7 +21069,7 @@
         <v>44868</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21131,7 +21131,7 @@
         <v>44872</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21188,7 +21188,7 @@
         <v>44872</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21250,7 +21250,7 @@
         <v>44874</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21307,7 +21307,7 @@
         <v>44874</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21364,7 +21364,7 @@
         <v>44879</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21421,7 +21421,7 @@
         <v>44879</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21478,7 +21478,7 @@
         <v>44903</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21535,7 +21535,7 @@
         <v>44916</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21592,7 +21592,7 @@
         <v>44944</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21649,7 +21649,7 @@
         <v>44953</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21706,7 +21706,7 @@
         <v>44953</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21763,7 +21763,7 @@
         <v>44953</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21820,7 +21820,7 @@
         <v>44971</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21882,7 +21882,7 @@
         <v>44985</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21944,7 +21944,7 @@
         <v>44985</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22006,7 +22006,7 @@
         <v>44986</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22063,7 +22063,7 @@
         <v>44987</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22120,7 +22120,7 @@
         <v>44987</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22177,7 +22177,7 @@
         <v>44994</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22234,7 +22234,7 @@
         <v>44994</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22291,7 +22291,7 @@
         <v>45016</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22353,7 +22353,7 @@
         <v>45022</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22415,7 +22415,7 @@
         <v>45048</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22472,7 +22472,7 @@
         <v>45048</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22529,7 +22529,7 @@
         <v>45070</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22591,7 +22591,7 @@
         <v>45077</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22648,7 +22648,7 @@
         <v>45077</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22705,7 +22705,7 @@
         <v>45077</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22762,7 +22762,7 @@
         <v>45077</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22819,7 +22819,7 @@
         <v>45077</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22876,7 +22876,7 @@
         <v>45077</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22933,7 +22933,7 @@
         <v>45077</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22990,7 +22990,7 @@
         <v>45085</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23047,7 +23047,7 @@
         <v>45090</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23109,7 +23109,7 @@
         <v>45090</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23171,7 +23171,7 @@
         <v>45093</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23233,7 +23233,7 @@
         <v>45096</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23290,7 +23290,7 @@
         <v>45096</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23347,7 +23347,7 @@
         <v>45099</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23404,7 +23404,7 @@
         <v>45104</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23461,7 +23461,7 @@
         <v>45104</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23518,7 +23518,7 @@
         <v>45105</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23575,7 +23575,7 @@
         <v>45105</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23632,7 +23632,7 @@
         <v>45110</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23689,7 +23689,7 @@
         <v>45110</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23746,7 +23746,7 @@
         <v>45110</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23803,7 +23803,7 @@
         <v>45117</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23865,7 +23865,7 @@
         <v>45118</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23927,7 +23927,7 @@
         <v>45119</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23989,7 +23989,7 @@
         <v>45119</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24051,7 +24051,7 @@
         <v>45119</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24113,7 +24113,7 @@
         <v>45119</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24170,7 +24170,7 @@
         <v>45138</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24227,7 +24227,7 @@
         <v>45138</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24284,7 +24284,7 @@
         <v>45145</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24341,7 +24341,7 @@
         <v>45149</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24398,7 +24398,7 @@
         <v>45159</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24455,7 +24455,7 @@
         <v>45159</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24512,7 +24512,7 @@
         <v>45161</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24569,7 +24569,7 @@
         <v>45169</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24626,7 +24626,7 @@
         <v>45170</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24683,7 +24683,7 @@
         <v>45170</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>

--- a/Översikt YDRE.xlsx
+++ b/Översikt YDRE.xlsx
@@ -572,7 +572,7 @@
         <v>44257</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>43409</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>43517</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>45070</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         <v>43405</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1013,7 +1013,7 @@
         <v>44732</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>45138</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         <v>43524</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1275,7 +1275,7 @@
         <v>43665</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>43910</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1449,7 +1449,7 @@
         <v>44087</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
         <v>44187</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1624,7 +1624,7 @@
         <v>44358</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1709,7 +1709,7 @@
         <v>44468</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
         <v>44468</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1889,7 +1889,7 @@
         <v>44831</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1979,7 +1979,7 @@
         <v>44874</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>45090</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2154,7 +2154,7 @@
         <v>43336</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2211,7 +2211,7 @@
         <v>43339</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
         <v>43354</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2325,7 +2325,7 @@
         <v>43355</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2382,7 +2382,7 @@
         <v>43355</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2439,7 +2439,7 @@
         <v>43356</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2496,7 +2496,7 @@
         <v>43362</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2553,7 +2553,7 @@
         <v>43375</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
         <v>43375</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2667,7 +2667,7 @@
         <v>43381</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2724,7 +2724,7 @@
         <v>43385</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         <v>43385</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2838,7 +2838,7 @@
         <v>43389</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2895,7 +2895,7 @@
         <v>43390</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2952,7 +2952,7 @@
         <v>43390</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3009,7 +3009,7 @@
         <v>43392</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3066,7 +3066,7 @@
         <v>43399</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3123,7 +3123,7 @@
         <v>43403</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         <v>43403</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3237,7 +3237,7 @@
         <v>43411</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3294,7 +3294,7 @@
         <v>43411</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3351,7 +3351,7 @@
         <v>43411</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3408,7 +3408,7 @@
         <v>43412</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3465,7 +3465,7 @@
         <v>43416</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3522,7 +3522,7 @@
         <v>43423</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3584,7 +3584,7 @@
         <v>43424</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3641,7 +3641,7 @@
         <v>43425</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3698,7 +3698,7 @@
         <v>43425</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3755,7 +3755,7 @@
         <v>43433</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3812,7 +3812,7 @@
         <v>43433</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3869,7 +3869,7 @@
         <v>43433</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3926,7 +3926,7 @@
         <v>43434</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3983,7 +3983,7 @@
         <v>43439</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>43439</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>43440</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>43445</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         <v>43445</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>43451</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>43451</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>43452</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4449,7 +4449,7 @@
         <v>43455</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>43455</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         <v>43468</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>43468</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
         <v>43475</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>43475</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>43479</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
         <v>43479</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4910,7 +4910,7 @@
         <v>43480</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4972,7 +4972,7 @@
         <v>43486</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5029,7 +5029,7 @@
         <v>43487</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>43489</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>43494</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>43494</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         <v>43495</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
         <v>43496</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         <v>43496</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         <v>43502</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>43503</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5557,7 +5557,7 @@
         <v>43509</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5614,7 +5614,7 @@
         <v>43514</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5671,7 +5671,7 @@
         <v>43514</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5728,7 +5728,7 @@
         <v>43517</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
         <v>43521</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5842,7 +5842,7 @@
         <v>43521</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5899,7 +5899,7 @@
         <v>43524</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5956,7 +5956,7 @@
         <v>43524</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6013,7 +6013,7 @@
         <v>43524</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6070,7 +6070,7 @@
         <v>43524</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
         <v>43524</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>43524</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
         <v>43528</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6298,7 +6298,7 @@
         <v>43528</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6360,7 +6360,7 @@
         <v>43532</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6417,7 +6417,7 @@
         <v>43544</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6474,7 +6474,7 @@
         <v>43546</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6536,7 +6536,7 @@
         <v>43553</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6593,7 +6593,7 @@
         <v>43553</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6650,7 +6650,7 @@
         <v>43558</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6707,7 +6707,7 @@
         <v>43560</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6764,7 +6764,7 @@
         <v>43564</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6821,7 +6821,7 @@
         <v>43585</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>43587</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6935,7 +6935,7 @@
         <v>43593</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6997,7 +6997,7 @@
         <v>43594</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7054,7 +7054,7 @@
         <v>43594</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7111,7 +7111,7 @@
         <v>43595</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7168,7 +7168,7 @@
         <v>43601</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
         <v>43605</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>43608</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7349,7 +7349,7 @@
         <v>43626</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7406,7 +7406,7 @@
         <v>43628</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7463,7 +7463,7 @@
         <v>43630</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         <v>43634</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7577,7 +7577,7 @@
         <v>43647</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7634,7 +7634,7 @@
         <v>43661</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7691,7 +7691,7 @@
         <v>43679</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7748,7 +7748,7 @@
         <v>43682</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7805,7 +7805,7 @@
         <v>43683</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7862,7 +7862,7 @@
         <v>43689</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7919,7 +7919,7 @@
         <v>43692</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7976,7 +7976,7 @@
         <v>43692</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         <v>43699</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8090,7 +8090,7 @@
         <v>43705</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8147,7 +8147,7 @@
         <v>43711</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>43712</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>43712</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>43713</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>43713</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>43717</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>43721</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>43731</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>43735</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>43738</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>43748</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>43753</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8836,7 +8836,7 @@
         <v>43761</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8898,7 +8898,7 @@
         <v>43768</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8955,7 +8955,7 @@
         <v>43769</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9012,7 +9012,7 @@
         <v>43773</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9069,7 +9069,7 @@
         <v>43773</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9126,7 +9126,7 @@
         <v>43773</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9183,7 +9183,7 @@
         <v>43773</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9240,7 +9240,7 @@
         <v>43781</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9297,7 +9297,7 @@
         <v>43788</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9359,7 +9359,7 @@
         <v>43791</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9421,7 +9421,7 @@
         <v>43796</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9478,7 +9478,7 @@
         <v>43805</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9535,7 +9535,7 @@
         <v>43808</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9597,7 +9597,7 @@
         <v>43811</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9659,7 +9659,7 @@
         <v>43812</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9716,7 +9716,7 @@
         <v>43837</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9773,7 +9773,7 @@
         <v>43837</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9830,7 +9830,7 @@
         <v>43839</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9887,7 +9887,7 @@
         <v>43850</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9944,7 +9944,7 @@
         <v>43851</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10001,7 +10001,7 @@
         <v>43851</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10058,7 +10058,7 @@
         <v>43854</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10115,7 +10115,7 @@
         <v>43859</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10172,7 +10172,7 @@
         <v>43859</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10229,7 +10229,7 @@
         <v>43866</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10286,7 +10286,7 @@
         <v>43866</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10343,7 +10343,7 @@
         <v>43867</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10400,7 +10400,7 @@
         <v>43867</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
         <v>43867</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10514,7 +10514,7 @@
         <v>43867</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10571,7 +10571,7 @@
         <v>43875</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10628,7 +10628,7 @@
         <v>43892</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10685,7 +10685,7 @@
         <v>43892</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10742,7 +10742,7 @@
         <v>43899</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10799,7 +10799,7 @@
         <v>43900</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10856,7 +10856,7 @@
         <v>43907</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10913,7 +10913,7 @@
         <v>43914</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10970,7 +10970,7 @@
         <v>43928</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11027,7 +11027,7 @@
         <v>43945</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>43955</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>43958</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11203,7 +11203,7 @@
         <v>43963</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11265,7 +11265,7 @@
         <v>43964</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11327,7 +11327,7 @@
         <v>43964</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11389,7 +11389,7 @@
         <v>43964</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11451,7 +11451,7 @@
         <v>43964</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11513,7 +11513,7 @@
         <v>43970</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11575,7 +11575,7 @@
         <v>43970</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11637,7 +11637,7 @@
         <v>43970</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11699,7 +11699,7 @@
         <v>43970</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11761,7 +11761,7 @@
         <v>43970</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11823,7 +11823,7 @@
         <v>43980</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11885,7 +11885,7 @@
         <v>43987</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11942,7 +11942,7 @@
         <v>43987</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11999,7 +11999,7 @@
         <v>43987</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12056,7 +12056,7 @@
         <v>43990</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12113,7 +12113,7 @@
         <v>44015</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12170,7 +12170,7 @@
         <v>44018</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12227,7 +12227,7 @@
         <v>44018</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12284,7 +12284,7 @@
         <v>44020</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12341,7 +12341,7 @@
         <v>44020</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12398,7 +12398,7 @@
         <v>44028</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12455,7 +12455,7 @@
         <v>44029</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12517,7 +12517,7 @@
         <v>44029</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12579,7 +12579,7 @@
         <v>44029</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12641,7 +12641,7 @@
         <v>44039</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12698,7 +12698,7 @@
         <v>44049</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12755,7 +12755,7 @@
         <v>44049</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12812,7 +12812,7 @@
         <v>44049</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12869,7 +12869,7 @@
         <v>44057</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12926,7 +12926,7 @@
         <v>44064</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12983,7 +12983,7 @@
         <v>44069</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13040,7 +13040,7 @@
         <v>44074</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13102,7 +13102,7 @@
         <v>44074</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13164,7 +13164,7 @@
         <v>44074</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13226,7 +13226,7 @@
         <v>44077</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>44083</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         <v>44087</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13407,7 +13407,7 @@
         <v>44087</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13469,7 +13469,7 @@
         <v>44088</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13526,7 +13526,7 @@
         <v>44089</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13583,7 +13583,7 @@
         <v>44089</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13640,7 +13640,7 @@
         <v>44092</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13697,7 +13697,7 @@
         <v>44095</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13754,7 +13754,7 @@
         <v>44095</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13811,7 +13811,7 @@
         <v>44102</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13868,7 +13868,7 @@
         <v>44104</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13925,7 +13925,7 @@
         <v>44104</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13982,7 +13982,7 @@
         <v>44104</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14039,7 +14039,7 @@
         <v>44104</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14096,7 +14096,7 @@
         <v>44104</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14153,7 +14153,7 @@
         <v>44109</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14210,7 +14210,7 @@
         <v>44116</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14267,7 +14267,7 @@
         <v>44120</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14324,7 +14324,7 @@
         <v>44124</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14381,7 +14381,7 @@
         <v>44124</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14438,7 +14438,7 @@
         <v>44126</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14495,7 +14495,7 @@
         <v>44130</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14552,7 +14552,7 @@
         <v>44130</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14609,7 +14609,7 @@
         <v>44130</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>44138</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14723,7 +14723,7 @@
         <v>44141</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14780,7 +14780,7 @@
         <v>44144</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14842,7 +14842,7 @@
         <v>44168</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14899,7 +14899,7 @@
         <v>44168</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14956,7 +14956,7 @@
         <v>44168</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15013,7 +15013,7 @@
         <v>44168</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15070,7 +15070,7 @@
         <v>44179</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15127,7 +15127,7 @@
         <v>44181</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15184,7 +15184,7 @@
         <v>44183</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15246,7 +15246,7 @@
         <v>44186</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15303,7 +15303,7 @@
         <v>44187</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15360,7 +15360,7 @@
         <v>44200</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15417,7 +15417,7 @@
         <v>44203</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15474,7 +15474,7 @@
         <v>44211</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15531,7 +15531,7 @@
         <v>44211</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15593,7 +15593,7 @@
         <v>44257</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15650,7 +15650,7 @@
         <v>44257</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15707,7 +15707,7 @@
         <v>44260</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15764,7 +15764,7 @@
         <v>44263</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15821,7 +15821,7 @@
         <v>44267</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15883,7 +15883,7 @@
         <v>44270</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15965,7 +15965,7 @@
         <v>44292</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16022,7 +16022,7 @@
         <v>44295</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16079,7 +16079,7 @@
         <v>44298</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16136,7 +16136,7 @@
         <v>44305</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16198,7 +16198,7 @@
         <v>44305</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16260,7 +16260,7 @@
         <v>44305</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16322,7 +16322,7 @@
         <v>44316</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16379,7 +16379,7 @@
         <v>44340</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16441,7 +16441,7 @@
         <v>44343</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16498,7 +16498,7 @@
         <v>44344</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16555,7 +16555,7 @@
         <v>44347</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16612,7 +16612,7 @@
         <v>44347</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16669,7 +16669,7 @@
         <v>44347</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16726,7 +16726,7 @@
         <v>44347</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16783,7 +16783,7 @@
         <v>44362</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16845,7 +16845,7 @@
         <v>44371</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16902,7 +16902,7 @@
         <v>44382</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16959,7 +16959,7 @@
         <v>44386</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17016,7 +17016,7 @@
         <v>44392</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17078,7 +17078,7 @@
         <v>44413</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17135,7 +17135,7 @@
         <v>44428</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17197,7 +17197,7 @@
         <v>44438</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17254,7 +17254,7 @@
         <v>44438</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17311,7 +17311,7 @@
         <v>44439</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17368,7 +17368,7 @@
         <v>44447</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17430,7 +17430,7 @@
         <v>44447</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17492,7 +17492,7 @@
         <v>44454</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17549,7 +17549,7 @@
         <v>44461</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17606,7 +17606,7 @@
         <v>44461</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17663,7 +17663,7 @@
         <v>44468</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17725,7 +17725,7 @@
         <v>44469</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17782,7 +17782,7 @@
         <v>44474</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17839,7 +17839,7 @@
         <v>44476</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17901,7 +17901,7 @@
         <v>44477</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17958,7 +17958,7 @@
         <v>44480</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18040,7 +18040,7 @@
         <v>44490</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18097,7 +18097,7 @@
         <v>44490</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18154,7 +18154,7 @@
         <v>44491</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18216,7 +18216,7 @@
         <v>44491</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18278,7 +18278,7 @@
         <v>44501</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18335,7 +18335,7 @@
         <v>44502</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18392,7 +18392,7 @@
         <v>44502</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18449,7 +18449,7 @@
         <v>44503</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18511,7 +18511,7 @@
         <v>44510</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         <v>44515</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18625,7 +18625,7 @@
         <v>44516</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18682,7 +18682,7 @@
         <v>44530</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         <v>44531</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18796,7 +18796,7 @@
         <v>44538</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18853,7 +18853,7 @@
         <v>44540</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18910,7 +18910,7 @@
         <v>44566</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18967,7 +18967,7 @@
         <v>44572</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19024,7 +19024,7 @@
         <v>44582</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19081,7 +19081,7 @@
         <v>44585</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19138,7 +19138,7 @@
         <v>44592</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19195,7 +19195,7 @@
         <v>44593</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19257,7 +19257,7 @@
         <v>44600</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19314,7 +19314,7 @@
         <v>44602</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19371,7 +19371,7 @@
         <v>44620</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19428,7 +19428,7 @@
         <v>44621</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19485,7 +19485,7 @@
         <v>44624</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19542,7 +19542,7 @@
         <v>44634</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19599,7 +19599,7 @@
         <v>44635</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19656,7 +19656,7 @@
         <v>44650</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19713,7 +19713,7 @@
         <v>44651</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19770,7 +19770,7 @@
         <v>44651</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19827,7 +19827,7 @@
         <v>44655</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19884,7 +19884,7 @@
         <v>44670</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19941,7 +19941,7 @@
         <v>44693</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19998,7 +19998,7 @@
         <v>44698</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20055,7 +20055,7 @@
         <v>44713</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20117,7 +20117,7 @@
         <v>44728</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         <v>44728</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20241,7 +20241,7 @@
         <v>44743</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20298,7 +20298,7 @@
         <v>44743</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20355,7 +20355,7 @@
         <v>44749</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20412,7 +20412,7 @@
         <v>44789</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20474,7 +20474,7 @@
         <v>44789</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20536,7 +20536,7 @@
         <v>44798</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20593,7 +20593,7 @@
         <v>44816</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20650,7 +20650,7 @@
         <v>44816</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20707,7 +20707,7 @@
         <v>44816</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20764,7 +20764,7 @@
         <v>44820</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20821,7 +20821,7 @@
         <v>44827</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20883,7 +20883,7 @@
         <v>44827</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20945,7 +20945,7 @@
         <v>44858</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21007,7 +21007,7 @@
         <v>44866</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21069,7 +21069,7 @@
         <v>44868</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21131,7 +21131,7 @@
         <v>44872</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21188,7 +21188,7 @@
         <v>44872</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21250,7 +21250,7 @@
         <v>44874</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21307,7 +21307,7 @@
         <v>44874</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21364,7 +21364,7 @@
         <v>44879</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21421,7 +21421,7 @@
         <v>44879</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21478,7 +21478,7 @@
         <v>44903</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21535,7 +21535,7 @@
         <v>44916</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21592,7 +21592,7 @@
         <v>44944</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21649,7 +21649,7 @@
         <v>44953</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21706,7 +21706,7 @@
         <v>44953</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21763,7 +21763,7 @@
         <v>44953</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21820,7 +21820,7 @@
         <v>44971</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21882,7 +21882,7 @@
         <v>44985</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21944,7 +21944,7 @@
         <v>44985</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22006,7 +22006,7 @@
         <v>44986</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22063,7 +22063,7 @@
         <v>44987</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22120,7 +22120,7 @@
         <v>44987</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22177,7 +22177,7 @@
         <v>44994</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22234,7 +22234,7 @@
         <v>44994</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22291,7 +22291,7 @@
         <v>45016</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22353,7 +22353,7 @@
         <v>45022</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22415,7 +22415,7 @@
         <v>45048</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22472,7 +22472,7 @@
         <v>45048</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22529,7 +22529,7 @@
         <v>45070</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22591,7 +22591,7 @@
         <v>45077</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22648,7 +22648,7 @@
         <v>45077</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22705,7 +22705,7 @@
         <v>45077</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22762,7 +22762,7 @@
         <v>45077</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22819,7 +22819,7 @@
         <v>45077</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22876,7 +22876,7 @@
         <v>45077</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22933,7 +22933,7 @@
         <v>45077</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22990,7 +22990,7 @@
         <v>45085</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23047,7 +23047,7 @@
         <v>45090</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23109,7 +23109,7 @@
         <v>45090</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23171,7 +23171,7 @@
         <v>45093</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23233,7 +23233,7 @@
         <v>45096</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23290,7 +23290,7 @@
         <v>45096</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23347,7 +23347,7 @@
         <v>45099</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23404,7 +23404,7 @@
         <v>45104</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23461,7 +23461,7 @@
         <v>45104</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23518,7 +23518,7 @@
         <v>45105</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23575,7 +23575,7 @@
         <v>45105</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23632,7 +23632,7 @@
         <v>45110</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23689,7 +23689,7 @@
         <v>45110</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23746,7 +23746,7 @@
         <v>45110</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23803,7 +23803,7 @@
         <v>45117</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23865,7 +23865,7 @@
         <v>45118</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23927,7 +23927,7 @@
         <v>45119</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23989,7 +23989,7 @@
         <v>45119</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24051,7 +24051,7 @@
         <v>45119</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24113,7 +24113,7 @@
         <v>45119</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24170,7 +24170,7 @@
         <v>45138</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24227,7 +24227,7 @@
         <v>45138</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24284,7 +24284,7 @@
         <v>45145</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24341,7 +24341,7 @@
         <v>45149</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24398,7 +24398,7 @@
         <v>45159</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24455,7 +24455,7 @@
         <v>45159</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24512,7 +24512,7 @@
         <v>45161</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24569,7 +24569,7 @@
         <v>45169</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24626,7 +24626,7 @@
         <v>45170</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24683,7 +24683,7 @@
         <v>45170</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>

--- a/Översikt YDRE.xlsx
+++ b/Översikt YDRE.xlsx
@@ -572,7 +572,7 @@
         <v>44257</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>43409</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>43517</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>45070</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         <v>43405</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1013,7 +1013,7 @@
         <v>44732</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>45138</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         <v>43524</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1275,7 +1275,7 @@
         <v>43665</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>43910</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1449,7 +1449,7 @@
         <v>44087</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
         <v>44187</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1624,7 +1624,7 @@
         <v>44358</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1709,7 +1709,7 @@
         <v>44468</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
         <v>44468</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1889,7 +1889,7 @@
         <v>44831</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1979,7 +1979,7 @@
         <v>44874</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>45090</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2154,7 +2154,7 @@
         <v>43336</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2211,7 +2211,7 @@
         <v>43339</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
         <v>43354</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2325,7 +2325,7 @@
         <v>43355</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2382,7 +2382,7 @@
         <v>43355</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2439,7 +2439,7 @@
         <v>43356</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2496,7 +2496,7 @@
         <v>43362</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2553,7 +2553,7 @@
         <v>43375</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
         <v>43375</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2667,7 +2667,7 @@
         <v>43381</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2724,7 +2724,7 @@
         <v>43385</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         <v>43385</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2838,7 +2838,7 @@
         <v>43389</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2895,7 +2895,7 @@
         <v>43390</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2952,7 +2952,7 @@
         <v>43390</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3009,7 +3009,7 @@
         <v>43392</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3066,7 +3066,7 @@
         <v>43399</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3123,7 +3123,7 @@
         <v>43403</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         <v>43403</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3237,7 +3237,7 @@
         <v>43411</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3294,7 +3294,7 @@
         <v>43411</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3351,7 +3351,7 @@
         <v>43411</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3408,7 +3408,7 @@
         <v>43412</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3465,7 +3465,7 @@
         <v>43416</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3522,7 +3522,7 @@
         <v>43423</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3584,7 +3584,7 @@
         <v>43424</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3641,7 +3641,7 @@
         <v>43425</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3698,7 +3698,7 @@
         <v>43425</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3755,7 +3755,7 @@
         <v>43433</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3812,7 +3812,7 @@
         <v>43433</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3869,7 +3869,7 @@
         <v>43433</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3926,7 +3926,7 @@
         <v>43434</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3983,7 +3983,7 @@
         <v>43439</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>43439</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>43440</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>43445</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         <v>43445</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>43451</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>43451</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>43452</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4449,7 +4449,7 @@
         <v>43455</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>43455</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         <v>43468</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>43468</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
         <v>43475</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>43475</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>43479</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
         <v>43479</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4910,7 +4910,7 @@
         <v>43480</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4972,7 +4972,7 @@
         <v>43486</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5029,7 +5029,7 @@
         <v>43487</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>43489</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>43494</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>43494</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         <v>43495</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
         <v>43496</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         <v>43496</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         <v>43502</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>43503</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5557,7 +5557,7 @@
         <v>43509</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5614,7 +5614,7 @@
         <v>43514</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5671,7 +5671,7 @@
         <v>43514</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5728,7 +5728,7 @@
         <v>43517</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
         <v>43521</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5842,7 +5842,7 @@
         <v>43521</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5899,7 +5899,7 @@
         <v>43524</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5956,7 +5956,7 @@
         <v>43524</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6013,7 +6013,7 @@
         <v>43524</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6070,7 +6070,7 @@
         <v>43524</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
         <v>43524</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>43524</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
         <v>43528</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6298,7 +6298,7 @@
         <v>43528</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6360,7 +6360,7 @@
         <v>43532</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6417,7 +6417,7 @@
         <v>43544</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6474,7 +6474,7 @@
         <v>43546</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6536,7 +6536,7 @@
         <v>43553</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6593,7 +6593,7 @@
         <v>43553</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6650,7 +6650,7 @@
         <v>43558</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6707,7 +6707,7 @@
         <v>43560</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6764,7 +6764,7 @@
         <v>43564</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6821,7 +6821,7 @@
         <v>43585</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>43587</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6935,7 +6935,7 @@
         <v>43593</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6997,7 +6997,7 @@
         <v>43594</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7054,7 +7054,7 @@
         <v>43594</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7111,7 +7111,7 @@
         <v>43595</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7168,7 +7168,7 @@
         <v>43601</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
         <v>43605</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>43608</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7349,7 +7349,7 @@
         <v>43626</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7406,7 +7406,7 @@
         <v>43628</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7463,7 +7463,7 @@
         <v>43630</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         <v>43634</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7577,7 +7577,7 @@
         <v>43647</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7634,7 +7634,7 @@
         <v>43661</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7691,7 +7691,7 @@
         <v>43679</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7748,7 +7748,7 @@
         <v>43682</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7805,7 +7805,7 @@
         <v>43683</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7862,7 +7862,7 @@
         <v>43689</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7919,7 +7919,7 @@
         <v>43692</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7976,7 +7976,7 @@
         <v>43692</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         <v>43699</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8090,7 +8090,7 @@
         <v>43705</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8147,7 +8147,7 @@
         <v>43711</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>43712</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>43712</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>43713</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>43713</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>43717</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>43721</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>43731</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>43735</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>43738</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>43748</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>43753</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8836,7 +8836,7 @@
         <v>43761</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8898,7 +8898,7 @@
         <v>43768</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8955,7 +8955,7 @@
         <v>43769</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9012,7 +9012,7 @@
         <v>43773</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9069,7 +9069,7 @@
         <v>43773</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9126,7 +9126,7 @@
         <v>43773</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9183,7 +9183,7 @@
         <v>43773</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9240,7 +9240,7 @@
         <v>43781</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9297,7 +9297,7 @@
         <v>43788</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9359,7 +9359,7 @@
         <v>43791</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9421,7 +9421,7 @@
         <v>43796</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9478,7 +9478,7 @@
         <v>43805</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9535,7 +9535,7 @@
         <v>43808</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9597,7 +9597,7 @@
         <v>43811</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9659,7 +9659,7 @@
         <v>43812</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9716,7 +9716,7 @@
         <v>43837</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9773,7 +9773,7 @@
         <v>43837</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9830,7 +9830,7 @@
         <v>43839</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9887,7 +9887,7 @@
         <v>43850</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9944,7 +9944,7 @@
         <v>43851</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10001,7 +10001,7 @@
         <v>43851</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10058,7 +10058,7 @@
         <v>43854</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10115,7 +10115,7 @@
         <v>43859</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10172,7 +10172,7 @@
         <v>43859</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10229,7 +10229,7 @@
         <v>43866</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10286,7 +10286,7 @@
         <v>43866</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10343,7 +10343,7 @@
         <v>43867</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10400,7 +10400,7 @@
         <v>43867</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
         <v>43867</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10514,7 +10514,7 @@
         <v>43867</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10571,7 +10571,7 @@
         <v>43875</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10628,7 +10628,7 @@
         <v>43892</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10685,7 +10685,7 @@
         <v>43892</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10742,7 +10742,7 @@
         <v>43899</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10799,7 +10799,7 @@
         <v>43900</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10856,7 +10856,7 @@
         <v>43907</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10913,7 +10913,7 @@
         <v>43914</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10970,7 +10970,7 @@
         <v>43928</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11027,7 +11027,7 @@
         <v>43945</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>43955</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>43958</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11203,7 +11203,7 @@
         <v>43963</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11265,7 +11265,7 @@
         <v>43964</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11327,7 +11327,7 @@
         <v>43964</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11389,7 +11389,7 @@
         <v>43964</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11451,7 +11451,7 @@
         <v>43964</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11513,7 +11513,7 @@
         <v>43970</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11575,7 +11575,7 @@
         <v>43970</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11637,7 +11637,7 @@
         <v>43970</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11699,7 +11699,7 @@
         <v>43970</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11761,7 +11761,7 @@
         <v>43970</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11823,7 +11823,7 @@
         <v>43980</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11885,7 +11885,7 @@
         <v>43987</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11942,7 +11942,7 @@
         <v>43987</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11999,7 +11999,7 @@
         <v>43987</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12056,7 +12056,7 @@
         <v>43990</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12113,7 +12113,7 @@
         <v>44015</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12170,7 +12170,7 @@
         <v>44018</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12227,7 +12227,7 @@
         <v>44018</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12284,7 +12284,7 @@
         <v>44020</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12341,7 +12341,7 @@
         <v>44020</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12398,7 +12398,7 @@
         <v>44028</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12455,7 +12455,7 @@
         <v>44029</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12517,7 +12517,7 @@
         <v>44029</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12579,7 +12579,7 @@
         <v>44029</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12641,7 +12641,7 @@
         <v>44039</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12698,7 +12698,7 @@
         <v>44049</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12755,7 +12755,7 @@
         <v>44049</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12812,7 +12812,7 @@
         <v>44049</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12869,7 +12869,7 @@
         <v>44057</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12926,7 +12926,7 @@
         <v>44064</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12983,7 +12983,7 @@
         <v>44069</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13040,7 +13040,7 @@
         <v>44074</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13102,7 +13102,7 @@
         <v>44074</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13164,7 +13164,7 @@
         <v>44074</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13226,7 +13226,7 @@
         <v>44077</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>44083</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         <v>44087</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13407,7 +13407,7 @@
         <v>44087</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13469,7 +13469,7 @@
         <v>44088</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13526,7 +13526,7 @@
         <v>44089</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13583,7 +13583,7 @@
         <v>44089</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13640,7 +13640,7 @@
         <v>44092</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13697,7 +13697,7 @@
         <v>44095</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13754,7 +13754,7 @@
         <v>44095</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13811,7 +13811,7 @@
         <v>44102</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13868,7 +13868,7 @@
         <v>44104</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13925,7 +13925,7 @@
         <v>44104</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13982,7 +13982,7 @@
         <v>44104</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14039,7 +14039,7 @@
         <v>44104</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14096,7 +14096,7 @@
         <v>44104</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14153,7 +14153,7 @@
         <v>44109</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14210,7 +14210,7 @@
         <v>44116</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14267,7 +14267,7 @@
         <v>44120</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14324,7 +14324,7 @@
         <v>44124</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14381,7 +14381,7 @@
         <v>44124</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14438,7 +14438,7 @@
         <v>44126</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14495,7 +14495,7 @@
         <v>44130</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14552,7 +14552,7 @@
         <v>44130</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14609,7 +14609,7 @@
         <v>44130</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>44138</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14723,7 +14723,7 @@
         <v>44141</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14780,7 +14780,7 @@
         <v>44144</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14842,7 +14842,7 @@
         <v>44168</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14899,7 +14899,7 @@
         <v>44168</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14956,7 +14956,7 @@
         <v>44168</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15013,7 +15013,7 @@
         <v>44168</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15070,7 +15070,7 @@
         <v>44179</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15127,7 +15127,7 @@
         <v>44181</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15184,7 +15184,7 @@
         <v>44183</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15246,7 +15246,7 @@
         <v>44186</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15303,7 +15303,7 @@
         <v>44187</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15360,7 +15360,7 @@
         <v>44200</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15417,7 +15417,7 @@
         <v>44203</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15474,7 +15474,7 @@
         <v>44211</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15531,7 +15531,7 @@
         <v>44211</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15593,7 +15593,7 @@
         <v>44257</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15650,7 +15650,7 @@
         <v>44257</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15707,7 +15707,7 @@
         <v>44260</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15764,7 +15764,7 @@
         <v>44263</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15821,7 +15821,7 @@
         <v>44267</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15883,7 +15883,7 @@
         <v>44270</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15965,7 +15965,7 @@
         <v>44292</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16022,7 +16022,7 @@
         <v>44295</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16079,7 +16079,7 @@
         <v>44298</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16136,7 +16136,7 @@
         <v>44305</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16198,7 +16198,7 @@
         <v>44305</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16260,7 +16260,7 @@
         <v>44305</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16322,7 +16322,7 @@
         <v>44316</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16379,7 +16379,7 @@
         <v>44340</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16441,7 +16441,7 @@
         <v>44343</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16498,7 +16498,7 @@
         <v>44344</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16555,7 +16555,7 @@
         <v>44347</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16612,7 +16612,7 @@
         <v>44347</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16669,7 +16669,7 @@
         <v>44347</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16726,7 +16726,7 @@
         <v>44347</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16783,7 +16783,7 @@
         <v>44362</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16845,7 +16845,7 @@
         <v>44371</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16902,7 +16902,7 @@
         <v>44382</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16959,7 +16959,7 @@
         <v>44386</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17016,7 +17016,7 @@
         <v>44392</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17078,7 +17078,7 @@
         <v>44413</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17135,7 +17135,7 @@
         <v>44428</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17197,7 +17197,7 @@
         <v>44438</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17254,7 +17254,7 @@
         <v>44438</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17311,7 +17311,7 @@
         <v>44439</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17368,7 +17368,7 @@
         <v>44447</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17430,7 +17430,7 @@
         <v>44447</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17492,7 +17492,7 @@
         <v>44454</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17549,7 +17549,7 @@
         <v>44461</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17606,7 +17606,7 @@
         <v>44461</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17663,7 +17663,7 @@
         <v>44468</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17725,7 +17725,7 @@
         <v>44469</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17782,7 +17782,7 @@
         <v>44474</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17839,7 +17839,7 @@
         <v>44476</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17901,7 +17901,7 @@
         <v>44477</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17958,7 +17958,7 @@
         <v>44480</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18040,7 +18040,7 @@
         <v>44490</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18097,7 +18097,7 @@
         <v>44490</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18154,7 +18154,7 @@
         <v>44491</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18216,7 +18216,7 @@
         <v>44491</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18278,7 +18278,7 @@
         <v>44501</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18335,7 +18335,7 @@
         <v>44502</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18392,7 +18392,7 @@
         <v>44502</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18449,7 +18449,7 @@
         <v>44503</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18511,7 +18511,7 @@
         <v>44510</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         <v>44515</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18625,7 +18625,7 @@
         <v>44516</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18682,7 +18682,7 @@
         <v>44530</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         <v>44531</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18796,7 +18796,7 @@
         <v>44538</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18853,7 +18853,7 @@
         <v>44540</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18910,7 +18910,7 @@
         <v>44566</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18967,7 +18967,7 @@
         <v>44572</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19024,7 +19024,7 @@
         <v>44582</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19081,7 +19081,7 @@
         <v>44585</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19138,7 +19138,7 @@
         <v>44592</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19195,7 +19195,7 @@
         <v>44593</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19257,7 +19257,7 @@
         <v>44600</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19314,7 +19314,7 @@
         <v>44602</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19371,7 +19371,7 @@
         <v>44620</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19428,7 +19428,7 @@
         <v>44621</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19485,7 +19485,7 @@
         <v>44624</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19542,7 +19542,7 @@
         <v>44634</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19599,7 +19599,7 @@
         <v>44635</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19656,7 +19656,7 @@
         <v>44650</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19713,7 +19713,7 @@
         <v>44651</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19770,7 +19770,7 @@
         <v>44651</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19827,7 +19827,7 @@
         <v>44655</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19884,7 +19884,7 @@
         <v>44670</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19941,7 +19941,7 @@
         <v>44693</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19998,7 +19998,7 @@
         <v>44698</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20055,7 +20055,7 @@
         <v>44713</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20117,7 +20117,7 @@
         <v>44728</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         <v>44728</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20241,7 +20241,7 @@
         <v>44743</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20298,7 +20298,7 @@
         <v>44743</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20355,7 +20355,7 @@
         <v>44749</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20412,7 +20412,7 @@
         <v>44789</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20474,7 +20474,7 @@
         <v>44789</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20536,7 +20536,7 @@
         <v>44798</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20593,7 +20593,7 @@
         <v>44816</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20650,7 +20650,7 @@
         <v>44816</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20707,7 +20707,7 @@
         <v>44816</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20764,7 +20764,7 @@
         <v>44820</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20821,7 +20821,7 @@
         <v>44827</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20883,7 +20883,7 @@
         <v>44827</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20945,7 +20945,7 @@
         <v>44858</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21007,7 +21007,7 @@
         <v>44866</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21069,7 +21069,7 @@
         <v>44868</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21131,7 +21131,7 @@
         <v>44872</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21188,7 +21188,7 @@
         <v>44872</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21250,7 +21250,7 @@
         <v>44874</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21307,7 +21307,7 @@
         <v>44874</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21364,7 +21364,7 @@
         <v>44879</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21421,7 +21421,7 @@
         <v>44879</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21478,7 +21478,7 @@
         <v>44903</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21535,7 +21535,7 @@
         <v>44916</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21592,7 +21592,7 @@
         <v>44944</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21649,7 +21649,7 @@
         <v>44953</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21706,7 +21706,7 @@
         <v>44953</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21763,7 +21763,7 @@
         <v>44953</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21820,7 +21820,7 @@
         <v>44971</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21882,7 +21882,7 @@
         <v>44985</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21944,7 +21944,7 @@
         <v>44985</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22006,7 +22006,7 @@
         <v>44986</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22063,7 +22063,7 @@
         <v>44987</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22120,7 +22120,7 @@
         <v>44987</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22177,7 +22177,7 @@
         <v>44994</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22234,7 +22234,7 @@
         <v>44994</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22291,7 +22291,7 @@
         <v>45016</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22353,7 +22353,7 @@
         <v>45022</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22415,7 +22415,7 @@
         <v>45048</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22472,7 +22472,7 @@
         <v>45048</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22529,7 +22529,7 @@
         <v>45070</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22591,7 +22591,7 @@
         <v>45077</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22648,7 +22648,7 @@
         <v>45077</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22705,7 +22705,7 @@
         <v>45077</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22762,7 +22762,7 @@
         <v>45077</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22819,7 +22819,7 @@
         <v>45077</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22876,7 +22876,7 @@
         <v>45077</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22933,7 +22933,7 @@
         <v>45077</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22990,7 +22990,7 @@
         <v>45085</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23047,7 +23047,7 @@
         <v>45090</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23109,7 +23109,7 @@
         <v>45090</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23171,7 +23171,7 @@
         <v>45093</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23233,7 +23233,7 @@
         <v>45096</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23290,7 +23290,7 @@
         <v>45096</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23347,7 +23347,7 @@
         <v>45099</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23404,7 +23404,7 @@
         <v>45104</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23461,7 +23461,7 @@
         <v>45104</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23518,7 +23518,7 @@
         <v>45105</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23575,7 +23575,7 @@
         <v>45105</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23632,7 +23632,7 @@
         <v>45110</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23689,7 +23689,7 @@
         <v>45110</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23746,7 +23746,7 @@
         <v>45110</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23803,7 +23803,7 @@
         <v>45117</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23865,7 +23865,7 @@
         <v>45118</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23927,7 +23927,7 @@
         <v>45119</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23989,7 +23989,7 @@
         <v>45119</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24051,7 +24051,7 @@
         <v>45119</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24113,7 +24113,7 @@
         <v>45119</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24170,7 +24170,7 @@
         <v>45138</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24227,7 +24227,7 @@
         <v>45138</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24284,7 +24284,7 @@
         <v>45145</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24341,7 +24341,7 @@
         <v>45149</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24398,7 +24398,7 @@
         <v>45159</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24455,7 +24455,7 @@
         <v>45159</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24512,7 +24512,7 @@
         <v>45161</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24569,7 +24569,7 @@
         <v>45169</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24626,7 +24626,7 @@
         <v>45170</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24683,7 +24683,7 @@
         <v>45170</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>

--- a/Översikt YDRE.xlsx
+++ b/Översikt YDRE.xlsx
@@ -572,7 +572,7 @@
         <v>44257</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>43409</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>43517</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>45070</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         <v>43405</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1013,7 +1013,7 @@
         <v>44732</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>45138</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         <v>43524</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1275,7 +1275,7 @@
         <v>43665</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>43910</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1449,7 +1449,7 @@
         <v>44087</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
         <v>44187</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1624,7 +1624,7 @@
         <v>44358</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1709,7 +1709,7 @@
         <v>44468</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
         <v>44468</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1889,7 +1889,7 @@
         <v>44831</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1979,7 +1979,7 @@
         <v>44874</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>45090</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2154,7 +2154,7 @@
         <v>43336</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2211,7 +2211,7 @@
         <v>43339</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
         <v>43354</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2325,7 +2325,7 @@
         <v>43355</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2382,7 +2382,7 @@
         <v>43355</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2439,7 +2439,7 @@
         <v>43356</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2496,7 +2496,7 @@
         <v>43362</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2553,7 +2553,7 @@
         <v>43375</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
         <v>43375</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2667,7 +2667,7 @@
         <v>43381</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2724,7 +2724,7 @@
         <v>43385</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         <v>43385</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2838,7 +2838,7 @@
         <v>43389</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2895,7 +2895,7 @@
         <v>43390</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2952,7 +2952,7 @@
         <v>43390</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3009,7 +3009,7 @@
         <v>43392</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3066,7 +3066,7 @@
         <v>43399</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3123,7 +3123,7 @@
         <v>43403</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         <v>43403</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3237,7 +3237,7 @@
         <v>43411</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3294,7 +3294,7 @@
         <v>43411</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3351,7 +3351,7 @@
         <v>43411</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3408,7 +3408,7 @@
         <v>43412</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3465,7 +3465,7 @@
         <v>43416</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3522,7 +3522,7 @@
         <v>43423</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3584,7 +3584,7 @@
         <v>43424</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3641,7 +3641,7 @@
         <v>43425</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3698,7 +3698,7 @@
         <v>43425</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3755,7 +3755,7 @@
         <v>43433</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3812,7 +3812,7 @@
         <v>43433</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3869,7 +3869,7 @@
         <v>43433</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3926,7 +3926,7 @@
         <v>43434</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3983,7 +3983,7 @@
         <v>43439</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>43439</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>43440</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>43445</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         <v>43445</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>43451</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>43451</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>43452</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4449,7 +4449,7 @@
         <v>43455</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>43455</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         <v>43468</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>43468</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
         <v>43475</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>43475</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>43479</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
         <v>43479</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4910,7 +4910,7 @@
         <v>43480</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4972,7 +4972,7 @@
         <v>43486</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5029,7 +5029,7 @@
         <v>43487</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>43489</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>43494</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>43494</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         <v>43495</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
         <v>43496</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         <v>43496</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         <v>43502</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>43503</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5557,7 +5557,7 @@
         <v>43509</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5614,7 +5614,7 @@
         <v>43514</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5671,7 +5671,7 @@
         <v>43514</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5728,7 +5728,7 @@
         <v>43517</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
         <v>43521</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5842,7 +5842,7 @@
         <v>43521</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5899,7 +5899,7 @@
         <v>43524</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5956,7 +5956,7 @@
         <v>43524</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6013,7 +6013,7 @@
         <v>43524</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6070,7 +6070,7 @@
         <v>43524</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
         <v>43524</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>43524</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
         <v>43528</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6298,7 +6298,7 @@
         <v>43528</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6360,7 +6360,7 @@
         <v>43532</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6417,7 +6417,7 @@
         <v>43544</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6474,7 +6474,7 @@
         <v>43546</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6536,7 +6536,7 @@
         <v>43553</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6593,7 +6593,7 @@
         <v>43553</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6650,7 +6650,7 @@
         <v>43558</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6707,7 +6707,7 @@
         <v>43560</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6764,7 +6764,7 @@
         <v>43564</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6821,7 +6821,7 @@
         <v>43585</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>43587</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6935,7 +6935,7 @@
         <v>43593</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6997,7 +6997,7 @@
         <v>43594</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7054,7 +7054,7 @@
         <v>43594</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7111,7 +7111,7 @@
         <v>43595</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7168,7 +7168,7 @@
         <v>43601</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
         <v>43605</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>43608</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7349,7 +7349,7 @@
         <v>43626</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7406,7 +7406,7 @@
         <v>43628</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7463,7 +7463,7 @@
         <v>43630</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         <v>43634</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7577,7 +7577,7 @@
         <v>43647</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7634,7 +7634,7 @@
         <v>43661</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7691,7 +7691,7 @@
         <v>43679</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7748,7 +7748,7 @@
         <v>43682</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7805,7 +7805,7 @@
         <v>43683</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7862,7 +7862,7 @@
         <v>43689</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7919,7 +7919,7 @@
         <v>43692</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7976,7 +7976,7 @@
         <v>43692</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         <v>43699</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8090,7 +8090,7 @@
         <v>43705</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8147,7 +8147,7 @@
         <v>43711</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>43712</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>43712</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>43713</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>43713</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>43717</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>43721</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>43731</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>43735</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>43738</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>43748</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>43753</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8836,7 +8836,7 @@
         <v>43761</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8898,7 +8898,7 @@
         <v>43768</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8955,7 +8955,7 @@
         <v>43769</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9012,7 +9012,7 @@
         <v>43773</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9069,7 +9069,7 @@
         <v>43773</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9126,7 +9126,7 @@
         <v>43773</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9183,7 +9183,7 @@
         <v>43773</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9240,7 +9240,7 @@
         <v>43781</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9297,7 +9297,7 @@
         <v>43788</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9359,7 +9359,7 @@
         <v>43791</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9421,7 +9421,7 @@
         <v>43796</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9478,7 +9478,7 @@
         <v>43805</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9535,7 +9535,7 @@
         <v>43808</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9597,7 +9597,7 @@
         <v>43811</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9659,7 +9659,7 @@
         <v>43812</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9716,7 +9716,7 @@
         <v>43837</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9773,7 +9773,7 @@
         <v>43837</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9830,7 +9830,7 @@
         <v>43839</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9887,7 +9887,7 @@
         <v>43850</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9944,7 +9944,7 @@
         <v>43851</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10001,7 +10001,7 @@
         <v>43851</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10058,7 +10058,7 @@
         <v>43854</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10115,7 +10115,7 @@
         <v>43859</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10172,7 +10172,7 @@
         <v>43859</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10229,7 +10229,7 @@
         <v>43866</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10286,7 +10286,7 @@
         <v>43866</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10343,7 +10343,7 @@
         <v>43867</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10400,7 +10400,7 @@
         <v>43867</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
         <v>43867</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10514,7 +10514,7 @@
         <v>43867</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10571,7 +10571,7 @@
         <v>43875</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10628,7 +10628,7 @@
         <v>43892</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10685,7 +10685,7 @@
         <v>43892</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10742,7 +10742,7 @@
         <v>43899</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10799,7 +10799,7 @@
         <v>43900</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10856,7 +10856,7 @@
         <v>43907</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10913,7 +10913,7 @@
         <v>43914</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10970,7 +10970,7 @@
         <v>43928</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11027,7 +11027,7 @@
         <v>43945</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>43955</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>43958</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11203,7 +11203,7 @@
         <v>43963</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11265,7 +11265,7 @@
         <v>43964</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11327,7 +11327,7 @@
         <v>43964</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11389,7 +11389,7 @@
         <v>43964</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11451,7 +11451,7 @@
         <v>43964</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11513,7 +11513,7 @@
         <v>43970</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11575,7 +11575,7 @@
         <v>43970</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11637,7 +11637,7 @@
         <v>43970</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11699,7 +11699,7 @@
         <v>43970</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11761,7 +11761,7 @@
         <v>43970</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11823,7 +11823,7 @@
         <v>43980</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11885,7 +11885,7 @@
         <v>43987</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11942,7 +11942,7 @@
         <v>43987</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11999,7 +11999,7 @@
         <v>43987</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12056,7 +12056,7 @@
         <v>43990</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12113,7 +12113,7 @@
         <v>44015</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12170,7 +12170,7 @@
         <v>44018</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12227,7 +12227,7 @@
         <v>44018</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12284,7 +12284,7 @@
         <v>44020</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12341,7 +12341,7 @@
         <v>44020</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12398,7 +12398,7 @@
         <v>44028</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12455,7 +12455,7 @@
         <v>44029</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12517,7 +12517,7 @@
         <v>44029</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12579,7 +12579,7 @@
         <v>44029</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12641,7 +12641,7 @@
         <v>44039</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12698,7 +12698,7 @@
         <v>44049</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12755,7 +12755,7 @@
         <v>44049</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12812,7 +12812,7 @@
         <v>44049</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12869,7 +12869,7 @@
         <v>44057</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12926,7 +12926,7 @@
         <v>44064</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12983,7 +12983,7 @@
         <v>44069</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13040,7 +13040,7 @@
         <v>44074</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13102,7 +13102,7 @@
         <v>44074</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13164,7 +13164,7 @@
         <v>44074</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13226,7 +13226,7 @@
         <v>44077</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>44083</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         <v>44087</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13407,7 +13407,7 @@
         <v>44087</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13469,7 +13469,7 @@
         <v>44088</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13526,7 +13526,7 @@
         <v>44089</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13583,7 +13583,7 @@
         <v>44089</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13640,7 +13640,7 @@
         <v>44092</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13697,7 +13697,7 @@
         <v>44095</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13754,7 +13754,7 @@
         <v>44095</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13811,7 +13811,7 @@
         <v>44102</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13868,7 +13868,7 @@
         <v>44104</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13925,7 +13925,7 @@
         <v>44104</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13982,7 +13982,7 @@
         <v>44104</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14039,7 +14039,7 @@
         <v>44104</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14096,7 +14096,7 @@
         <v>44104</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14153,7 +14153,7 @@
         <v>44109</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14210,7 +14210,7 @@
         <v>44116</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14267,7 +14267,7 @@
         <v>44120</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14324,7 +14324,7 @@
         <v>44124</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14381,7 +14381,7 @@
         <v>44124</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14438,7 +14438,7 @@
         <v>44126</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14495,7 +14495,7 @@
         <v>44130</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14552,7 +14552,7 @@
         <v>44130</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14609,7 +14609,7 @@
         <v>44130</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>44138</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14723,7 +14723,7 @@
         <v>44141</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14780,7 +14780,7 @@
         <v>44144</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14842,7 +14842,7 @@
         <v>44168</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14899,7 +14899,7 @@
         <v>44168</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14956,7 +14956,7 @@
         <v>44168</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15013,7 +15013,7 @@
         <v>44168</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15070,7 +15070,7 @@
         <v>44179</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15127,7 +15127,7 @@
         <v>44181</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15184,7 +15184,7 @@
         <v>44183</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15246,7 +15246,7 @@
         <v>44186</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15303,7 +15303,7 @@
         <v>44187</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15360,7 +15360,7 @@
         <v>44200</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15417,7 +15417,7 @@
         <v>44203</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15474,7 +15474,7 @@
         <v>44211</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15531,7 +15531,7 @@
         <v>44211</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15593,7 +15593,7 @@
         <v>44257</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15650,7 +15650,7 @@
         <v>44257</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15707,7 +15707,7 @@
         <v>44260</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15764,7 +15764,7 @@
         <v>44263</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15821,7 +15821,7 @@
         <v>44267</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15883,7 +15883,7 @@
         <v>44270</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15965,7 +15965,7 @@
         <v>44292</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16022,7 +16022,7 @@
         <v>44295</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16079,7 +16079,7 @@
         <v>44298</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16136,7 +16136,7 @@
         <v>44305</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16198,7 +16198,7 @@
         <v>44305</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16260,7 +16260,7 @@
         <v>44305</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16322,7 +16322,7 @@
         <v>44316</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16379,7 +16379,7 @@
         <v>44340</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16441,7 +16441,7 @@
         <v>44343</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16498,7 +16498,7 @@
         <v>44344</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16555,7 +16555,7 @@
         <v>44347</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16612,7 +16612,7 @@
         <v>44347</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16669,7 +16669,7 @@
         <v>44347</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16726,7 +16726,7 @@
         <v>44347</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16783,7 +16783,7 @@
         <v>44362</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16845,7 +16845,7 @@
         <v>44371</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16902,7 +16902,7 @@
         <v>44382</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16959,7 +16959,7 @@
         <v>44386</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17016,7 +17016,7 @@
         <v>44392</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17078,7 +17078,7 @@
         <v>44413</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17135,7 +17135,7 @@
         <v>44428</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17197,7 +17197,7 @@
         <v>44438</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17254,7 +17254,7 @@
         <v>44438</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17311,7 +17311,7 @@
         <v>44439</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17368,7 +17368,7 @@
         <v>44447</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17430,7 +17430,7 @@
         <v>44447</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17492,7 +17492,7 @@
         <v>44454</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17549,7 +17549,7 @@
         <v>44461</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17606,7 +17606,7 @@
         <v>44461</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17663,7 +17663,7 @@
         <v>44468</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17725,7 +17725,7 @@
         <v>44469</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17782,7 +17782,7 @@
         <v>44474</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17839,7 +17839,7 @@
         <v>44476</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17901,7 +17901,7 @@
         <v>44477</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17958,7 +17958,7 @@
         <v>44480</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18040,7 +18040,7 @@
         <v>44490</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18097,7 +18097,7 @@
         <v>44490</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18154,7 +18154,7 @@
         <v>44491</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18216,7 +18216,7 @@
         <v>44491</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18278,7 +18278,7 @@
         <v>44501</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18335,7 +18335,7 @@
         <v>44502</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18392,7 +18392,7 @@
         <v>44502</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18449,7 +18449,7 @@
         <v>44503</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18511,7 +18511,7 @@
         <v>44510</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         <v>44515</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18625,7 +18625,7 @@
         <v>44516</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18682,7 +18682,7 @@
         <v>44530</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         <v>44531</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18796,7 +18796,7 @@
         <v>44538</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18853,7 +18853,7 @@
         <v>44540</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18910,7 +18910,7 @@
         <v>44566</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18967,7 +18967,7 @@
         <v>44572</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19024,7 +19024,7 @@
         <v>44582</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19081,7 +19081,7 @@
         <v>44585</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19138,7 +19138,7 @@
         <v>44592</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19195,7 +19195,7 @@
         <v>44593</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19257,7 +19257,7 @@
         <v>44600</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19314,7 +19314,7 @@
         <v>44602</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19371,7 +19371,7 @@
         <v>44620</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19428,7 +19428,7 @@
         <v>44621</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19485,7 +19485,7 @@
         <v>44624</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19542,7 +19542,7 @@
         <v>44634</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19599,7 +19599,7 @@
         <v>44635</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19656,7 +19656,7 @@
         <v>44650</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19713,7 +19713,7 @@
         <v>44651</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19770,7 +19770,7 @@
         <v>44651</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19827,7 +19827,7 @@
         <v>44655</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19884,7 +19884,7 @@
         <v>44670</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19941,7 +19941,7 @@
         <v>44693</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19998,7 +19998,7 @@
         <v>44698</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20055,7 +20055,7 @@
         <v>44713</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20117,7 +20117,7 @@
         <v>44728</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         <v>44728</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20241,7 +20241,7 @@
         <v>44743</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20298,7 +20298,7 @@
         <v>44743</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20355,7 +20355,7 @@
         <v>44749</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20412,7 +20412,7 @@
         <v>44789</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20474,7 +20474,7 @@
         <v>44789</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20536,7 +20536,7 @@
         <v>44798</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20593,7 +20593,7 @@
         <v>44816</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20650,7 +20650,7 @@
         <v>44816</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20707,7 +20707,7 @@
         <v>44816</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20764,7 +20764,7 @@
         <v>44820</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20821,7 +20821,7 @@
         <v>44827</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20883,7 +20883,7 @@
         <v>44827</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20945,7 +20945,7 @@
         <v>44858</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21007,7 +21007,7 @@
         <v>44866</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21069,7 +21069,7 @@
         <v>44868</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21131,7 +21131,7 @@
         <v>44872</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21188,7 +21188,7 @@
         <v>44872</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21250,7 +21250,7 @@
         <v>44874</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21307,7 +21307,7 @@
         <v>44874</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21364,7 +21364,7 @@
         <v>44879</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21421,7 +21421,7 @@
         <v>44879</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21478,7 +21478,7 @@
         <v>44903</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21535,7 +21535,7 @@
         <v>44916</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21592,7 +21592,7 @@
         <v>44944</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21649,7 +21649,7 @@
         <v>44953</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21706,7 +21706,7 @@
         <v>44953</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21763,7 +21763,7 @@
         <v>44953</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21820,7 +21820,7 @@
         <v>44971</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21882,7 +21882,7 @@
         <v>44985</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21944,7 +21944,7 @@
         <v>44985</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22006,7 +22006,7 @@
         <v>44986</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22063,7 +22063,7 @@
         <v>44987</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22120,7 +22120,7 @@
         <v>44987</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22177,7 +22177,7 @@
         <v>44994</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22234,7 +22234,7 @@
         <v>44994</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22291,7 +22291,7 @@
         <v>45016</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22353,7 +22353,7 @@
         <v>45022</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22415,7 +22415,7 @@
         <v>45048</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22472,7 +22472,7 @@
         <v>45048</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22529,7 +22529,7 @@
         <v>45070</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22591,7 +22591,7 @@
         <v>45077</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22648,7 +22648,7 @@
         <v>45077</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22705,7 +22705,7 @@
         <v>45077</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22762,7 +22762,7 @@
         <v>45077</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22819,7 +22819,7 @@
         <v>45077</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22876,7 +22876,7 @@
         <v>45077</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22933,7 +22933,7 @@
         <v>45077</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22990,7 +22990,7 @@
         <v>45085</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23047,7 +23047,7 @@
         <v>45090</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23109,7 +23109,7 @@
         <v>45090</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23171,7 +23171,7 @@
         <v>45093</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23233,7 +23233,7 @@
         <v>45096</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23290,7 +23290,7 @@
         <v>45096</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23347,7 +23347,7 @@
         <v>45099</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23404,7 +23404,7 @@
         <v>45104</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23461,7 +23461,7 @@
         <v>45104</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23518,7 +23518,7 @@
         <v>45105</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23575,7 +23575,7 @@
         <v>45105</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23632,7 +23632,7 @@
         <v>45110</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23689,7 +23689,7 @@
         <v>45110</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23746,7 +23746,7 @@
         <v>45110</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23803,7 +23803,7 @@
         <v>45117</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23865,7 +23865,7 @@
         <v>45118</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23927,7 +23927,7 @@
         <v>45119</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23989,7 +23989,7 @@
         <v>45119</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24051,7 +24051,7 @@
         <v>45119</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24113,7 +24113,7 @@
         <v>45119</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24170,7 +24170,7 @@
         <v>45138</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24227,7 +24227,7 @@
         <v>45138</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24284,7 +24284,7 @@
         <v>45145</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24341,7 +24341,7 @@
         <v>45149</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24398,7 +24398,7 @@
         <v>45159</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24455,7 +24455,7 @@
         <v>45159</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24512,7 +24512,7 @@
         <v>45161</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24569,7 +24569,7 @@
         <v>45169</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24626,7 +24626,7 @@
         <v>45170</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24683,7 +24683,7 @@
         <v>45170</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>

--- a/Översikt YDRE.xlsx
+++ b/Översikt YDRE.xlsx
@@ -572,7 +572,7 @@
         <v>44257</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>43409</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>43517</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>45070</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         <v>43405</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1013,7 +1013,7 @@
         <v>44732</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>45138</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         <v>43524</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1275,7 +1275,7 @@
         <v>43665</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>43910</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1449,7 +1449,7 @@
         <v>44087</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
         <v>44187</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1624,7 +1624,7 @@
         <v>44358</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1709,7 +1709,7 @@
         <v>44468</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
         <v>44468</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1889,7 +1889,7 @@
         <v>44831</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1979,7 +1979,7 @@
         <v>44874</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>45090</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2154,7 +2154,7 @@
         <v>43336</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2211,7 +2211,7 @@
         <v>43339</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
         <v>43354</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2325,7 +2325,7 @@
         <v>43355</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2382,7 +2382,7 @@
         <v>43355</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2439,7 +2439,7 @@
         <v>43356</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2496,7 +2496,7 @@
         <v>43362</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2553,7 +2553,7 @@
         <v>43375</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
         <v>43375</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2667,7 +2667,7 @@
         <v>43381</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2724,7 +2724,7 @@
         <v>43385</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         <v>43385</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2838,7 +2838,7 @@
         <v>43389</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2895,7 +2895,7 @@
         <v>43390</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2952,7 +2952,7 @@
         <v>43390</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3009,7 +3009,7 @@
         <v>43392</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3066,7 +3066,7 @@
         <v>43399</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3123,7 +3123,7 @@
         <v>43403</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         <v>43403</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3237,7 +3237,7 @@
         <v>43411</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3294,7 +3294,7 @@
         <v>43411</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3351,7 +3351,7 @@
         <v>43411</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3408,7 +3408,7 @@
         <v>43412</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3465,7 +3465,7 @@
         <v>43416</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3522,7 +3522,7 @@
         <v>43423</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3584,7 +3584,7 @@
         <v>43424</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3641,7 +3641,7 @@
         <v>43425</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3698,7 +3698,7 @@
         <v>43425</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3755,7 +3755,7 @@
         <v>43433</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3812,7 +3812,7 @@
         <v>43433</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3869,7 +3869,7 @@
         <v>43433</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3926,7 +3926,7 @@
         <v>43434</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3983,7 +3983,7 @@
         <v>43439</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>43439</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>43440</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>43445</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         <v>43445</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>43451</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>43451</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>43452</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4449,7 +4449,7 @@
         <v>43455</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>43455</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         <v>43468</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>43468</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
         <v>43475</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>43475</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>43479</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
         <v>43479</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4910,7 +4910,7 @@
         <v>43480</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4972,7 +4972,7 @@
         <v>43486</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5029,7 +5029,7 @@
         <v>43487</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>43489</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>43494</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>43494</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         <v>43495</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
         <v>43496</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         <v>43496</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         <v>43502</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>43503</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5557,7 +5557,7 @@
         <v>43509</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5614,7 +5614,7 @@
         <v>43514</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5671,7 +5671,7 @@
         <v>43514</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5728,7 +5728,7 @@
         <v>43517</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
         <v>43521</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5842,7 +5842,7 @@
         <v>43521</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5899,7 +5899,7 @@
         <v>43524</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5956,7 +5956,7 @@
         <v>43524</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6013,7 +6013,7 @@
         <v>43524</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6070,7 +6070,7 @@
         <v>43524</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
         <v>43524</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>43524</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
         <v>43528</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6298,7 +6298,7 @@
         <v>43528</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6360,7 +6360,7 @@
         <v>43532</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6417,7 +6417,7 @@
         <v>43544</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6474,7 +6474,7 @@
         <v>43546</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6536,7 +6536,7 @@
         <v>43553</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6593,7 +6593,7 @@
         <v>43553</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6650,7 +6650,7 @@
         <v>43558</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6707,7 +6707,7 @@
         <v>43560</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6764,7 +6764,7 @@
         <v>43564</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6821,7 +6821,7 @@
         <v>43585</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>43587</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6935,7 +6935,7 @@
         <v>43593</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6997,7 +6997,7 @@
         <v>43594</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7054,7 +7054,7 @@
         <v>43594</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7111,7 +7111,7 @@
         <v>43595</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7168,7 +7168,7 @@
         <v>43601</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
         <v>43605</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>43608</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7349,7 +7349,7 @@
         <v>43626</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7406,7 +7406,7 @@
         <v>43628</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7463,7 +7463,7 @@
         <v>43630</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         <v>43634</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7577,7 +7577,7 @@
         <v>43647</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7634,7 +7634,7 @@
         <v>43661</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7691,7 +7691,7 @@
         <v>43679</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7748,7 +7748,7 @@
         <v>43682</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7805,7 +7805,7 @@
         <v>43683</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7862,7 +7862,7 @@
         <v>43689</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7919,7 +7919,7 @@
         <v>43692</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7976,7 +7976,7 @@
         <v>43692</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         <v>43699</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8090,7 +8090,7 @@
         <v>43705</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8147,7 +8147,7 @@
         <v>43711</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>43712</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>43712</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>43713</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>43713</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>43717</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>43721</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>43731</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>43735</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>43738</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>43748</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>43753</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8836,7 +8836,7 @@
         <v>43761</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8898,7 +8898,7 @@
         <v>43768</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8955,7 +8955,7 @@
         <v>43769</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9012,7 +9012,7 @@
         <v>43773</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9069,7 +9069,7 @@
         <v>43773</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9126,7 +9126,7 @@
         <v>43773</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9183,7 +9183,7 @@
         <v>43773</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9240,7 +9240,7 @@
         <v>43781</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9297,7 +9297,7 @@
         <v>43788</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9359,7 +9359,7 @@
         <v>43791</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9421,7 +9421,7 @@
         <v>43796</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9478,7 +9478,7 @@
         <v>43805</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9535,7 +9535,7 @@
         <v>43808</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9597,7 +9597,7 @@
         <v>43811</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9659,7 +9659,7 @@
         <v>43812</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9716,7 +9716,7 @@
         <v>43837</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9773,7 +9773,7 @@
         <v>43837</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9830,7 +9830,7 @@
         <v>43839</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9887,7 +9887,7 @@
         <v>43850</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9944,7 +9944,7 @@
         <v>43851</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10001,7 +10001,7 @@
         <v>43851</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10058,7 +10058,7 @@
         <v>43854</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10115,7 +10115,7 @@
         <v>43859</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10172,7 +10172,7 @@
         <v>43859</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10229,7 +10229,7 @@
         <v>43866</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10286,7 +10286,7 @@
         <v>43866</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10343,7 +10343,7 @@
         <v>43867</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10400,7 +10400,7 @@
         <v>43867</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
         <v>43867</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10514,7 +10514,7 @@
         <v>43867</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10571,7 +10571,7 @@
         <v>43875</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10628,7 +10628,7 @@
         <v>43892</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10685,7 +10685,7 @@
         <v>43892</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10742,7 +10742,7 @@
         <v>43899</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10799,7 +10799,7 @@
         <v>43900</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10856,7 +10856,7 @@
         <v>43907</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10913,7 +10913,7 @@
         <v>43914</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10970,7 +10970,7 @@
         <v>43928</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11027,7 +11027,7 @@
         <v>43945</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>43955</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>43958</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11203,7 +11203,7 @@
         <v>43963</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11265,7 +11265,7 @@
         <v>43964</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11327,7 +11327,7 @@
         <v>43964</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11389,7 +11389,7 @@
         <v>43964</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11451,7 +11451,7 @@
         <v>43964</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11513,7 +11513,7 @@
         <v>43970</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11575,7 +11575,7 @@
         <v>43970</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11637,7 +11637,7 @@
         <v>43970</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11699,7 +11699,7 @@
         <v>43970</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11761,7 +11761,7 @@
         <v>43970</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11823,7 +11823,7 @@
         <v>43980</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11885,7 +11885,7 @@
         <v>43987</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11942,7 +11942,7 @@
         <v>43987</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11999,7 +11999,7 @@
         <v>43987</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12056,7 +12056,7 @@
         <v>43990</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12113,7 +12113,7 @@
         <v>44015</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12170,7 +12170,7 @@
         <v>44018</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12227,7 +12227,7 @@
         <v>44018</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12284,7 +12284,7 @@
         <v>44020</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12341,7 +12341,7 @@
         <v>44020</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12398,7 +12398,7 @@
         <v>44028</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12455,7 +12455,7 @@
         <v>44029</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12517,7 +12517,7 @@
         <v>44029</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12579,7 +12579,7 @@
         <v>44029</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12641,7 +12641,7 @@
         <v>44039</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12698,7 +12698,7 @@
         <v>44049</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12755,7 +12755,7 @@
         <v>44049</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12812,7 +12812,7 @@
         <v>44049</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12869,7 +12869,7 @@
         <v>44057</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12926,7 +12926,7 @@
         <v>44064</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12983,7 +12983,7 @@
         <v>44069</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13040,7 +13040,7 @@
         <v>44074</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13102,7 +13102,7 @@
         <v>44074</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13164,7 +13164,7 @@
         <v>44074</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13226,7 +13226,7 @@
         <v>44077</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>44083</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         <v>44087</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13407,7 +13407,7 @@
         <v>44087</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13469,7 +13469,7 @@
         <v>44088</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13526,7 +13526,7 @@
         <v>44089</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13583,7 +13583,7 @@
         <v>44089</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13640,7 +13640,7 @@
         <v>44092</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13697,7 +13697,7 @@
         <v>44095</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13754,7 +13754,7 @@
         <v>44095</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13811,7 +13811,7 @@
         <v>44102</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13868,7 +13868,7 @@
         <v>44104</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13925,7 +13925,7 @@
         <v>44104</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13982,7 +13982,7 @@
         <v>44104</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14039,7 +14039,7 @@
         <v>44104</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14096,7 +14096,7 @@
         <v>44104</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14153,7 +14153,7 @@
         <v>44109</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14210,7 +14210,7 @@
         <v>44116</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14267,7 +14267,7 @@
         <v>44120</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14324,7 +14324,7 @@
         <v>44124</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14381,7 +14381,7 @@
         <v>44124</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14438,7 +14438,7 @@
         <v>44126</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14495,7 +14495,7 @@
         <v>44130</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14552,7 +14552,7 @@
         <v>44130</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14609,7 +14609,7 @@
         <v>44130</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>44138</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14723,7 +14723,7 @@
         <v>44141</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14780,7 +14780,7 @@
         <v>44144</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14842,7 +14842,7 @@
         <v>44168</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14899,7 +14899,7 @@
         <v>44168</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14956,7 +14956,7 @@
         <v>44168</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15013,7 +15013,7 @@
         <v>44168</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15070,7 +15070,7 @@
         <v>44179</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15127,7 +15127,7 @@
         <v>44181</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15184,7 +15184,7 @@
         <v>44183</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15246,7 +15246,7 @@
         <v>44186</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15303,7 +15303,7 @@
         <v>44187</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15360,7 +15360,7 @@
         <v>44200</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15417,7 +15417,7 @@
         <v>44203</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15474,7 +15474,7 @@
         <v>44211</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15531,7 +15531,7 @@
         <v>44211</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15593,7 +15593,7 @@
         <v>44257</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15650,7 +15650,7 @@
         <v>44257</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15707,7 +15707,7 @@
         <v>44260</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15764,7 +15764,7 @@
         <v>44263</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15821,7 +15821,7 @@
         <v>44267</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15883,7 +15883,7 @@
         <v>44270</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15965,7 +15965,7 @@
         <v>44292</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16022,7 +16022,7 @@
         <v>44295</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16079,7 +16079,7 @@
         <v>44298</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16136,7 +16136,7 @@
         <v>44305</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16198,7 +16198,7 @@
         <v>44305</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16260,7 +16260,7 @@
         <v>44305</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16322,7 +16322,7 @@
         <v>44316</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16379,7 +16379,7 @@
         <v>44340</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16441,7 +16441,7 @@
         <v>44343</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16498,7 +16498,7 @@
         <v>44344</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16555,7 +16555,7 @@
         <v>44347</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16612,7 +16612,7 @@
         <v>44347</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16669,7 +16669,7 @@
         <v>44347</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16726,7 +16726,7 @@
         <v>44347</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16783,7 +16783,7 @@
         <v>44362</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16845,7 +16845,7 @@
         <v>44371</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16902,7 +16902,7 @@
         <v>44382</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16959,7 +16959,7 @@
         <v>44386</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17016,7 +17016,7 @@
         <v>44392</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17078,7 +17078,7 @@
         <v>44413</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17135,7 +17135,7 @@
         <v>44428</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17197,7 +17197,7 @@
         <v>44438</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17254,7 +17254,7 @@
         <v>44438</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17311,7 +17311,7 @@
         <v>44439</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17368,7 +17368,7 @@
         <v>44447</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17430,7 +17430,7 @@
         <v>44447</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17492,7 +17492,7 @@
         <v>44454</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17549,7 +17549,7 @@
         <v>44461</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17606,7 +17606,7 @@
         <v>44461</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17663,7 +17663,7 @@
         <v>44468</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17725,7 +17725,7 @@
         <v>44469</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17782,7 +17782,7 @@
         <v>44474</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17839,7 +17839,7 @@
         <v>44476</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17901,7 +17901,7 @@
         <v>44477</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17958,7 +17958,7 @@
         <v>44480</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18040,7 +18040,7 @@
         <v>44490</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18097,7 +18097,7 @@
         <v>44490</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18154,7 +18154,7 @@
         <v>44491</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18216,7 +18216,7 @@
         <v>44491</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18278,7 +18278,7 @@
         <v>44501</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18335,7 +18335,7 @@
         <v>44502</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18392,7 +18392,7 @@
         <v>44502</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18449,7 +18449,7 @@
         <v>44503</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18511,7 +18511,7 @@
         <v>44510</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         <v>44515</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18625,7 +18625,7 @@
         <v>44516</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18682,7 +18682,7 @@
         <v>44530</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         <v>44531</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18796,7 +18796,7 @@
         <v>44538</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18853,7 +18853,7 @@
         <v>44540</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18910,7 +18910,7 @@
         <v>44566</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18967,7 +18967,7 @@
         <v>44572</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19024,7 +19024,7 @@
         <v>44582</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19081,7 +19081,7 @@
         <v>44585</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19138,7 +19138,7 @@
         <v>44592</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19195,7 +19195,7 @@
         <v>44593</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19257,7 +19257,7 @@
         <v>44600</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19314,7 +19314,7 @@
         <v>44602</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19371,7 +19371,7 @@
         <v>44620</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19428,7 +19428,7 @@
         <v>44621</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19485,7 +19485,7 @@
         <v>44624</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19542,7 +19542,7 @@
         <v>44634</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19599,7 +19599,7 @@
         <v>44635</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19656,7 +19656,7 @@
         <v>44650</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19713,7 +19713,7 @@
         <v>44651</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19770,7 +19770,7 @@
         <v>44651</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19827,7 +19827,7 @@
         <v>44655</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19884,7 +19884,7 @@
         <v>44670</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19941,7 +19941,7 @@
         <v>44693</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19998,7 +19998,7 @@
         <v>44698</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20055,7 +20055,7 @@
         <v>44713</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20117,7 +20117,7 @@
         <v>44728</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         <v>44728</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20241,7 +20241,7 @@
         <v>44743</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20298,7 +20298,7 @@
         <v>44743</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20355,7 +20355,7 @@
         <v>44749</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20412,7 +20412,7 @@
         <v>44789</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20474,7 +20474,7 @@
         <v>44789</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20536,7 +20536,7 @@
         <v>44798</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20593,7 +20593,7 @@
         <v>44816</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20650,7 +20650,7 @@
         <v>44816</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20707,7 +20707,7 @@
         <v>44816</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20764,7 +20764,7 @@
         <v>44820</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20821,7 +20821,7 @@
         <v>44827</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20883,7 +20883,7 @@
         <v>44827</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20945,7 +20945,7 @@
         <v>44858</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21007,7 +21007,7 @@
         <v>44866</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21069,7 +21069,7 @@
         <v>44868</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21131,7 +21131,7 @@
         <v>44872</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21188,7 +21188,7 @@
         <v>44872</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21250,7 +21250,7 @@
         <v>44874</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21307,7 +21307,7 @@
         <v>44874</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21364,7 +21364,7 @@
         <v>44879</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21421,7 +21421,7 @@
         <v>44879</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21478,7 +21478,7 @@
         <v>44903</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21535,7 +21535,7 @@
         <v>44916</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21592,7 +21592,7 @@
         <v>44944</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21649,7 +21649,7 @@
         <v>44953</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21706,7 +21706,7 @@
         <v>44953</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21763,7 +21763,7 @@
         <v>44953</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21820,7 +21820,7 @@
         <v>44971</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21882,7 +21882,7 @@
         <v>44985</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21944,7 +21944,7 @@
         <v>44985</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22006,7 +22006,7 @@
         <v>44986</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22063,7 +22063,7 @@
         <v>44987</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22120,7 +22120,7 @@
         <v>44987</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22177,7 +22177,7 @@
         <v>44994</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22234,7 +22234,7 @@
         <v>44994</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22291,7 +22291,7 @@
         <v>45016</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22353,7 +22353,7 @@
         <v>45022</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22415,7 +22415,7 @@
         <v>45048</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22472,7 +22472,7 @@
         <v>45048</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22529,7 +22529,7 @@
         <v>45070</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22591,7 +22591,7 @@
         <v>45077</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22648,7 +22648,7 @@
         <v>45077</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22705,7 +22705,7 @@
         <v>45077</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22762,7 +22762,7 @@
         <v>45077</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22819,7 +22819,7 @@
         <v>45077</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22876,7 +22876,7 @@
         <v>45077</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22933,7 +22933,7 @@
         <v>45077</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22990,7 +22990,7 @@
         <v>45085</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23047,7 +23047,7 @@
         <v>45090</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23109,7 +23109,7 @@
         <v>45090</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23171,7 +23171,7 @@
         <v>45093</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23233,7 +23233,7 @@
         <v>45096</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23290,7 +23290,7 @@
         <v>45096</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23347,7 +23347,7 @@
         <v>45099</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23404,7 +23404,7 @@
         <v>45104</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23461,7 +23461,7 @@
         <v>45104</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23518,7 +23518,7 @@
         <v>45105</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23575,7 +23575,7 @@
         <v>45105</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23632,7 +23632,7 @@
         <v>45110</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23689,7 +23689,7 @@
         <v>45110</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23746,7 +23746,7 @@
         <v>45110</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23803,7 +23803,7 @@
         <v>45117</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23865,7 +23865,7 @@
         <v>45118</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23927,7 +23927,7 @@
         <v>45119</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23989,7 +23989,7 @@
         <v>45119</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24051,7 +24051,7 @@
         <v>45119</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24113,7 +24113,7 @@
         <v>45119</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24170,7 +24170,7 @@
         <v>45138</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24227,7 +24227,7 @@
         <v>45138</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24284,7 +24284,7 @@
         <v>45145</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24341,7 +24341,7 @@
         <v>45149</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24398,7 +24398,7 @@
         <v>45159</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24455,7 +24455,7 @@
         <v>45159</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24512,7 +24512,7 @@
         <v>45161</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24569,7 +24569,7 @@
         <v>45169</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24626,7 +24626,7 @@
         <v>45170</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24683,7 +24683,7 @@
         <v>45170</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>

--- a/Översikt YDRE.xlsx
+++ b/Översikt YDRE.xlsx
@@ -572,7 +572,7 @@
         <v>44257</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>43409</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>43517</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>45070</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         <v>43405</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1013,7 +1013,7 @@
         <v>44732</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>45138</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         <v>43524</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1275,7 +1275,7 @@
         <v>43665</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>43910</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1449,7 +1449,7 @@
         <v>44087</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
         <v>44187</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1624,7 +1624,7 @@
         <v>44358</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1709,7 +1709,7 @@
         <v>44468</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
         <v>44468</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1889,7 +1889,7 @@
         <v>44831</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1979,7 +1979,7 @@
         <v>44874</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>45090</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2154,7 +2154,7 @@
         <v>43336</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2211,7 +2211,7 @@
         <v>43339</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
         <v>43354</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2325,7 +2325,7 @@
         <v>43355</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2382,7 +2382,7 @@
         <v>43355</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2439,7 +2439,7 @@
         <v>43356</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2496,7 +2496,7 @@
         <v>43362</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2553,7 +2553,7 @@
         <v>43375</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
         <v>43375</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2667,7 +2667,7 @@
         <v>43381</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2724,7 +2724,7 @@
         <v>43385</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         <v>43385</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2838,7 +2838,7 @@
         <v>43389</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2895,7 +2895,7 @@
         <v>43390</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2952,7 +2952,7 @@
         <v>43390</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3009,7 +3009,7 @@
         <v>43392</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3066,7 +3066,7 @@
         <v>43399</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3123,7 +3123,7 @@
         <v>43403</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         <v>43403</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3237,7 +3237,7 @@
         <v>43411</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3294,7 +3294,7 @@
         <v>43411</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3351,7 +3351,7 @@
         <v>43411</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3408,7 +3408,7 @@
         <v>43412</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3465,7 +3465,7 @@
         <v>43416</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3522,7 +3522,7 @@
         <v>43423</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3584,7 +3584,7 @@
         <v>43424</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3641,7 +3641,7 @@
         <v>43425</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3698,7 +3698,7 @@
         <v>43425</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3755,7 +3755,7 @@
         <v>43433</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3812,7 +3812,7 @@
         <v>43433</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3869,7 +3869,7 @@
         <v>43433</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3926,7 +3926,7 @@
         <v>43434</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3983,7 +3983,7 @@
         <v>43439</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>43439</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>43440</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>43445</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         <v>43445</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>43451</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>43451</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>43452</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4449,7 +4449,7 @@
         <v>43455</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>43455</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         <v>43468</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>43468</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
         <v>43475</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>43475</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>43479</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
         <v>43479</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4910,7 +4910,7 @@
         <v>43480</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4972,7 +4972,7 @@
         <v>43486</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5029,7 +5029,7 @@
         <v>43487</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>43489</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>43494</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>43494</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         <v>43495</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
         <v>43496</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         <v>43496</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         <v>43502</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>43503</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5557,7 +5557,7 @@
         <v>43509</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5614,7 +5614,7 @@
         <v>43514</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5671,7 +5671,7 @@
         <v>43514</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5728,7 +5728,7 @@
         <v>43517</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
         <v>43521</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5842,7 +5842,7 @@
         <v>43521</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5899,7 +5899,7 @@
         <v>43524</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5956,7 +5956,7 @@
         <v>43524</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6013,7 +6013,7 @@
         <v>43524</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6070,7 +6070,7 @@
         <v>43524</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
         <v>43524</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>43524</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
         <v>43528</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6298,7 +6298,7 @@
         <v>43528</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6360,7 +6360,7 @@
         <v>43532</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6417,7 +6417,7 @@
         <v>43544</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6474,7 +6474,7 @@
         <v>43546</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6536,7 +6536,7 @@
         <v>43553</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6593,7 +6593,7 @@
         <v>43553</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6650,7 +6650,7 @@
         <v>43558</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6707,7 +6707,7 @@
         <v>43560</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6764,7 +6764,7 @@
         <v>43564</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6821,7 +6821,7 @@
         <v>43585</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>43587</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6935,7 +6935,7 @@
         <v>43593</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6997,7 +6997,7 @@
         <v>43594</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7054,7 +7054,7 @@
         <v>43594</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7111,7 +7111,7 @@
         <v>43595</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7168,7 +7168,7 @@
         <v>43601</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
         <v>43605</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>43608</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7349,7 +7349,7 @@
         <v>43626</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7406,7 +7406,7 @@
         <v>43628</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7463,7 +7463,7 @@
         <v>43630</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         <v>43634</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7577,7 +7577,7 @@
         <v>43647</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7634,7 +7634,7 @@
         <v>43661</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7691,7 +7691,7 @@
         <v>43679</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7748,7 +7748,7 @@
         <v>43682</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7805,7 +7805,7 @@
         <v>43683</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7862,7 +7862,7 @@
         <v>43689</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7919,7 +7919,7 @@
         <v>43692</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7976,7 +7976,7 @@
         <v>43692</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         <v>43699</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8090,7 +8090,7 @@
         <v>43705</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8147,7 +8147,7 @@
         <v>43711</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>43712</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>43712</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>43713</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>43713</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>43717</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>43721</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>43731</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>43735</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>43738</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>43748</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>43753</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8836,7 +8836,7 @@
         <v>43761</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8898,7 +8898,7 @@
         <v>43768</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8955,7 +8955,7 @@
         <v>43769</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9012,7 +9012,7 @@
         <v>43773</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9069,7 +9069,7 @@
         <v>43773</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9126,7 +9126,7 @@
         <v>43773</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9183,7 +9183,7 @@
         <v>43773</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9240,7 +9240,7 @@
         <v>43781</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9297,7 +9297,7 @@
         <v>43788</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9359,7 +9359,7 @@
         <v>43791</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9421,7 +9421,7 @@
         <v>43796</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9478,7 +9478,7 @@
         <v>43805</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9535,7 +9535,7 @@
         <v>43808</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9597,7 +9597,7 @@
         <v>43811</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9659,7 +9659,7 @@
         <v>43812</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9716,7 +9716,7 @@
         <v>43837</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9773,7 +9773,7 @@
         <v>43837</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9830,7 +9830,7 @@
         <v>43839</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9887,7 +9887,7 @@
         <v>43850</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9944,7 +9944,7 @@
         <v>43851</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10001,7 +10001,7 @@
         <v>43851</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10058,7 +10058,7 @@
         <v>43854</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10115,7 +10115,7 @@
         <v>43859</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10172,7 +10172,7 @@
         <v>43859</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10229,7 +10229,7 @@
         <v>43866</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10286,7 +10286,7 @@
         <v>43866</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10343,7 +10343,7 @@
         <v>43867</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10400,7 +10400,7 @@
         <v>43867</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
         <v>43867</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10514,7 +10514,7 @@
         <v>43867</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10571,7 +10571,7 @@
         <v>43875</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10628,7 +10628,7 @@
         <v>43892</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10685,7 +10685,7 @@
         <v>43892</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10742,7 +10742,7 @@
         <v>43899</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10799,7 +10799,7 @@
         <v>43900</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10856,7 +10856,7 @@
         <v>43907</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10913,7 +10913,7 @@
         <v>43914</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10970,7 +10970,7 @@
         <v>43928</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11027,7 +11027,7 @@
         <v>43945</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>43955</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>43958</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11203,7 +11203,7 @@
         <v>43963</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11265,7 +11265,7 @@
         <v>43964</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11327,7 +11327,7 @@
         <v>43964</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11389,7 +11389,7 @@
         <v>43964</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11451,7 +11451,7 @@
         <v>43964</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11513,7 +11513,7 @@
         <v>43970</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11575,7 +11575,7 @@
         <v>43970</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11637,7 +11637,7 @@
         <v>43970</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11699,7 +11699,7 @@
         <v>43970</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11761,7 +11761,7 @@
         <v>43970</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11823,7 +11823,7 @@
         <v>43980</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11885,7 +11885,7 @@
         <v>43987</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11942,7 +11942,7 @@
         <v>43987</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11999,7 +11999,7 @@
         <v>43987</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12056,7 +12056,7 @@
         <v>43990</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12113,7 +12113,7 @@
         <v>44015</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12170,7 +12170,7 @@
         <v>44018</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12227,7 +12227,7 @@
         <v>44018</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12284,7 +12284,7 @@
         <v>44020</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12341,7 +12341,7 @@
         <v>44020</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12398,7 +12398,7 @@
         <v>44028</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12455,7 +12455,7 @@
         <v>44029</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12517,7 +12517,7 @@
         <v>44029</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12579,7 +12579,7 @@
         <v>44029</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12641,7 +12641,7 @@
         <v>44039</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12698,7 +12698,7 @@
         <v>44049</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12755,7 +12755,7 @@
         <v>44049</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12812,7 +12812,7 @@
         <v>44049</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12869,7 +12869,7 @@
         <v>44057</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12926,7 +12926,7 @@
         <v>44064</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12983,7 +12983,7 @@
         <v>44069</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13040,7 +13040,7 @@
         <v>44074</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13102,7 +13102,7 @@
         <v>44074</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13164,7 +13164,7 @@
         <v>44074</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13226,7 +13226,7 @@
         <v>44077</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>44083</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         <v>44087</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13407,7 +13407,7 @@
         <v>44087</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13469,7 +13469,7 @@
         <v>44088</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13526,7 +13526,7 @@
         <v>44089</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13583,7 +13583,7 @@
         <v>44089</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13640,7 +13640,7 @@
         <v>44092</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13697,7 +13697,7 @@
         <v>44095</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13754,7 +13754,7 @@
         <v>44095</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13811,7 +13811,7 @@
         <v>44102</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13868,7 +13868,7 @@
         <v>44104</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13925,7 +13925,7 @@
         <v>44104</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13982,7 +13982,7 @@
         <v>44104</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14039,7 +14039,7 @@
         <v>44104</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14096,7 +14096,7 @@
         <v>44104</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14153,7 +14153,7 @@
         <v>44109</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14210,7 +14210,7 @@
         <v>44116</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14267,7 +14267,7 @@
         <v>44120</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14324,7 +14324,7 @@
         <v>44124</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14381,7 +14381,7 @@
         <v>44124</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14438,7 +14438,7 @@
         <v>44126</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14495,7 +14495,7 @@
         <v>44130</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14552,7 +14552,7 @@
         <v>44130</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14609,7 +14609,7 @@
         <v>44130</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>44138</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14723,7 +14723,7 @@
         <v>44141</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14780,7 +14780,7 @@
         <v>44144</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14842,7 +14842,7 @@
         <v>44168</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14899,7 +14899,7 @@
         <v>44168</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14956,7 +14956,7 @@
         <v>44168</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15013,7 +15013,7 @@
         <v>44168</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15070,7 +15070,7 @@
         <v>44179</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15127,7 +15127,7 @@
         <v>44181</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15184,7 +15184,7 @@
         <v>44183</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15246,7 +15246,7 @@
         <v>44186</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15303,7 +15303,7 @@
         <v>44187</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15360,7 +15360,7 @@
         <v>44200</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15417,7 +15417,7 @@
         <v>44203</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15474,7 +15474,7 @@
         <v>44211</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15531,7 +15531,7 @@
         <v>44211</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15593,7 +15593,7 @@
         <v>44257</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15650,7 +15650,7 @@
         <v>44257</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15707,7 +15707,7 @@
         <v>44260</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15764,7 +15764,7 @@
         <v>44263</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15821,7 +15821,7 @@
         <v>44267</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15883,7 +15883,7 @@
         <v>44270</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15965,7 +15965,7 @@
         <v>44292</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16022,7 +16022,7 @@
         <v>44295</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16079,7 +16079,7 @@
         <v>44298</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16136,7 +16136,7 @@
         <v>44305</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16198,7 +16198,7 @@
         <v>44305</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16260,7 +16260,7 @@
         <v>44305</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16322,7 +16322,7 @@
         <v>44316</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16379,7 +16379,7 @@
         <v>44340</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16441,7 +16441,7 @@
         <v>44343</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16498,7 +16498,7 @@
         <v>44344</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16555,7 +16555,7 @@
         <v>44347</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16612,7 +16612,7 @@
         <v>44347</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16669,7 +16669,7 @@
         <v>44347</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16726,7 +16726,7 @@
         <v>44347</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16783,7 +16783,7 @@
         <v>44362</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16845,7 +16845,7 @@
         <v>44371</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16902,7 +16902,7 @@
         <v>44382</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16959,7 +16959,7 @@
         <v>44386</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17016,7 +17016,7 @@
         <v>44392</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17078,7 +17078,7 @@
         <v>44413</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17135,7 +17135,7 @@
         <v>44428</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17197,7 +17197,7 @@
         <v>44438</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17254,7 +17254,7 @@
         <v>44438</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17311,7 +17311,7 @@
         <v>44439</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17368,7 +17368,7 @@
         <v>44447</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17430,7 +17430,7 @@
         <v>44447</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17492,7 +17492,7 @@
         <v>44454</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17549,7 +17549,7 @@
         <v>44461</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17606,7 +17606,7 @@
         <v>44461</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17663,7 +17663,7 @@
         <v>44468</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17725,7 +17725,7 @@
         <v>44469</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17782,7 +17782,7 @@
         <v>44474</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17839,7 +17839,7 @@
         <v>44476</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17901,7 +17901,7 @@
         <v>44477</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17958,7 +17958,7 @@
         <v>44480</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18040,7 +18040,7 @@
         <v>44490</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18097,7 +18097,7 @@
         <v>44490</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18154,7 +18154,7 @@
         <v>44491</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18216,7 +18216,7 @@
         <v>44491</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18278,7 +18278,7 @@
         <v>44501</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18335,7 +18335,7 @@
         <v>44502</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18392,7 +18392,7 @@
         <v>44502</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18449,7 +18449,7 @@
         <v>44503</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18511,7 +18511,7 @@
         <v>44510</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         <v>44515</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18625,7 +18625,7 @@
         <v>44516</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18682,7 +18682,7 @@
         <v>44530</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         <v>44531</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18796,7 +18796,7 @@
         <v>44538</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18853,7 +18853,7 @@
         <v>44540</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18910,7 +18910,7 @@
         <v>44566</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18967,7 +18967,7 @@
         <v>44572</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19024,7 +19024,7 @@
         <v>44582</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19081,7 +19081,7 @@
         <v>44585</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19138,7 +19138,7 @@
         <v>44592</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19195,7 +19195,7 @@
         <v>44593</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19257,7 +19257,7 @@
         <v>44600</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19314,7 +19314,7 @@
         <v>44602</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19371,7 +19371,7 @@
         <v>44620</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19428,7 +19428,7 @@
         <v>44621</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19485,7 +19485,7 @@
         <v>44624</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19542,7 +19542,7 @@
         <v>44634</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19599,7 +19599,7 @@
         <v>44635</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19656,7 +19656,7 @@
         <v>44650</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19713,7 +19713,7 @@
         <v>44651</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19770,7 +19770,7 @@
         <v>44651</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19827,7 +19827,7 @@
         <v>44655</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19884,7 +19884,7 @@
         <v>44670</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19941,7 +19941,7 @@
         <v>44693</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19998,7 +19998,7 @@
         <v>44698</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20055,7 +20055,7 @@
         <v>44713</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20117,7 +20117,7 @@
         <v>44728</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         <v>44728</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20241,7 +20241,7 @@
         <v>44743</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20298,7 +20298,7 @@
         <v>44743</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20355,7 +20355,7 @@
         <v>44749</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20412,7 +20412,7 @@
         <v>44789</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20474,7 +20474,7 @@
         <v>44789</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20536,7 +20536,7 @@
         <v>44798</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20593,7 +20593,7 @@
         <v>44816</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20650,7 +20650,7 @@
         <v>44816</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20707,7 +20707,7 @@
         <v>44816</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20764,7 +20764,7 @@
         <v>44820</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20821,7 +20821,7 @@
         <v>44827</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20883,7 +20883,7 @@
         <v>44827</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20945,7 +20945,7 @@
         <v>44858</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21007,7 +21007,7 @@
         <v>44866</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21069,7 +21069,7 @@
         <v>44868</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21131,7 +21131,7 @@
         <v>44872</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21188,7 +21188,7 @@
         <v>44872</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21250,7 +21250,7 @@
         <v>44874</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21307,7 +21307,7 @@
         <v>44874</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21364,7 +21364,7 @@
         <v>44879</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21421,7 +21421,7 @@
         <v>44879</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21478,7 +21478,7 @@
         <v>44903</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21535,7 +21535,7 @@
         <v>44916</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21592,7 +21592,7 @@
         <v>44944</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21649,7 +21649,7 @@
         <v>44953</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21706,7 +21706,7 @@
         <v>44953</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21763,7 +21763,7 @@
         <v>44953</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21820,7 +21820,7 @@
         <v>44971</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21882,7 +21882,7 @@
         <v>44985</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21944,7 +21944,7 @@
         <v>44985</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22006,7 +22006,7 @@
         <v>44986</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22063,7 +22063,7 @@
         <v>44987</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22120,7 +22120,7 @@
         <v>44987</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22177,7 +22177,7 @@
         <v>44994</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22234,7 +22234,7 @@
         <v>44994</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22291,7 +22291,7 @@
         <v>45016</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22353,7 +22353,7 @@
         <v>45022</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22415,7 +22415,7 @@
         <v>45048</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22472,7 +22472,7 @@
         <v>45048</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22529,7 +22529,7 @@
         <v>45070</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22591,7 +22591,7 @@
         <v>45077</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22648,7 +22648,7 @@
         <v>45077</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22705,7 +22705,7 @@
         <v>45077</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22762,7 +22762,7 @@
         <v>45077</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22819,7 +22819,7 @@
         <v>45077</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22876,7 +22876,7 @@
         <v>45077</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22933,7 +22933,7 @@
         <v>45077</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22990,7 +22990,7 @@
         <v>45085</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23047,7 +23047,7 @@
         <v>45090</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23109,7 +23109,7 @@
         <v>45090</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23171,7 +23171,7 @@
         <v>45093</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23233,7 +23233,7 @@
         <v>45096</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23290,7 +23290,7 @@
         <v>45096</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23347,7 +23347,7 @@
         <v>45099</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23404,7 +23404,7 @@
         <v>45104</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23461,7 +23461,7 @@
         <v>45104</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23518,7 +23518,7 @@
         <v>45105</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23575,7 +23575,7 @@
         <v>45105</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23632,7 +23632,7 @@
         <v>45110</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23689,7 +23689,7 @@
         <v>45110</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23746,7 +23746,7 @@
         <v>45110</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23803,7 +23803,7 @@
         <v>45117</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23865,7 +23865,7 @@
         <v>45118</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23927,7 +23927,7 @@
         <v>45119</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23989,7 +23989,7 @@
         <v>45119</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24051,7 +24051,7 @@
         <v>45119</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24113,7 +24113,7 @@
         <v>45119</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24170,7 +24170,7 @@
         <v>45138</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24227,7 +24227,7 @@
         <v>45138</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24284,7 +24284,7 @@
         <v>45145</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24341,7 +24341,7 @@
         <v>45149</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24398,7 +24398,7 @@
         <v>45159</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24455,7 +24455,7 @@
         <v>45159</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24512,7 +24512,7 @@
         <v>45161</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24569,7 +24569,7 @@
         <v>45169</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24626,7 +24626,7 @@
         <v>45170</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24683,7 +24683,7 @@
         <v>45170</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>

--- a/Översikt YDRE.xlsx
+++ b/Översikt YDRE.xlsx
@@ -572,7 +572,7 @@
         <v>44257</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>43409</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>43517</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>45070</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         <v>43405</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1013,7 +1013,7 @@
         <v>44732</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>45138</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         <v>43524</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1275,7 +1275,7 @@
         <v>43665</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>43910</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1449,7 +1449,7 @@
         <v>44087</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
         <v>44187</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1624,7 +1624,7 @@
         <v>44358</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1709,7 +1709,7 @@
         <v>44468</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
         <v>44468</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1889,7 +1889,7 @@
         <v>44831</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1979,7 +1979,7 @@
         <v>44874</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>45090</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2154,7 +2154,7 @@
         <v>43336</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2211,7 +2211,7 @@
         <v>43339</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
         <v>43354</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2325,7 +2325,7 @@
         <v>43355</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2382,7 +2382,7 @@
         <v>43355</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2439,7 +2439,7 @@
         <v>43356</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2496,7 +2496,7 @@
         <v>43362</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2553,7 +2553,7 @@
         <v>43375</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
         <v>43375</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2667,7 +2667,7 @@
         <v>43381</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2724,7 +2724,7 @@
         <v>43385</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         <v>43385</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2838,7 +2838,7 @@
         <v>43389</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2895,7 +2895,7 @@
         <v>43390</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2952,7 +2952,7 @@
         <v>43390</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3009,7 +3009,7 @@
         <v>43392</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3066,7 +3066,7 @@
         <v>43399</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3123,7 +3123,7 @@
         <v>43403</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         <v>43403</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3237,7 +3237,7 @@
         <v>43411</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3294,7 +3294,7 @@
         <v>43411</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3351,7 +3351,7 @@
         <v>43411</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3408,7 +3408,7 @@
         <v>43412</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3465,7 +3465,7 @@
         <v>43416</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3522,7 +3522,7 @@
         <v>43423</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3584,7 +3584,7 @@
         <v>43424</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3641,7 +3641,7 @@
         <v>43425</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3698,7 +3698,7 @@
         <v>43425</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3755,7 +3755,7 @@
         <v>43433</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3812,7 +3812,7 @@
         <v>43433</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3869,7 +3869,7 @@
         <v>43433</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3926,7 +3926,7 @@
         <v>43434</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3983,7 +3983,7 @@
         <v>43439</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>43439</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>43440</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>43445</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         <v>43445</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>43451</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>43451</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>43452</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4449,7 +4449,7 @@
         <v>43455</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>43455</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         <v>43468</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>43468</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
         <v>43475</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>43475</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>43479</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
         <v>43479</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4910,7 +4910,7 @@
         <v>43480</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4972,7 +4972,7 @@
         <v>43486</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5029,7 +5029,7 @@
         <v>43487</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>43489</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>43494</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>43494</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         <v>43495</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
         <v>43496</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         <v>43496</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         <v>43502</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>43503</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5557,7 +5557,7 @@
         <v>43509</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5614,7 +5614,7 @@
         <v>43514</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5671,7 +5671,7 @@
         <v>43514</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5728,7 +5728,7 @@
         <v>43517</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
         <v>43521</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5842,7 +5842,7 @@
         <v>43521</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5899,7 +5899,7 @@
         <v>43524</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5956,7 +5956,7 @@
         <v>43524</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6013,7 +6013,7 @@
         <v>43524</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6070,7 +6070,7 @@
         <v>43524</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
         <v>43524</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>43524</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
         <v>43528</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6298,7 +6298,7 @@
         <v>43528</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6360,7 +6360,7 @@
         <v>43532</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6417,7 +6417,7 @@
         <v>43544</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6474,7 +6474,7 @@
         <v>43546</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6536,7 +6536,7 @@
         <v>43553</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6593,7 +6593,7 @@
         <v>43553</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6650,7 +6650,7 @@
         <v>43558</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6707,7 +6707,7 @@
         <v>43560</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6764,7 +6764,7 @@
         <v>43564</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6821,7 +6821,7 @@
         <v>43585</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>43587</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6935,7 +6935,7 @@
         <v>43593</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6997,7 +6997,7 @@
         <v>43594</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7054,7 +7054,7 @@
         <v>43594</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7111,7 +7111,7 @@
         <v>43595</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7168,7 +7168,7 @@
         <v>43601</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
         <v>43605</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>43608</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7349,7 +7349,7 @@
         <v>43626</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7406,7 +7406,7 @@
         <v>43628</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7463,7 +7463,7 @@
         <v>43630</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         <v>43634</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7577,7 +7577,7 @@
         <v>43647</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7634,7 +7634,7 @@
         <v>43661</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7691,7 +7691,7 @@
         <v>43679</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7748,7 +7748,7 @@
         <v>43682</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7805,7 +7805,7 @@
         <v>43683</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7862,7 +7862,7 @@
         <v>43689</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7919,7 +7919,7 @@
         <v>43692</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7976,7 +7976,7 @@
         <v>43692</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         <v>43699</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8090,7 +8090,7 @@
         <v>43705</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8147,7 +8147,7 @@
         <v>43711</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>43712</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>43712</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>43713</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>43713</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>43717</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>43721</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>43731</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>43735</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>43738</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>43748</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>43753</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8836,7 +8836,7 @@
         <v>43761</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8898,7 +8898,7 @@
         <v>43768</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8955,7 +8955,7 @@
         <v>43769</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9012,7 +9012,7 @@
         <v>43773</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9069,7 +9069,7 @@
         <v>43773</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9126,7 +9126,7 @@
         <v>43773</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9183,7 +9183,7 @@
         <v>43773</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9240,7 +9240,7 @@
         <v>43781</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9297,7 +9297,7 @@
         <v>43788</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9359,7 +9359,7 @@
         <v>43791</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9421,7 +9421,7 @@
         <v>43796</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9478,7 +9478,7 @@
         <v>43805</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9535,7 +9535,7 @@
         <v>43808</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9597,7 +9597,7 @@
         <v>43811</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9659,7 +9659,7 @@
         <v>43812</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9716,7 +9716,7 @@
         <v>43837</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9773,7 +9773,7 @@
         <v>43837</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9830,7 +9830,7 @@
         <v>43839</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9887,7 +9887,7 @@
         <v>43850</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9944,7 +9944,7 @@
         <v>43851</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10001,7 +10001,7 @@
         <v>43851</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10058,7 +10058,7 @@
         <v>43854</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10115,7 +10115,7 @@
         <v>43859</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10172,7 +10172,7 @@
         <v>43859</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10229,7 +10229,7 @@
         <v>43866</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10286,7 +10286,7 @@
         <v>43866</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10343,7 +10343,7 @@
         <v>43867</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10400,7 +10400,7 @@
         <v>43867</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
         <v>43867</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10514,7 +10514,7 @@
         <v>43867</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10571,7 +10571,7 @@
         <v>43875</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10628,7 +10628,7 @@
         <v>43892</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10685,7 +10685,7 @@
         <v>43892</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10742,7 +10742,7 @@
         <v>43899</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10799,7 +10799,7 @@
         <v>43900</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10856,7 +10856,7 @@
         <v>43907</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10913,7 +10913,7 @@
         <v>43914</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10970,7 +10970,7 @@
         <v>43928</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11027,7 +11027,7 @@
         <v>43945</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>43955</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>43958</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11203,7 +11203,7 @@
         <v>43963</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11265,7 +11265,7 @@
         <v>43964</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11327,7 +11327,7 @@
         <v>43964</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11389,7 +11389,7 @@
         <v>43964</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11451,7 +11451,7 @@
         <v>43964</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11513,7 +11513,7 @@
         <v>43970</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11575,7 +11575,7 @@
         <v>43970</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11637,7 +11637,7 @@
         <v>43970</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11699,7 +11699,7 @@
         <v>43970</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11761,7 +11761,7 @@
         <v>43970</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11823,7 +11823,7 @@
         <v>43980</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11885,7 +11885,7 @@
         <v>43987</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11942,7 +11942,7 @@
         <v>43987</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11999,7 +11999,7 @@
         <v>43987</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12056,7 +12056,7 @@
         <v>43990</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12113,7 +12113,7 @@
         <v>44015</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12170,7 +12170,7 @@
         <v>44018</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12227,7 +12227,7 @@
         <v>44018</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12284,7 +12284,7 @@
         <v>44020</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12341,7 +12341,7 @@
         <v>44020</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12398,7 +12398,7 @@
         <v>44028</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12455,7 +12455,7 @@
         <v>44029</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12517,7 +12517,7 @@
         <v>44029</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12579,7 +12579,7 @@
         <v>44029</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12641,7 +12641,7 @@
         <v>44039</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12698,7 +12698,7 @@
         <v>44049</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12755,7 +12755,7 @@
         <v>44049</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12812,7 +12812,7 @@
         <v>44049</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12869,7 +12869,7 @@
         <v>44057</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12926,7 +12926,7 @@
         <v>44064</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12983,7 +12983,7 @@
         <v>44069</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13040,7 +13040,7 @@
         <v>44074</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13102,7 +13102,7 @@
         <v>44074</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13164,7 +13164,7 @@
         <v>44074</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13226,7 +13226,7 @@
         <v>44077</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>44083</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         <v>44087</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13407,7 +13407,7 @@
         <v>44087</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13469,7 +13469,7 @@
         <v>44088</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13526,7 +13526,7 @@
         <v>44089</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13583,7 +13583,7 @@
         <v>44089</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13640,7 +13640,7 @@
         <v>44092</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13697,7 +13697,7 @@
         <v>44095</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13754,7 +13754,7 @@
         <v>44095</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13811,7 +13811,7 @@
         <v>44102</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13868,7 +13868,7 @@
         <v>44104</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13925,7 +13925,7 @@
         <v>44104</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13982,7 +13982,7 @@
         <v>44104</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14039,7 +14039,7 @@
         <v>44104</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14096,7 +14096,7 @@
         <v>44104</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14153,7 +14153,7 @@
         <v>44109</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14210,7 +14210,7 @@
         <v>44116</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14267,7 +14267,7 @@
         <v>44120</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14324,7 +14324,7 @@
         <v>44124</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14381,7 +14381,7 @@
         <v>44124</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14438,7 +14438,7 @@
         <v>44126</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14495,7 +14495,7 @@
         <v>44130</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14552,7 +14552,7 @@
         <v>44130</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14609,7 +14609,7 @@
         <v>44130</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>44138</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14723,7 +14723,7 @@
         <v>44141</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14780,7 +14780,7 @@
         <v>44144</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14842,7 +14842,7 @@
         <v>44168</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14899,7 +14899,7 @@
         <v>44168</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14956,7 +14956,7 @@
         <v>44168</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15013,7 +15013,7 @@
         <v>44168</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15070,7 +15070,7 @@
         <v>44179</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15127,7 +15127,7 @@
         <v>44181</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15184,7 +15184,7 @@
         <v>44183</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15246,7 +15246,7 @@
         <v>44186</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15303,7 +15303,7 @@
         <v>44187</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15360,7 +15360,7 @@
         <v>44200</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15417,7 +15417,7 @@
         <v>44203</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15474,7 +15474,7 @@
         <v>44211</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15531,7 +15531,7 @@
         <v>44211</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15593,7 +15593,7 @@
         <v>44257</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15650,7 +15650,7 @@
         <v>44257</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15707,7 +15707,7 @@
         <v>44260</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15764,7 +15764,7 @@
         <v>44263</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15821,7 +15821,7 @@
         <v>44267</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15883,7 +15883,7 @@
         <v>44270</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15965,7 +15965,7 @@
         <v>44292</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16022,7 +16022,7 @@
         <v>44295</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16079,7 +16079,7 @@
         <v>44298</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16136,7 +16136,7 @@
         <v>44305</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16198,7 +16198,7 @@
         <v>44305</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16260,7 +16260,7 @@
         <v>44305</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16322,7 +16322,7 @@
         <v>44316</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16379,7 +16379,7 @@
         <v>44340</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16441,7 +16441,7 @@
         <v>44343</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16498,7 +16498,7 @@
         <v>44344</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16555,7 +16555,7 @@
         <v>44347</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16612,7 +16612,7 @@
         <v>44347</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16669,7 +16669,7 @@
         <v>44347</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16726,7 +16726,7 @@
         <v>44347</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16783,7 +16783,7 @@
         <v>44362</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16845,7 +16845,7 @@
         <v>44371</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16902,7 +16902,7 @@
         <v>44382</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16959,7 +16959,7 @@
         <v>44386</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17016,7 +17016,7 @@
         <v>44392</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17078,7 +17078,7 @@
         <v>44413</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17135,7 +17135,7 @@
         <v>44428</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17197,7 +17197,7 @@
         <v>44438</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17254,7 +17254,7 @@
         <v>44438</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17311,7 +17311,7 @@
         <v>44439</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17368,7 +17368,7 @@
         <v>44447</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17430,7 +17430,7 @@
         <v>44447</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17492,7 +17492,7 @@
         <v>44454</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17549,7 +17549,7 @@
         <v>44461</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17606,7 +17606,7 @@
         <v>44461</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17663,7 +17663,7 @@
         <v>44468</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17725,7 +17725,7 @@
         <v>44469</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17782,7 +17782,7 @@
         <v>44474</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17839,7 +17839,7 @@
         <v>44476</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17901,7 +17901,7 @@
         <v>44477</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17958,7 +17958,7 @@
         <v>44480</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18040,7 +18040,7 @@
         <v>44490</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18097,7 +18097,7 @@
         <v>44490</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18154,7 +18154,7 @@
         <v>44491</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18216,7 +18216,7 @@
         <v>44491</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18278,7 +18278,7 @@
         <v>44501</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18335,7 +18335,7 @@
         <v>44502</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18392,7 +18392,7 @@
         <v>44502</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18449,7 +18449,7 @@
         <v>44503</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18511,7 +18511,7 @@
         <v>44510</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         <v>44515</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18625,7 +18625,7 @@
         <v>44516</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18682,7 +18682,7 @@
         <v>44530</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         <v>44531</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18796,7 +18796,7 @@
         <v>44538</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18853,7 +18853,7 @@
         <v>44540</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18910,7 +18910,7 @@
         <v>44566</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18967,7 +18967,7 @@
         <v>44572</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19024,7 +19024,7 @@
         <v>44582</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19081,7 +19081,7 @@
         <v>44585</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19138,7 +19138,7 @@
         <v>44592</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19195,7 +19195,7 @@
         <v>44593</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19257,7 +19257,7 @@
         <v>44600</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19314,7 +19314,7 @@
         <v>44602</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19371,7 +19371,7 @@
         <v>44620</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19428,7 +19428,7 @@
         <v>44621</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19485,7 +19485,7 @@
         <v>44624</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19542,7 +19542,7 @@
         <v>44634</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19599,7 +19599,7 @@
         <v>44635</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19656,7 +19656,7 @@
         <v>44650</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19713,7 +19713,7 @@
         <v>44651</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19770,7 +19770,7 @@
         <v>44651</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19827,7 +19827,7 @@
         <v>44655</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19884,7 +19884,7 @@
         <v>44670</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19941,7 +19941,7 @@
         <v>44693</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19998,7 +19998,7 @@
         <v>44698</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20055,7 +20055,7 @@
         <v>44713</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20117,7 +20117,7 @@
         <v>44728</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         <v>44728</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20241,7 +20241,7 @@
         <v>44743</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20298,7 +20298,7 @@
         <v>44743</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20355,7 +20355,7 @@
         <v>44749</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20412,7 +20412,7 @@
         <v>44789</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20474,7 +20474,7 @@
         <v>44789</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20536,7 +20536,7 @@
         <v>44798</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20593,7 +20593,7 @@
         <v>44816</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20650,7 +20650,7 @@
         <v>44816</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20707,7 +20707,7 @@
         <v>44816</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20764,7 +20764,7 @@
         <v>44820</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20821,7 +20821,7 @@
         <v>44827</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20883,7 +20883,7 @@
         <v>44827</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20945,7 +20945,7 @@
         <v>44858</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21007,7 +21007,7 @@
         <v>44866</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21069,7 +21069,7 @@
         <v>44868</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21131,7 +21131,7 @@
         <v>44872</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21188,7 +21188,7 @@
         <v>44872</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21250,7 +21250,7 @@
         <v>44874</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21307,7 +21307,7 @@
         <v>44874</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21364,7 +21364,7 @@
         <v>44879</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21421,7 +21421,7 @@
         <v>44879</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21478,7 +21478,7 @@
         <v>44903</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21535,7 +21535,7 @@
         <v>44916</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21592,7 +21592,7 @@
         <v>44944</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21649,7 +21649,7 @@
         <v>44953</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21706,7 +21706,7 @@
         <v>44953</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21763,7 +21763,7 @@
         <v>44953</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21820,7 +21820,7 @@
         <v>44971</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21882,7 +21882,7 @@
         <v>44985</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21944,7 +21944,7 @@
         <v>44985</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22006,7 +22006,7 @@
         <v>44986</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22063,7 +22063,7 @@
         <v>44987</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22120,7 +22120,7 @@
         <v>44987</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22177,7 +22177,7 @@
         <v>44994</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22234,7 +22234,7 @@
         <v>44994</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22291,7 +22291,7 @@
         <v>45016</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22353,7 +22353,7 @@
         <v>45022</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22415,7 +22415,7 @@
         <v>45048</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22472,7 +22472,7 @@
         <v>45048</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22529,7 +22529,7 @@
         <v>45070</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22591,7 +22591,7 @@
         <v>45077</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22648,7 +22648,7 @@
         <v>45077</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22705,7 +22705,7 @@
         <v>45077</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22762,7 +22762,7 @@
         <v>45077</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22819,7 +22819,7 @@
         <v>45077</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22876,7 +22876,7 @@
         <v>45077</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22933,7 +22933,7 @@
         <v>45077</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22990,7 +22990,7 @@
         <v>45085</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23047,7 +23047,7 @@
         <v>45090</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23109,7 +23109,7 @@
         <v>45090</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23171,7 +23171,7 @@
         <v>45093</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23233,7 +23233,7 @@
         <v>45096</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23290,7 +23290,7 @@
         <v>45096</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23347,7 +23347,7 @@
         <v>45099</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23404,7 +23404,7 @@
         <v>45104</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23461,7 +23461,7 @@
         <v>45104</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23518,7 +23518,7 @@
         <v>45105</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23575,7 +23575,7 @@
         <v>45105</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23632,7 +23632,7 @@
         <v>45110</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23689,7 +23689,7 @@
         <v>45110</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23746,7 +23746,7 @@
         <v>45110</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23803,7 +23803,7 @@
         <v>45117</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23865,7 +23865,7 @@
         <v>45118</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23927,7 +23927,7 @@
         <v>45119</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23989,7 +23989,7 @@
         <v>45119</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24051,7 +24051,7 @@
         <v>45119</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24113,7 +24113,7 @@
         <v>45119</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24170,7 +24170,7 @@
         <v>45138</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24227,7 +24227,7 @@
         <v>45138</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24284,7 +24284,7 @@
         <v>45145</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24341,7 +24341,7 @@
         <v>45149</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24398,7 +24398,7 @@
         <v>45159</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24455,7 +24455,7 @@
         <v>45159</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24512,7 +24512,7 @@
         <v>45161</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24569,7 +24569,7 @@
         <v>45169</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24626,7 +24626,7 @@
         <v>45170</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24683,7 +24683,7 @@
         <v>45170</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>

--- a/Översikt YDRE.xlsx
+++ b/Översikt YDRE.xlsx
@@ -572,7 +572,7 @@
         <v>44257</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>43409</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>43517</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>45070</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         <v>43405</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1013,7 +1013,7 @@
         <v>44732</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>45138</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         <v>43524</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1275,7 +1275,7 @@
         <v>43665</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>43910</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1449,7 +1449,7 @@
         <v>44087</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
         <v>44187</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1624,7 +1624,7 @@
         <v>44358</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1709,7 +1709,7 @@
         <v>44468</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
         <v>44468</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1889,7 +1889,7 @@
         <v>44831</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1979,7 +1979,7 @@
         <v>44874</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>45090</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2154,7 +2154,7 @@
         <v>43336</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2211,7 +2211,7 @@
         <v>43339</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
         <v>43354</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2325,7 +2325,7 @@
         <v>43355</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2382,7 +2382,7 @@
         <v>43355</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2439,7 +2439,7 @@
         <v>43356</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2496,7 +2496,7 @@
         <v>43362</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2553,7 +2553,7 @@
         <v>43375</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
         <v>43375</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2667,7 +2667,7 @@
         <v>43381</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2724,7 +2724,7 @@
         <v>43385</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         <v>43385</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2838,7 +2838,7 @@
         <v>43389</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2895,7 +2895,7 @@
         <v>43390</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2952,7 +2952,7 @@
         <v>43390</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3009,7 +3009,7 @@
         <v>43392</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3066,7 +3066,7 @@
         <v>43399</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3123,7 +3123,7 @@
         <v>43403</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         <v>43403</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3237,7 +3237,7 @@
         <v>43411</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3294,7 +3294,7 @@
         <v>43411</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3351,7 +3351,7 @@
         <v>43411</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3408,7 +3408,7 @@
         <v>43412</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3465,7 +3465,7 @@
         <v>43416</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3522,7 +3522,7 @@
         <v>43423</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3584,7 +3584,7 @@
         <v>43424</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3641,7 +3641,7 @@
         <v>43425</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3698,7 +3698,7 @@
         <v>43425</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3755,7 +3755,7 @@
         <v>43433</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3812,7 +3812,7 @@
         <v>43433</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3869,7 +3869,7 @@
         <v>43433</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3926,7 +3926,7 @@
         <v>43434</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3983,7 +3983,7 @@
         <v>43439</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>43439</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>43440</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>43445</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         <v>43445</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>43451</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>43451</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>43452</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4449,7 +4449,7 @@
         <v>43455</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>43455</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         <v>43468</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>43468</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
         <v>43475</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>43475</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>43479</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
         <v>43479</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4910,7 +4910,7 @@
         <v>43480</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4972,7 +4972,7 @@
         <v>43486</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5029,7 +5029,7 @@
         <v>43487</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>43489</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>43494</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>43494</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         <v>43495</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
         <v>43496</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         <v>43496</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         <v>43502</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>43503</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5557,7 +5557,7 @@
         <v>43509</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5614,7 +5614,7 @@
         <v>43514</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5671,7 +5671,7 @@
         <v>43514</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5728,7 +5728,7 @@
         <v>43517</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
         <v>43521</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5842,7 +5842,7 @@
         <v>43521</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5899,7 +5899,7 @@
         <v>43524</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5956,7 +5956,7 @@
         <v>43524</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6013,7 +6013,7 @@
         <v>43524</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6070,7 +6070,7 @@
         <v>43524</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
         <v>43524</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>43524</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
         <v>43528</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6298,7 +6298,7 @@
         <v>43528</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6360,7 +6360,7 @@
         <v>43532</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6417,7 +6417,7 @@
         <v>43544</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6474,7 +6474,7 @@
         <v>43546</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6536,7 +6536,7 @@
         <v>43553</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6593,7 +6593,7 @@
         <v>43553</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6650,7 +6650,7 @@
         <v>43558</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6707,7 +6707,7 @@
         <v>43560</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6764,7 +6764,7 @@
         <v>43564</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6821,7 +6821,7 @@
         <v>43585</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>43587</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6935,7 +6935,7 @@
         <v>43593</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6997,7 +6997,7 @@
         <v>43594</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7054,7 +7054,7 @@
         <v>43594</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7111,7 +7111,7 @@
         <v>43595</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7168,7 +7168,7 @@
         <v>43601</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
         <v>43605</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>43608</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7349,7 +7349,7 @@
         <v>43626</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7406,7 +7406,7 @@
         <v>43628</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7463,7 +7463,7 @@
         <v>43630</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         <v>43634</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7577,7 +7577,7 @@
         <v>43647</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7634,7 +7634,7 @@
         <v>43661</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7691,7 +7691,7 @@
         <v>43679</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7748,7 +7748,7 @@
         <v>43682</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7805,7 +7805,7 @@
         <v>43683</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7862,7 +7862,7 @@
         <v>43689</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7919,7 +7919,7 @@
         <v>43692</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7976,7 +7976,7 @@
         <v>43692</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         <v>43699</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8090,7 +8090,7 @@
         <v>43705</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8147,7 +8147,7 @@
         <v>43711</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>43712</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>43712</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>43713</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>43713</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>43717</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>43721</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>43731</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>43735</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>43738</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>43748</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>43753</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8836,7 +8836,7 @@
         <v>43761</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8898,7 +8898,7 @@
         <v>43768</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8955,7 +8955,7 @@
         <v>43769</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9012,7 +9012,7 @@
         <v>43773</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9069,7 +9069,7 @@
         <v>43773</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9126,7 +9126,7 @@
         <v>43773</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9183,7 +9183,7 @@
         <v>43773</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9240,7 +9240,7 @@
         <v>43781</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9297,7 +9297,7 @@
         <v>43788</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9359,7 +9359,7 @@
         <v>43791</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9421,7 +9421,7 @@
         <v>43796</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9478,7 +9478,7 @@
         <v>43805</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9535,7 +9535,7 @@
         <v>43808</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9597,7 +9597,7 @@
         <v>43811</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9659,7 +9659,7 @@
         <v>43812</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9716,7 +9716,7 @@
         <v>43837</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9773,7 +9773,7 @@
         <v>43837</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9830,7 +9830,7 @@
         <v>43839</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9887,7 +9887,7 @@
         <v>43850</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9944,7 +9944,7 @@
         <v>43851</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10001,7 +10001,7 @@
         <v>43851</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10058,7 +10058,7 @@
         <v>43854</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10115,7 +10115,7 @@
         <v>43859</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10172,7 +10172,7 @@
         <v>43859</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10229,7 +10229,7 @@
         <v>43866</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10286,7 +10286,7 @@
         <v>43866</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10343,7 +10343,7 @@
         <v>43867</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10400,7 +10400,7 @@
         <v>43867</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
         <v>43867</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10514,7 +10514,7 @@
         <v>43867</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10571,7 +10571,7 @@
         <v>43875</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10628,7 +10628,7 @@
         <v>43892</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10685,7 +10685,7 @@
         <v>43892</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10742,7 +10742,7 @@
         <v>43899</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10799,7 +10799,7 @@
         <v>43900</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10856,7 +10856,7 @@
         <v>43907</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10913,7 +10913,7 @@
         <v>43914</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10970,7 +10970,7 @@
         <v>43928</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11027,7 +11027,7 @@
         <v>43945</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>43955</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>43958</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11203,7 +11203,7 @@
         <v>43963</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11265,7 +11265,7 @@
         <v>43964</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11327,7 +11327,7 @@
         <v>43964</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11389,7 +11389,7 @@
         <v>43964</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11451,7 +11451,7 @@
         <v>43964</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11513,7 +11513,7 @@
         <v>43970</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11575,7 +11575,7 @@
         <v>43970</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11637,7 +11637,7 @@
         <v>43970</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11699,7 +11699,7 @@
         <v>43970</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11761,7 +11761,7 @@
         <v>43970</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11823,7 +11823,7 @@
         <v>43980</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11885,7 +11885,7 @@
         <v>43987</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11942,7 +11942,7 @@
         <v>43987</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11999,7 +11999,7 @@
         <v>43987</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12056,7 +12056,7 @@
         <v>43990</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12113,7 +12113,7 @@
         <v>44015</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12170,7 +12170,7 @@
         <v>44018</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12227,7 +12227,7 @@
         <v>44018</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12284,7 +12284,7 @@
         <v>44020</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12341,7 +12341,7 @@
         <v>44020</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12398,7 +12398,7 @@
         <v>44028</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12455,7 +12455,7 @@
         <v>44029</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12517,7 +12517,7 @@
         <v>44029</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12579,7 +12579,7 @@
         <v>44029</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12641,7 +12641,7 @@
         <v>44039</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12698,7 +12698,7 @@
         <v>44049</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12755,7 +12755,7 @@
         <v>44049</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12812,7 +12812,7 @@
         <v>44049</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12869,7 +12869,7 @@
         <v>44057</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12926,7 +12926,7 @@
         <v>44064</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12983,7 +12983,7 @@
         <v>44069</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13040,7 +13040,7 @@
         <v>44074</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13102,7 +13102,7 @@
         <v>44074</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13164,7 +13164,7 @@
         <v>44074</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13226,7 +13226,7 @@
         <v>44077</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>44083</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         <v>44087</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13407,7 +13407,7 @@
         <v>44087</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13469,7 +13469,7 @@
         <v>44088</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13526,7 +13526,7 @@
         <v>44089</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13583,7 +13583,7 @@
         <v>44089</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13640,7 +13640,7 @@
         <v>44092</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13697,7 +13697,7 @@
         <v>44095</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13754,7 +13754,7 @@
         <v>44095</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13811,7 +13811,7 @@
         <v>44102</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13868,7 +13868,7 @@
         <v>44104</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13925,7 +13925,7 @@
         <v>44104</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13982,7 +13982,7 @@
         <v>44104</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14039,7 +14039,7 @@
         <v>44104</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14096,7 +14096,7 @@
         <v>44104</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14153,7 +14153,7 @@
         <v>44109</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14210,7 +14210,7 @@
         <v>44116</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14267,7 +14267,7 @@
         <v>44120</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14324,7 +14324,7 @@
         <v>44124</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14381,7 +14381,7 @@
         <v>44124</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14438,7 +14438,7 @@
         <v>44126</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14495,7 +14495,7 @@
         <v>44130</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14552,7 +14552,7 @@
         <v>44130</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14609,7 +14609,7 @@
         <v>44130</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>44138</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14723,7 +14723,7 @@
         <v>44141</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14780,7 +14780,7 @@
         <v>44144</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14842,7 +14842,7 @@
         <v>44168</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14899,7 +14899,7 @@
         <v>44168</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14956,7 +14956,7 @@
         <v>44168</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15013,7 +15013,7 @@
         <v>44168</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15070,7 +15070,7 @@
         <v>44179</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15127,7 +15127,7 @@
         <v>44181</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15184,7 +15184,7 @@
         <v>44183</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15246,7 +15246,7 @@
         <v>44186</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15303,7 +15303,7 @@
         <v>44187</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15360,7 +15360,7 @@
         <v>44200</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15417,7 +15417,7 @@
         <v>44203</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15474,7 +15474,7 @@
         <v>44211</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15531,7 +15531,7 @@
         <v>44211</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15593,7 +15593,7 @@
         <v>44257</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15650,7 +15650,7 @@
         <v>44257</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15707,7 +15707,7 @@
         <v>44260</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15764,7 +15764,7 @@
         <v>44263</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15821,7 +15821,7 @@
         <v>44267</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15883,7 +15883,7 @@
         <v>44270</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15965,7 +15965,7 @@
         <v>44292</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16022,7 +16022,7 @@
         <v>44295</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16079,7 +16079,7 @@
         <v>44298</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16136,7 +16136,7 @@
         <v>44305</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16198,7 +16198,7 @@
         <v>44305</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16260,7 +16260,7 @@
         <v>44305</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16322,7 +16322,7 @@
         <v>44316</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16379,7 +16379,7 @@
         <v>44340</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16441,7 +16441,7 @@
         <v>44343</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16498,7 +16498,7 @@
         <v>44344</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16555,7 +16555,7 @@
         <v>44347</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16612,7 +16612,7 @@
         <v>44347</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16669,7 +16669,7 @@
         <v>44347</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16726,7 +16726,7 @@
         <v>44347</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16783,7 +16783,7 @@
         <v>44362</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16845,7 +16845,7 @@
         <v>44371</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16902,7 +16902,7 @@
         <v>44382</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16959,7 +16959,7 @@
         <v>44386</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17016,7 +17016,7 @@
         <v>44392</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17078,7 +17078,7 @@
         <v>44413</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17135,7 +17135,7 @@
         <v>44428</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17197,7 +17197,7 @@
         <v>44438</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17254,7 +17254,7 @@
         <v>44438</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17311,7 +17311,7 @@
         <v>44439</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17368,7 +17368,7 @@
         <v>44447</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17430,7 +17430,7 @@
         <v>44447</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17492,7 +17492,7 @@
         <v>44454</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17549,7 +17549,7 @@
         <v>44461</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17606,7 +17606,7 @@
         <v>44461</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17663,7 +17663,7 @@
         <v>44468</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17725,7 +17725,7 @@
         <v>44469</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17782,7 +17782,7 @@
         <v>44474</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17839,7 +17839,7 @@
         <v>44476</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17901,7 +17901,7 @@
         <v>44477</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17958,7 +17958,7 @@
         <v>44480</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18040,7 +18040,7 @@
         <v>44490</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18097,7 +18097,7 @@
         <v>44490</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18154,7 +18154,7 @@
         <v>44491</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18216,7 +18216,7 @@
         <v>44491</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18278,7 +18278,7 @@
         <v>44501</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18335,7 +18335,7 @@
         <v>44502</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18392,7 +18392,7 @@
         <v>44502</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18449,7 +18449,7 @@
         <v>44503</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18511,7 +18511,7 @@
         <v>44510</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         <v>44515</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18625,7 +18625,7 @@
         <v>44516</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18682,7 +18682,7 @@
         <v>44530</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         <v>44531</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18796,7 +18796,7 @@
         <v>44538</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18853,7 +18853,7 @@
         <v>44540</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18910,7 +18910,7 @@
         <v>44566</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18967,7 +18967,7 @@
         <v>44572</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19024,7 +19024,7 @@
         <v>44582</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19081,7 +19081,7 @@
         <v>44585</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19138,7 +19138,7 @@
         <v>44592</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19195,7 +19195,7 @@
         <v>44593</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19257,7 +19257,7 @@
         <v>44600</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19314,7 +19314,7 @@
         <v>44602</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19371,7 +19371,7 @@
         <v>44620</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19428,7 +19428,7 @@
         <v>44621</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19485,7 +19485,7 @@
         <v>44624</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19542,7 +19542,7 @@
         <v>44634</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19599,7 +19599,7 @@
         <v>44635</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19656,7 +19656,7 @@
         <v>44650</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19713,7 +19713,7 @@
         <v>44651</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19770,7 +19770,7 @@
         <v>44651</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19827,7 +19827,7 @@
         <v>44655</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19884,7 +19884,7 @@
         <v>44670</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19941,7 +19941,7 @@
         <v>44693</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19998,7 +19998,7 @@
         <v>44698</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20055,7 +20055,7 @@
         <v>44713</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20117,7 +20117,7 @@
         <v>44728</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         <v>44728</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20241,7 +20241,7 @@
         <v>44743</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20298,7 +20298,7 @@
         <v>44743</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20355,7 +20355,7 @@
         <v>44749</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20412,7 +20412,7 @@
         <v>44789</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20474,7 +20474,7 @@
         <v>44789</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20536,7 +20536,7 @@
         <v>44798</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20593,7 +20593,7 @@
         <v>44816</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20650,7 +20650,7 @@
         <v>44816</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20707,7 +20707,7 @@
         <v>44816</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20764,7 +20764,7 @@
         <v>44820</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20821,7 +20821,7 @@
         <v>44827</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20883,7 +20883,7 @@
         <v>44827</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20945,7 +20945,7 @@
         <v>44858</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21007,7 +21007,7 @@
         <v>44866</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21069,7 +21069,7 @@
         <v>44868</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21131,7 +21131,7 @@
         <v>44872</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21188,7 +21188,7 @@
         <v>44872</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21250,7 +21250,7 @@
         <v>44874</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21307,7 +21307,7 @@
         <v>44874</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21364,7 +21364,7 @@
         <v>44879</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21421,7 +21421,7 @@
         <v>44879</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21478,7 +21478,7 @@
         <v>44903</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21535,7 +21535,7 @@
         <v>44916</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21592,7 +21592,7 @@
         <v>44944</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21649,7 +21649,7 @@
         <v>44953</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21706,7 +21706,7 @@
         <v>44953</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21763,7 +21763,7 @@
         <v>44953</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21820,7 +21820,7 @@
         <v>44971</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21882,7 +21882,7 @@
         <v>44985</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21944,7 +21944,7 @@
         <v>44985</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22006,7 +22006,7 @@
         <v>44986</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22063,7 +22063,7 @@
         <v>44987</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22120,7 +22120,7 @@
         <v>44987</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22177,7 +22177,7 @@
         <v>44994</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22234,7 +22234,7 @@
         <v>44994</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22291,7 +22291,7 @@
         <v>45016</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22353,7 +22353,7 @@
         <v>45022</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22415,7 +22415,7 @@
         <v>45048</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22472,7 +22472,7 @@
         <v>45048</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22529,7 +22529,7 @@
         <v>45070</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22591,7 +22591,7 @@
         <v>45077</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22648,7 +22648,7 @@
         <v>45077</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22705,7 +22705,7 @@
         <v>45077</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22762,7 +22762,7 @@
         <v>45077</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22819,7 +22819,7 @@
         <v>45077</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22876,7 +22876,7 @@
         <v>45077</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22933,7 +22933,7 @@
         <v>45077</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22990,7 +22990,7 @@
         <v>45085</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23047,7 +23047,7 @@
         <v>45090</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23109,7 +23109,7 @@
         <v>45090</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23171,7 +23171,7 @@
         <v>45093</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23233,7 +23233,7 @@
         <v>45096</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23290,7 +23290,7 @@
         <v>45096</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23347,7 +23347,7 @@
         <v>45099</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23404,7 +23404,7 @@
         <v>45104</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23461,7 +23461,7 @@
         <v>45104</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23518,7 +23518,7 @@
         <v>45105</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23575,7 +23575,7 @@
         <v>45105</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23632,7 +23632,7 @@
         <v>45110</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23689,7 +23689,7 @@
         <v>45110</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23746,7 +23746,7 @@
         <v>45110</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23803,7 +23803,7 @@
         <v>45117</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23865,7 +23865,7 @@
         <v>45118</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23927,7 +23927,7 @@
         <v>45119</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23989,7 +23989,7 @@
         <v>45119</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24051,7 +24051,7 @@
         <v>45119</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24113,7 +24113,7 @@
         <v>45119</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24170,7 +24170,7 @@
         <v>45138</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24227,7 +24227,7 @@
         <v>45138</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24284,7 +24284,7 @@
         <v>45145</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24341,7 +24341,7 @@
         <v>45149</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24398,7 +24398,7 @@
         <v>45159</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24455,7 +24455,7 @@
         <v>45159</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24512,7 +24512,7 @@
         <v>45161</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24569,7 +24569,7 @@
         <v>45169</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24626,7 +24626,7 @@
         <v>45170</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24683,7 +24683,7 @@
         <v>45170</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>

--- a/Översikt YDRE.xlsx
+++ b/Översikt YDRE.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y407"/>
+  <dimension ref="A1:Y408"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44257</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -627,27 +627,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/artfynd/A 10483-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/artfynd/A 10483-2021.xlsx", "A 10483-2021")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/kartor/A 10483-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/kartor/A 10483-2021.png", "A 10483-2021")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/klagomål/A 10483-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/klagomål/A 10483-2021.docx", "A 10483-2021")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/klagomålsmail/A 10483-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/klagomålsmail/A 10483-2021.docx", "A 10483-2021")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/tillsyn/A 10483-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/tillsyn/A 10483-2021.docx", "A 10483-2021")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/tillsynsmail/A 10483-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/tillsynsmail/A 10483-2021.docx", "A 10483-2021")</f>
         <v/>
       </c>
     </row>
@@ -661,7 +661,7 @@
         <v>43409</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -714,27 +714,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/artfynd/A 58553-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/artfynd/A 58553-2018.xlsx", "A 58553-2018")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/kartor/A 58553-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/kartor/A 58553-2018.png", "A 58553-2018")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/klagomål/A 58553-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/klagomål/A 58553-2018.docx", "A 58553-2018")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/klagomålsmail/A 58553-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/klagomålsmail/A 58553-2018.docx", "A 58553-2018")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/tillsyn/A 58553-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/tillsyn/A 58553-2018.docx", "A 58553-2018")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/tillsynsmail/A 58553-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/tillsynsmail/A 58553-2018.docx", "A 58553-2018")</f>
         <v/>
       </c>
     </row>
@@ -748,7 +748,7 @@
         <v>43517</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -801,27 +801,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/artfynd/A 11419-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/artfynd/A 11419-2019.xlsx", "A 11419-2019")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/kartor/A 11419-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/kartor/A 11419-2019.png", "A 11419-2019")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/klagomål/A 11419-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/klagomål/A 11419-2019.docx", "A 11419-2019")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/klagomålsmail/A 11419-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/klagomålsmail/A 11419-2019.docx", "A 11419-2019")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/tillsyn/A 11419-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/tillsyn/A 11419-2019.docx", "A 11419-2019")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/tillsynsmail/A 11419-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/tillsynsmail/A 11419-2019.docx", "A 11419-2019")</f>
         <v/>
       </c>
     </row>
@@ -835,7 +835,7 @@
         <v>45070</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -893,27 +893,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/artfynd/A 22259-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/artfynd/A 22259-2023.xlsx", "A 22259-2023")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/kartor/A 22259-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/kartor/A 22259-2023.png", "A 22259-2023")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/klagomål/A 22259-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/klagomål/A 22259-2023.docx", "A 22259-2023")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/klagomålsmail/A 22259-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/klagomålsmail/A 22259-2023.docx", "A 22259-2023")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/tillsyn/A 22259-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/tillsyn/A 22259-2023.docx", "A 22259-2023")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/tillsynsmail/A 22259-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/tillsynsmail/A 22259-2023.docx", "A 22259-2023")</f>
         <v/>
       </c>
     </row>
@@ -927,7 +927,7 @@
         <v>43405</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -979,27 +979,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/artfynd/A 57755-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/artfynd/A 57755-2018.xlsx", "A 57755-2018")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/kartor/A 57755-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/kartor/A 57755-2018.png", "A 57755-2018")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/klagomål/A 57755-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/klagomål/A 57755-2018.docx", "A 57755-2018")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/klagomålsmail/A 57755-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/klagomålsmail/A 57755-2018.docx", "A 57755-2018")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/tillsyn/A 57755-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/tillsyn/A 57755-2018.docx", "A 57755-2018")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/tillsynsmail/A 57755-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/tillsynsmail/A 57755-2018.docx", "A 57755-2018")</f>
         <v/>
       </c>
     </row>
@@ -1013,7 +1013,7 @@
         <v>44732</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1070,27 +1070,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/artfynd/A 25498-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/artfynd/A 25498-2022.xlsx", "A 25498-2022")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/kartor/A 25498-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/kartor/A 25498-2022.png", "A 25498-2022")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/klagomål/A 25498-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/klagomål/A 25498-2022.docx", "A 25498-2022")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/klagomålsmail/A 25498-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/klagomålsmail/A 25498-2022.docx", "A 25498-2022")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/tillsyn/A 25498-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/tillsyn/A 25498-2022.docx", "A 25498-2022")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/tillsynsmail/A 25498-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/tillsynsmail/A 25498-2022.docx", "A 25498-2022")</f>
         <v/>
       </c>
     </row>
@@ -1104,7 +1104,7 @@
         <v>45138</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1156,27 +1156,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/artfynd/A 34179-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/artfynd/A 34179-2023.xlsx", "A 34179-2023")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/kartor/A 34179-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/kartor/A 34179-2023.png", "A 34179-2023")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/klagomål/A 34179-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/klagomål/A 34179-2023.docx", "A 34179-2023")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/klagomålsmail/A 34179-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/klagomålsmail/A 34179-2023.docx", "A 34179-2023")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/tillsyn/A 34179-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/tillsyn/A 34179-2023.docx", "A 34179-2023")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/tillsynsmail/A 34179-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/tillsynsmail/A 34179-2023.docx", "A 34179-2023")</f>
         <v/>
       </c>
     </row>
@@ -1190,7 +1190,7 @@
         <v>43524</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1241,27 +1241,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/artfynd/A 12639-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/artfynd/A 12639-2019.xlsx", "A 12639-2019")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/kartor/A 12639-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/kartor/A 12639-2019.png", "A 12639-2019")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/klagomål/A 12639-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/klagomål/A 12639-2019.docx", "A 12639-2019")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/klagomålsmail/A 12639-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/klagomålsmail/A 12639-2019.docx", "A 12639-2019")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/tillsyn/A 12639-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/tillsyn/A 12639-2019.docx", "A 12639-2019")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/tillsynsmail/A 12639-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/tillsynsmail/A 12639-2019.docx", "A 12639-2019")</f>
         <v/>
       </c>
     </row>
@@ -1275,7 +1275,7 @@
         <v>43665</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1326,31 +1326,31 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/artfynd/A 35863-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/artfynd/A 35863-2019.xlsx", "A 35863-2019")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/kartor/A 35863-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/kartor/A 35863-2019.png", "A 35863-2019")</f>
         <v/>
       </c>
       <c r="U10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/knärot/A 35863-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/knärot/A 35863-2019.png", "A 35863-2019")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/klagomål/A 35863-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/klagomål/A 35863-2019.docx", "A 35863-2019")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/klagomålsmail/A 35863-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/klagomålsmail/A 35863-2019.docx", "A 35863-2019")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/tillsyn/A 35863-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/tillsyn/A 35863-2019.docx", "A 35863-2019")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/tillsynsmail/A 35863-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/tillsynsmail/A 35863-2019.docx", "A 35863-2019")</f>
         <v/>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
         <v>43910</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1415,27 +1415,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/artfynd/A 14959-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/artfynd/A 14959-2020.xlsx", "A 14959-2020")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/kartor/A 14959-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/kartor/A 14959-2020.png", "A 14959-2020")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/klagomål/A 14959-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/klagomål/A 14959-2020.docx", "A 14959-2020")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/klagomålsmail/A 14959-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/klagomålsmail/A 14959-2020.docx", "A 14959-2020")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/tillsyn/A 14959-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/tillsyn/A 14959-2020.docx", "A 14959-2020")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/tillsynsmail/A 14959-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/tillsynsmail/A 14959-2020.docx", "A 14959-2020")</f>
         <v/>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
         <v>44087</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1505,27 +1505,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/artfynd/A 44877-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/artfynd/A 44877-2020.xlsx", "A 44877-2020")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/kartor/A 44877-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/kartor/A 44877-2020.png", "A 44877-2020")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/klagomål/A 44877-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/klagomål/A 44877-2020.docx", "A 44877-2020")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/klagomålsmail/A 44877-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/klagomålsmail/A 44877-2020.docx", "A 44877-2020")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/tillsyn/A 44877-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/tillsyn/A 44877-2020.docx", "A 44877-2020")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/tillsynsmail/A 44877-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/tillsynsmail/A 44877-2020.docx", "A 44877-2020")</f>
         <v/>
       </c>
     </row>
@@ -1539,7 +1539,7 @@
         <v>44187</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1590,27 +1590,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/artfynd/A 68768-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/artfynd/A 68768-2020.xlsx", "A 68768-2020")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/kartor/A 68768-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/kartor/A 68768-2020.png", "A 68768-2020")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/klagomål/A 68768-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/klagomål/A 68768-2020.docx", "A 68768-2020")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/klagomålsmail/A 68768-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/klagomålsmail/A 68768-2020.docx", "A 68768-2020")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/tillsyn/A 68768-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/tillsyn/A 68768-2020.docx", "A 68768-2020")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/tillsynsmail/A 68768-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/tillsynsmail/A 68768-2020.docx", "A 68768-2020")</f>
         <v/>
       </c>
     </row>
@@ -1624,7 +1624,7 @@
         <v>44358</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1675,27 +1675,27 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/artfynd/A 28953-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/artfynd/A 28953-2021.xlsx", "A 28953-2021")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/kartor/A 28953-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/kartor/A 28953-2021.png", "A 28953-2021")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/klagomål/A 28953-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/klagomål/A 28953-2021.docx", "A 28953-2021")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/klagomålsmail/A 28953-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/klagomålsmail/A 28953-2021.docx", "A 28953-2021")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/tillsyn/A 28953-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/tillsyn/A 28953-2021.docx", "A 28953-2021")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/tillsynsmail/A 28953-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/tillsynsmail/A 28953-2021.docx", "A 28953-2021")</f>
         <v/>
       </c>
     </row>
@@ -1709,7 +1709,7 @@
         <v>44468</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1765,27 +1765,27 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/artfynd/A 53277-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/artfynd/A 53277-2021.xlsx", "A 53277-2021")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/kartor/A 53277-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/kartor/A 53277-2021.png", "A 53277-2021")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/klagomål/A 53277-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/klagomål/A 53277-2021.docx", "A 53277-2021")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/klagomålsmail/A 53277-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/klagomålsmail/A 53277-2021.docx", "A 53277-2021")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/tillsyn/A 53277-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/tillsyn/A 53277-2021.docx", "A 53277-2021")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/tillsynsmail/A 53277-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/tillsynsmail/A 53277-2021.docx", "A 53277-2021")</f>
         <v/>
       </c>
     </row>
@@ -1799,7 +1799,7 @@
         <v>44468</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1855,27 +1855,27 @@
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/artfynd/A 53316-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/artfynd/A 53316-2021.xlsx", "A 53316-2021")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/kartor/A 53316-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/kartor/A 53316-2021.png", "A 53316-2021")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/klagomål/A 53316-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/klagomål/A 53316-2021.docx", "A 53316-2021")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/klagomålsmail/A 53316-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/klagomålsmail/A 53316-2021.docx", "A 53316-2021")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/tillsyn/A 53316-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/tillsyn/A 53316-2021.docx", "A 53316-2021")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/tillsynsmail/A 53316-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/tillsynsmail/A 53316-2021.docx", "A 53316-2021")</f>
         <v/>
       </c>
     </row>
@@ -1889,7 +1889,7 @@
         <v>44831</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1945,27 +1945,27 @@
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/artfynd/A 42354-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/artfynd/A 42354-2022.xlsx", "A 42354-2022")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/kartor/A 42354-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/kartor/A 42354-2022.png", "A 42354-2022")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/klagomål/A 42354-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/klagomål/A 42354-2022.docx", "A 42354-2022")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/klagomålsmail/A 42354-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/klagomålsmail/A 42354-2022.docx", "A 42354-2022")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/tillsyn/A 42354-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/tillsyn/A 42354-2022.docx", "A 42354-2022")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/tillsynsmail/A 42354-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/tillsynsmail/A 42354-2022.docx", "A 42354-2022")</f>
         <v/>
       </c>
     </row>
@@ -1979,7 +1979,7 @@
         <v>44874</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2030,27 +2030,27 @@
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/artfynd/A 52667-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/artfynd/A 52667-2022.xlsx", "A 52667-2022")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/kartor/A 52667-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/kartor/A 52667-2022.png", "A 52667-2022")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/klagomål/A 52667-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/klagomål/A 52667-2022.docx", "A 52667-2022")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/klagomålsmail/A 52667-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/klagomålsmail/A 52667-2022.docx", "A 52667-2022")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/tillsyn/A 52667-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/tillsyn/A 52667-2022.docx", "A 52667-2022")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/tillsynsmail/A 52667-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/tillsynsmail/A 52667-2022.docx", "A 52667-2022")</f>
         <v/>
       </c>
     </row>
@@ -2064,7 +2064,7 @@
         <v>45090</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2120,27 +2120,27 @@
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/artfynd/A 25855-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/artfynd/A 25855-2023.xlsx", "A 25855-2023")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/kartor/A 25855-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/kartor/A 25855-2023.png", "A 25855-2023")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/klagomål/A 25855-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/klagomål/A 25855-2023.docx", "A 25855-2023")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/klagomålsmail/A 25855-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/klagomålsmail/A 25855-2023.docx", "A 25855-2023")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/tillsyn/A 25855-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/tillsyn/A 25855-2023.docx", "A 25855-2023")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/tillsynsmail/A 25855-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/tillsynsmail/A 25855-2023.docx", "A 25855-2023")</f>
         <v/>
       </c>
     </row>
@@ -2154,7 +2154,7 @@
         <v>43336</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2211,7 +2211,7 @@
         <v>43339</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
         <v>43354</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2325,7 +2325,7 @@
         <v>43355</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2382,7 +2382,7 @@
         <v>43355</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2439,7 +2439,7 @@
         <v>43356</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2496,7 +2496,7 @@
         <v>43362</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2553,7 +2553,7 @@
         <v>43375</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
         <v>43375</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2667,7 +2667,7 @@
         <v>43381</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2724,7 +2724,7 @@
         <v>43385</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         <v>43385</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2838,7 +2838,7 @@
         <v>43389</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2895,7 +2895,7 @@
         <v>43390</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2952,7 +2952,7 @@
         <v>43390</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3009,7 +3009,7 @@
         <v>43392</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3066,7 +3066,7 @@
         <v>43399</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3123,7 +3123,7 @@
         <v>43403</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         <v>43403</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3237,7 +3237,7 @@
         <v>43411</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3294,7 +3294,7 @@
         <v>43411</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3351,7 +3351,7 @@
         <v>43411</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3408,7 +3408,7 @@
         <v>43412</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3465,7 +3465,7 @@
         <v>43416</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3522,7 +3522,7 @@
         <v>43423</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3584,7 +3584,7 @@
         <v>43424</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3641,7 +3641,7 @@
         <v>43425</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3698,7 +3698,7 @@
         <v>43425</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3755,7 +3755,7 @@
         <v>43433</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3812,7 +3812,7 @@
         <v>43433</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3869,7 +3869,7 @@
         <v>43433</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3926,7 +3926,7 @@
         <v>43434</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3983,7 +3983,7 @@
         <v>43439</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>43439</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>43440</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>43445</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         <v>43445</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>43451</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>43451</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>43452</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4449,7 +4449,7 @@
         <v>43455</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>43455</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         <v>43468</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>43468</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
         <v>43475</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>43475</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>43479</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
         <v>43479</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4910,7 +4910,7 @@
         <v>43480</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4972,7 +4972,7 @@
         <v>43486</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5029,7 +5029,7 @@
         <v>43487</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>43489</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>43494</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>43494</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         <v>43495</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
         <v>43496</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         <v>43496</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         <v>43502</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>43503</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5557,7 +5557,7 @@
         <v>43509</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5614,7 +5614,7 @@
         <v>43514</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5671,7 +5671,7 @@
         <v>43514</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5728,7 +5728,7 @@
         <v>43517</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
         <v>43521</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5842,7 +5842,7 @@
         <v>43521</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5899,7 +5899,7 @@
         <v>43524</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5956,7 +5956,7 @@
         <v>43524</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6013,7 +6013,7 @@
         <v>43524</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6070,7 +6070,7 @@
         <v>43524</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
         <v>43524</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>43524</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
         <v>43528</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6298,7 +6298,7 @@
         <v>43528</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6360,7 +6360,7 @@
         <v>43532</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6417,7 +6417,7 @@
         <v>43544</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6474,7 +6474,7 @@
         <v>43546</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6536,7 +6536,7 @@
         <v>43553</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6593,7 +6593,7 @@
         <v>43553</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6650,7 +6650,7 @@
         <v>43558</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6707,7 +6707,7 @@
         <v>43560</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6764,7 +6764,7 @@
         <v>43564</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6821,7 +6821,7 @@
         <v>43585</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>43587</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6935,7 +6935,7 @@
         <v>43593</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6997,7 +6997,7 @@
         <v>43594</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7054,7 +7054,7 @@
         <v>43594</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7111,7 +7111,7 @@
         <v>43595</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7168,7 +7168,7 @@
         <v>43601</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
         <v>43605</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>43608</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7349,7 +7349,7 @@
         <v>43626</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7406,7 +7406,7 @@
         <v>43628</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7463,7 +7463,7 @@
         <v>43630</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         <v>43634</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7577,7 +7577,7 @@
         <v>43647</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7634,7 +7634,7 @@
         <v>43661</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7691,7 +7691,7 @@
         <v>43679</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7748,7 +7748,7 @@
         <v>43682</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7805,7 +7805,7 @@
         <v>43683</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7862,7 +7862,7 @@
         <v>43689</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7919,7 +7919,7 @@
         <v>43692</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7976,7 +7976,7 @@
         <v>43692</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         <v>43699</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8090,7 +8090,7 @@
         <v>43705</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8147,7 +8147,7 @@
         <v>43711</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>43712</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>43712</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>43713</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>43713</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>43717</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>43721</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>43731</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>43735</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>43738</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>43748</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>43753</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8836,7 +8836,7 @@
         <v>43761</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8898,7 +8898,7 @@
         <v>43768</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8955,7 +8955,7 @@
         <v>43769</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9012,7 +9012,7 @@
         <v>43773</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9069,7 +9069,7 @@
         <v>43773</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9126,7 +9126,7 @@
         <v>43773</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9183,7 +9183,7 @@
         <v>43773</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9240,7 +9240,7 @@
         <v>43781</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9297,7 +9297,7 @@
         <v>43788</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9359,7 +9359,7 @@
         <v>43791</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9421,7 +9421,7 @@
         <v>43796</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9478,7 +9478,7 @@
         <v>43805</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9535,7 +9535,7 @@
         <v>43808</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9597,7 +9597,7 @@
         <v>43811</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9659,7 +9659,7 @@
         <v>43812</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9716,7 +9716,7 @@
         <v>43837</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9773,7 +9773,7 @@
         <v>43837</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9830,7 +9830,7 @@
         <v>43839</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9887,7 +9887,7 @@
         <v>43850</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9944,7 +9944,7 @@
         <v>43851</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10001,7 +10001,7 @@
         <v>43851</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10058,7 +10058,7 @@
         <v>43854</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10115,7 +10115,7 @@
         <v>43859</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10172,7 +10172,7 @@
         <v>43859</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10229,7 +10229,7 @@
         <v>43866</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10286,7 +10286,7 @@
         <v>43866</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10343,7 +10343,7 @@
         <v>43867</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10400,7 +10400,7 @@
         <v>43867</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
         <v>43867</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10514,7 +10514,7 @@
         <v>43867</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10571,7 +10571,7 @@
         <v>43875</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10628,7 +10628,7 @@
         <v>43892</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10685,7 +10685,7 @@
         <v>43892</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10742,7 +10742,7 @@
         <v>43899</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10799,7 +10799,7 @@
         <v>43900</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10856,7 +10856,7 @@
         <v>43907</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10913,7 +10913,7 @@
         <v>43914</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10970,7 +10970,7 @@
         <v>43928</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11027,7 +11027,7 @@
         <v>43945</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>43955</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>43958</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11203,7 +11203,7 @@
         <v>43963</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11265,7 +11265,7 @@
         <v>43964</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11327,7 +11327,7 @@
         <v>43964</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11389,7 +11389,7 @@
         <v>43964</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11451,7 +11451,7 @@
         <v>43964</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11513,7 +11513,7 @@
         <v>43970</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11575,7 +11575,7 @@
         <v>43970</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11637,7 +11637,7 @@
         <v>43970</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11699,7 +11699,7 @@
         <v>43970</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11761,7 +11761,7 @@
         <v>43970</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11823,7 +11823,7 @@
         <v>43980</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11885,7 +11885,7 @@
         <v>43987</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11942,7 +11942,7 @@
         <v>43987</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11999,7 +11999,7 @@
         <v>43987</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12056,7 +12056,7 @@
         <v>43990</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12113,7 +12113,7 @@
         <v>44015</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12170,7 +12170,7 @@
         <v>44018</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12227,7 +12227,7 @@
         <v>44018</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12284,7 +12284,7 @@
         <v>44020</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12341,7 +12341,7 @@
         <v>44020</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12398,7 +12398,7 @@
         <v>44028</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12455,7 +12455,7 @@
         <v>44029</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12517,7 +12517,7 @@
         <v>44029</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12579,7 +12579,7 @@
         <v>44029</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12641,7 +12641,7 @@
         <v>44039</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12698,7 +12698,7 @@
         <v>44049</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12755,7 +12755,7 @@
         <v>44049</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12812,7 +12812,7 @@
         <v>44049</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12869,7 +12869,7 @@
         <v>44057</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12926,7 +12926,7 @@
         <v>44064</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12983,7 +12983,7 @@
         <v>44069</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13040,7 +13040,7 @@
         <v>44074</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13102,7 +13102,7 @@
         <v>44074</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13164,7 +13164,7 @@
         <v>44074</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13226,7 +13226,7 @@
         <v>44077</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>44083</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         <v>44087</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13407,7 +13407,7 @@
         <v>44087</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13469,7 +13469,7 @@
         <v>44088</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13526,7 +13526,7 @@
         <v>44089</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13583,7 +13583,7 @@
         <v>44089</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13640,7 +13640,7 @@
         <v>44092</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13697,7 +13697,7 @@
         <v>44095</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13754,7 +13754,7 @@
         <v>44095</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13811,7 +13811,7 @@
         <v>44102</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13868,7 +13868,7 @@
         <v>44104</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13925,7 +13925,7 @@
         <v>44104</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13982,7 +13982,7 @@
         <v>44104</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14039,7 +14039,7 @@
         <v>44104</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14096,7 +14096,7 @@
         <v>44104</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14153,7 +14153,7 @@
         <v>44109</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14210,7 +14210,7 @@
         <v>44116</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14267,7 +14267,7 @@
         <v>44120</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14324,7 +14324,7 @@
         <v>44124</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14381,7 +14381,7 @@
         <v>44124</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14438,7 +14438,7 @@
         <v>44126</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14495,7 +14495,7 @@
         <v>44130</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14552,7 +14552,7 @@
         <v>44130</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14609,7 +14609,7 @@
         <v>44130</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>44138</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14723,7 +14723,7 @@
         <v>44141</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14780,7 +14780,7 @@
         <v>44144</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14842,7 +14842,7 @@
         <v>44168</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14899,7 +14899,7 @@
         <v>44168</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14956,7 +14956,7 @@
         <v>44168</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15013,7 +15013,7 @@
         <v>44168</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15070,7 +15070,7 @@
         <v>44179</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15127,7 +15127,7 @@
         <v>44181</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15184,7 +15184,7 @@
         <v>44183</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15246,7 +15246,7 @@
         <v>44186</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15303,7 +15303,7 @@
         <v>44187</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15360,7 +15360,7 @@
         <v>44200</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15417,7 +15417,7 @@
         <v>44203</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15474,7 +15474,7 @@
         <v>44211</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15531,7 +15531,7 @@
         <v>44211</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15593,7 +15593,7 @@
         <v>44257</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15650,7 +15650,7 @@
         <v>44257</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15707,7 +15707,7 @@
         <v>44260</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15764,7 +15764,7 @@
         <v>44263</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15821,7 +15821,7 @@
         <v>44267</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15883,7 +15883,7 @@
         <v>44270</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15935,23 +15935,23 @@
       </c>
       <c r="R257" s="2" t="inlineStr"/>
       <c r="U257">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/knärot/A 12578-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/knärot/A 12578-2021.png", "A 12578-2021")</f>
         <v/>
       </c>
       <c r="V257">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/klagomål/A 12578-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/klagomål/A 12578-2021.docx", "A 12578-2021")</f>
         <v/>
       </c>
       <c r="W257">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/klagomålsmail/A 12578-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/klagomålsmail/A 12578-2021.docx", "A 12578-2021")</f>
         <v/>
       </c>
       <c r="X257">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/tillsyn/A 12578-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/tillsyn/A 12578-2021.docx", "A 12578-2021")</f>
         <v/>
       </c>
       <c r="Y257">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/tillsynsmail/A 12578-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/tillsynsmail/A 12578-2021.docx", "A 12578-2021")</f>
         <v/>
       </c>
     </row>
@@ -15965,7 +15965,7 @@
         <v>44292</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16022,7 +16022,7 @@
         <v>44295</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16079,7 +16079,7 @@
         <v>44298</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16136,7 +16136,7 @@
         <v>44305</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16198,7 +16198,7 @@
         <v>44305</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16260,7 +16260,7 @@
         <v>44305</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16322,7 +16322,7 @@
         <v>44316</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16379,7 +16379,7 @@
         <v>44340</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16441,7 +16441,7 @@
         <v>44343</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16498,7 +16498,7 @@
         <v>44344</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16555,7 +16555,7 @@
         <v>44347</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16612,7 +16612,7 @@
         <v>44347</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16669,7 +16669,7 @@
         <v>44347</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16726,7 +16726,7 @@
         <v>44347</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16783,7 +16783,7 @@
         <v>44362</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16845,7 +16845,7 @@
         <v>44371</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16902,7 +16902,7 @@
         <v>44382</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16959,7 +16959,7 @@
         <v>44386</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17016,7 +17016,7 @@
         <v>44392</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17078,7 +17078,7 @@
         <v>44413</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17135,7 +17135,7 @@
         <v>44428</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17197,7 +17197,7 @@
         <v>44438</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17254,7 +17254,7 @@
         <v>44438</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17311,7 +17311,7 @@
         <v>44439</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17368,7 +17368,7 @@
         <v>44447</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17430,7 +17430,7 @@
         <v>44447</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17492,7 +17492,7 @@
         <v>44454</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17549,7 +17549,7 @@
         <v>44461</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17606,7 +17606,7 @@
         <v>44461</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17663,7 +17663,7 @@
         <v>44468</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17725,7 +17725,7 @@
         <v>44469</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17782,7 +17782,7 @@
         <v>44474</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17839,7 +17839,7 @@
         <v>44476</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17901,7 +17901,7 @@
         <v>44477</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17958,7 +17958,7 @@
         <v>44480</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18010,23 +18010,23 @@
       </c>
       <c r="R292" s="2" t="inlineStr"/>
       <c r="U292">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/knärot/A 56323-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/knärot/A 56323-2021.png", "A 56323-2021")</f>
         <v/>
       </c>
       <c r="V292">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/klagomål/A 56323-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/klagomål/A 56323-2021.docx", "A 56323-2021")</f>
         <v/>
       </c>
       <c r="W292">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/klagomålsmail/A 56323-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/klagomålsmail/A 56323-2021.docx", "A 56323-2021")</f>
         <v/>
       </c>
       <c r="X292">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/tillsyn/A 56323-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/tillsyn/A 56323-2021.docx", "A 56323-2021")</f>
         <v/>
       </c>
       <c r="Y292">
-        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/tillsynsmail/A 56323-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_YDRE/tillsynsmail/A 56323-2021.docx", "A 56323-2021")</f>
         <v/>
       </c>
     </row>
@@ -18040,7 +18040,7 @@
         <v>44490</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18097,7 +18097,7 @@
         <v>44490</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18154,7 +18154,7 @@
         <v>44491</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18216,7 +18216,7 @@
         <v>44491</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18278,7 +18278,7 @@
         <v>44501</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18335,7 +18335,7 @@
         <v>44502</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18392,7 +18392,7 @@
         <v>44502</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18449,7 +18449,7 @@
         <v>44503</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18511,7 +18511,7 @@
         <v>44510</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         <v>44515</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18625,7 +18625,7 @@
         <v>44516</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18682,7 +18682,7 @@
         <v>44530</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         <v>44531</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18796,7 +18796,7 @@
         <v>44538</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18853,7 +18853,7 @@
         <v>44540</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18910,7 +18910,7 @@
         <v>44566</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18967,7 +18967,7 @@
         <v>44572</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19024,7 +19024,7 @@
         <v>44582</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19081,7 +19081,7 @@
         <v>44585</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19138,7 +19138,7 @@
         <v>44592</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19195,7 +19195,7 @@
         <v>44593</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19257,7 +19257,7 @@
         <v>44600</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19314,7 +19314,7 @@
         <v>44602</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19371,7 +19371,7 @@
         <v>44620</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19428,7 +19428,7 @@
         <v>44621</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19485,7 +19485,7 @@
         <v>44624</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19542,7 +19542,7 @@
         <v>44634</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19599,7 +19599,7 @@
         <v>44635</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19656,7 +19656,7 @@
         <v>44650</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19713,7 +19713,7 @@
         <v>44651</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19770,7 +19770,7 @@
         <v>44651</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19827,7 +19827,7 @@
         <v>44655</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19884,7 +19884,7 @@
         <v>44670</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19941,7 +19941,7 @@
         <v>44693</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19998,7 +19998,7 @@
         <v>44698</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20055,7 +20055,7 @@
         <v>44713</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20117,7 +20117,7 @@
         <v>44728</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         <v>44728</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20241,7 +20241,7 @@
         <v>44743</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20298,7 +20298,7 @@
         <v>44743</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20355,7 +20355,7 @@
         <v>44749</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20412,7 +20412,7 @@
         <v>44789</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20474,7 +20474,7 @@
         <v>44789</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20536,7 +20536,7 @@
         <v>44798</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20593,7 +20593,7 @@
         <v>44816</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20650,7 +20650,7 @@
         <v>44816</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20707,7 +20707,7 @@
         <v>44816</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20764,7 +20764,7 @@
         <v>44820</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20821,7 +20821,7 @@
         <v>44827</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20883,7 +20883,7 @@
         <v>44827</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20945,7 +20945,7 @@
         <v>44858</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21007,7 +21007,7 @@
         <v>44866</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21069,7 +21069,7 @@
         <v>44868</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21131,7 +21131,7 @@
         <v>44872</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21188,7 +21188,7 @@
         <v>44872</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21250,7 +21250,7 @@
         <v>44874</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21307,7 +21307,7 @@
         <v>44874</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21364,7 +21364,7 @@
         <v>44879</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21421,7 +21421,7 @@
         <v>44879</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21478,7 +21478,7 @@
         <v>44903</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21535,7 +21535,7 @@
         <v>44916</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21592,7 +21592,7 @@
         <v>44944</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21649,7 +21649,7 @@
         <v>44953</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21706,7 +21706,7 @@
         <v>44953</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21763,7 +21763,7 @@
         <v>44953</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21820,7 +21820,7 @@
         <v>44971</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21882,7 +21882,7 @@
         <v>44985</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21944,7 +21944,7 @@
         <v>44985</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22006,7 +22006,7 @@
         <v>44986</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22063,7 +22063,7 @@
         <v>44987</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22120,7 +22120,7 @@
         <v>44987</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22177,7 +22177,7 @@
         <v>44994</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22234,7 +22234,7 @@
         <v>44994</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22291,7 +22291,7 @@
         <v>45016</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22353,7 +22353,7 @@
         <v>45022</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22415,7 +22415,7 @@
         <v>45048</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22472,7 +22472,7 @@
         <v>45048</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22529,7 +22529,7 @@
         <v>45070</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22591,7 +22591,7 @@
         <v>45077</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22648,7 +22648,7 @@
         <v>45077</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22705,7 +22705,7 @@
         <v>45077</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22762,7 +22762,7 @@
         <v>45077</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22819,7 +22819,7 @@
         <v>45077</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22876,7 +22876,7 @@
         <v>45077</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22933,7 +22933,7 @@
         <v>45077</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22990,7 +22990,7 @@
         <v>45085</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23047,7 +23047,7 @@
         <v>45090</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23109,7 +23109,7 @@
         <v>45090</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23171,7 +23171,7 @@
         <v>45093</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23233,7 +23233,7 @@
         <v>45096</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23290,7 +23290,7 @@
         <v>45096</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23347,7 +23347,7 @@
         <v>45099</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23404,7 +23404,7 @@
         <v>45104</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23461,7 +23461,7 @@
         <v>45104</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23518,7 +23518,7 @@
         <v>45105</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23575,7 +23575,7 @@
         <v>45105</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23632,7 +23632,7 @@
         <v>45110</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23689,7 +23689,7 @@
         <v>45110</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23746,7 +23746,7 @@
         <v>45110</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23803,7 +23803,7 @@
         <v>45117</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23865,7 +23865,7 @@
         <v>45118</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23927,7 +23927,7 @@
         <v>45119</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23989,7 +23989,7 @@
         <v>45119</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24051,7 +24051,7 @@
         <v>45119</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24113,7 +24113,7 @@
         <v>45119</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24170,7 +24170,7 @@
         <v>45138</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24227,7 +24227,7 @@
         <v>45138</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24284,7 +24284,7 @@
         <v>45145</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24341,7 +24341,7 @@
         <v>45149</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24398,7 +24398,7 @@
         <v>45159</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24455,7 +24455,7 @@
         <v>45159</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24512,7 +24512,7 @@
         <v>45161</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24569,7 +24569,7 @@
         <v>45169</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24626,7 +24626,7 @@
         <v>45170</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24673,7 +24673,7 @@
       </c>
       <c r="R406" s="2" t="inlineStr"/>
     </row>
-    <row r="407">
+    <row r="407" ht="15" customHeight="1">
       <c r="A407" t="inlineStr">
         <is>
           <t>A 40692-2023</t>
@@ -24683,7 +24683,7 @@
         <v>45170</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24729,6 +24729,63 @@
         <v>0</v>
       </c>
       <c r="R407" s="2" t="inlineStr"/>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>A 43455-2023</t>
+        </is>
+      </c>
+      <c r="B408" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="C408" s="1" t="n">
+        <v>45186</v>
+      </c>
+      <c r="D408" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E408" t="inlineStr">
+        <is>
+          <t>YDRE</t>
+        </is>
+      </c>
+      <c r="G408" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H408" t="n">
+        <v>0</v>
+      </c>
+      <c r="I408" t="n">
+        <v>0</v>
+      </c>
+      <c r="J408" t="n">
+        <v>0</v>
+      </c>
+      <c r="K408" t="n">
+        <v>0</v>
+      </c>
+      <c r="L408" t="n">
+        <v>0</v>
+      </c>
+      <c r="M408" t="n">
+        <v>0</v>
+      </c>
+      <c r="N408" t="n">
+        <v>0</v>
+      </c>
+      <c r="O408" t="n">
+        <v>0</v>
+      </c>
+      <c r="P408" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q408" t="n">
+        <v>0</v>
+      </c>
+      <c r="R408" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt YDRE.xlsx
+++ b/Översikt YDRE.xlsx
@@ -572,7 +572,7 @@
         <v>44257</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>43409</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>43517</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>45070</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         <v>43405</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1013,7 +1013,7 @@
         <v>44732</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>45138</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         <v>43524</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1275,7 +1275,7 @@
         <v>43665</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>43910</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1449,7 +1449,7 @@
         <v>44087</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
         <v>44187</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1624,7 +1624,7 @@
         <v>44358</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1709,7 +1709,7 @@
         <v>44468</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
         <v>44468</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1889,7 +1889,7 @@
         <v>44831</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1979,7 +1979,7 @@
         <v>44874</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>45090</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2154,7 +2154,7 @@
         <v>43336</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2211,7 +2211,7 @@
         <v>43339</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
         <v>43354</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2325,7 +2325,7 @@
         <v>43355</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2382,7 +2382,7 @@
         <v>43355</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2439,7 +2439,7 @@
         <v>43356</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2496,7 +2496,7 @@
         <v>43362</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2553,7 +2553,7 @@
         <v>43375</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
         <v>43375</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2667,7 +2667,7 @@
         <v>43381</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2724,7 +2724,7 @@
         <v>43385</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         <v>43385</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2838,7 +2838,7 @@
         <v>43389</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2895,7 +2895,7 @@
         <v>43390</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2952,7 +2952,7 @@
         <v>43390</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3009,7 +3009,7 @@
         <v>43392</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3066,7 +3066,7 @@
         <v>43399</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3123,7 +3123,7 @@
         <v>43403</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         <v>43403</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3237,7 +3237,7 @@
         <v>43411</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3294,7 +3294,7 @@
         <v>43411</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3351,7 +3351,7 @@
         <v>43411</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3408,7 +3408,7 @@
         <v>43412</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3465,7 +3465,7 @@
         <v>43416</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3522,7 +3522,7 @@
         <v>43423</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3584,7 +3584,7 @@
         <v>43424</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3641,7 +3641,7 @@
         <v>43425</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3698,7 +3698,7 @@
         <v>43425</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3755,7 +3755,7 @@
         <v>43433</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3812,7 +3812,7 @@
         <v>43433</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3869,7 +3869,7 @@
         <v>43433</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3926,7 +3926,7 @@
         <v>43434</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3983,7 +3983,7 @@
         <v>43439</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>43439</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>43440</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>43445</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         <v>43445</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>43451</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>43451</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>43452</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4449,7 +4449,7 @@
         <v>43455</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>43455</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         <v>43468</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>43468</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
         <v>43475</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>43475</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>43479</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
         <v>43479</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4910,7 +4910,7 @@
         <v>43480</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4972,7 +4972,7 @@
         <v>43486</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5029,7 +5029,7 @@
         <v>43487</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>43489</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>43494</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>43494</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         <v>43495</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
         <v>43496</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         <v>43496</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         <v>43502</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>43503</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5557,7 +5557,7 @@
         <v>43509</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5614,7 +5614,7 @@
         <v>43514</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5671,7 +5671,7 @@
         <v>43514</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5728,7 +5728,7 @@
         <v>43517</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
         <v>43521</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5842,7 +5842,7 @@
         <v>43521</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5899,7 +5899,7 @@
         <v>43524</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5956,7 +5956,7 @@
         <v>43524</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6013,7 +6013,7 @@
         <v>43524</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6070,7 +6070,7 @@
         <v>43524</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
         <v>43524</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>43524</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
         <v>43528</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6298,7 +6298,7 @@
         <v>43528</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6360,7 +6360,7 @@
         <v>43532</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6417,7 +6417,7 @@
         <v>43544</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6474,7 +6474,7 @@
         <v>43546</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6536,7 +6536,7 @@
         <v>43553</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6593,7 +6593,7 @@
         <v>43553</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6650,7 +6650,7 @@
         <v>43558</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6707,7 +6707,7 @@
         <v>43560</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6764,7 +6764,7 @@
         <v>43564</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6821,7 +6821,7 @@
         <v>43585</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>43587</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6935,7 +6935,7 @@
         <v>43593</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6997,7 +6997,7 @@
         <v>43594</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7054,7 +7054,7 @@
         <v>43594</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7111,7 +7111,7 @@
         <v>43595</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7168,7 +7168,7 @@
         <v>43601</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
         <v>43605</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>43608</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7349,7 +7349,7 @@
         <v>43626</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7406,7 +7406,7 @@
         <v>43628</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7463,7 +7463,7 @@
         <v>43630</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         <v>43634</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7577,7 +7577,7 @@
         <v>43647</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7634,7 +7634,7 @@
         <v>43661</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7691,7 +7691,7 @@
         <v>43679</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7748,7 +7748,7 @@
         <v>43682</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7805,7 +7805,7 @@
         <v>43683</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7862,7 +7862,7 @@
         <v>43689</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7919,7 +7919,7 @@
         <v>43692</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7976,7 +7976,7 @@
         <v>43692</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         <v>43699</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8090,7 +8090,7 @@
         <v>43705</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8147,7 +8147,7 @@
         <v>43711</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>43712</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>43712</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>43713</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>43713</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>43717</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>43721</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>43731</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>43735</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>43738</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>43748</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>43753</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8836,7 +8836,7 @@
         <v>43761</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8898,7 +8898,7 @@
         <v>43768</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8955,7 +8955,7 @@
         <v>43769</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9012,7 +9012,7 @@
         <v>43773</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9069,7 +9069,7 @@
         <v>43773</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9126,7 +9126,7 @@
         <v>43773</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9183,7 +9183,7 @@
         <v>43773</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9240,7 +9240,7 @@
         <v>43781</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9297,7 +9297,7 @@
         <v>43788</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9359,7 +9359,7 @@
         <v>43791</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9421,7 +9421,7 @@
         <v>43796</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9478,7 +9478,7 @@
         <v>43805</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9535,7 +9535,7 @@
         <v>43808</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9597,7 +9597,7 @@
         <v>43811</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9659,7 +9659,7 @@
         <v>43812</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9716,7 +9716,7 @@
         <v>43837</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9773,7 +9773,7 @@
         <v>43837</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9830,7 +9830,7 @@
         <v>43839</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9887,7 +9887,7 @@
         <v>43850</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9944,7 +9944,7 @@
         <v>43851</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10001,7 +10001,7 @@
         <v>43851</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10058,7 +10058,7 @@
         <v>43854</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10115,7 +10115,7 @@
         <v>43859</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10172,7 +10172,7 @@
         <v>43859</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10229,7 +10229,7 @@
         <v>43866</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10286,7 +10286,7 @@
         <v>43866</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10343,7 +10343,7 @@
         <v>43867</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10400,7 +10400,7 @@
         <v>43867</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
         <v>43867</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10514,7 +10514,7 @@
         <v>43867</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10571,7 +10571,7 @@
         <v>43875</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10628,7 +10628,7 @@
         <v>43892</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10685,7 +10685,7 @@
         <v>43892</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10742,7 +10742,7 @@
         <v>43899</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10799,7 +10799,7 @@
         <v>43900</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10856,7 +10856,7 @@
         <v>43907</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10913,7 +10913,7 @@
         <v>43914</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10970,7 +10970,7 @@
         <v>43928</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11027,7 +11027,7 @@
         <v>43945</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>43955</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>43958</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11203,7 +11203,7 @@
         <v>43963</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11265,7 +11265,7 @@
         <v>43964</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11327,7 +11327,7 @@
         <v>43964</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11389,7 +11389,7 @@
         <v>43964</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11451,7 +11451,7 @@
         <v>43964</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11513,7 +11513,7 @@
         <v>43970</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11575,7 +11575,7 @@
         <v>43970</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11637,7 +11637,7 @@
         <v>43970</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11699,7 +11699,7 @@
         <v>43970</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11761,7 +11761,7 @@
         <v>43970</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11823,7 +11823,7 @@
         <v>43980</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11885,7 +11885,7 @@
         <v>43987</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11942,7 +11942,7 @@
         <v>43987</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11999,7 +11999,7 @@
         <v>43987</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12056,7 +12056,7 @@
         <v>43990</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12113,7 +12113,7 @@
         <v>44015</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12170,7 +12170,7 @@
         <v>44018</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12227,7 +12227,7 @@
         <v>44018</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12284,7 +12284,7 @@
         <v>44020</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12341,7 +12341,7 @@
         <v>44020</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12398,7 +12398,7 @@
         <v>44028</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12455,7 +12455,7 @@
         <v>44029</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12517,7 +12517,7 @@
         <v>44029</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12579,7 +12579,7 @@
         <v>44029</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12641,7 +12641,7 @@
         <v>44039</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12698,7 +12698,7 @@
         <v>44049</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12755,7 +12755,7 @@
         <v>44049</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12812,7 +12812,7 @@
         <v>44049</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12869,7 +12869,7 @@
         <v>44057</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12926,7 +12926,7 @@
         <v>44064</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12983,7 +12983,7 @@
         <v>44069</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13040,7 +13040,7 @@
         <v>44074</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13102,7 +13102,7 @@
         <v>44074</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13164,7 +13164,7 @@
         <v>44074</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13226,7 +13226,7 @@
         <v>44077</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>44083</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         <v>44087</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13407,7 +13407,7 @@
         <v>44087</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13469,7 +13469,7 @@
         <v>44088</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13526,7 +13526,7 @@
         <v>44089</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13583,7 +13583,7 @@
         <v>44089</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13640,7 +13640,7 @@
         <v>44092</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13697,7 +13697,7 @@
         <v>44095</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13754,7 +13754,7 @@
         <v>44095</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13811,7 +13811,7 @@
         <v>44102</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13868,7 +13868,7 @@
         <v>44104</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13925,7 +13925,7 @@
         <v>44104</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13982,7 +13982,7 @@
         <v>44104</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14039,7 +14039,7 @@
         <v>44104</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14096,7 +14096,7 @@
         <v>44104</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14153,7 +14153,7 @@
         <v>44109</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14210,7 +14210,7 @@
         <v>44116</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14267,7 +14267,7 @@
         <v>44120</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14324,7 +14324,7 @@
         <v>44124</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14381,7 +14381,7 @@
         <v>44124</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14438,7 +14438,7 @@
         <v>44126</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14495,7 +14495,7 @@
         <v>44130</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14552,7 +14552,7 @@
         <v>44130</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14609,7 +14609,7 @@
         <v>44130</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>44138</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14723,7 +14723,7 @@
         <v>44141</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14780,7 +14780,7 @@
         <v>44144</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14842,7 +14842,7 @@
         <v>44168</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14899,7 +14899,7 @@
         <v>44168</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14956,7 +14956,7 @@
         <v>44168</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15013,7 +15013,7 @@
         <v>44168</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15070,7 +15070,7 @@
         <v>44179</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15127,7 +15127,7 @@
         <v>44181</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15184,7 +15184,7 @@
         <v>44183</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15246,7 +15246,7 @@
         <v>44186</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15303,7 +15303,7 @@
         <v>44187</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15360,7 +15360,7 @@
         <v>44200</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15417,7 +15417,7 @@
         <v>44203</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15474,7 +15474,7 @@
         <v>44211</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15531,7 +15531,7 @@
         <v>44211</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15593,7 +15593,7 @@
         <v>44257</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15650,7 +15650,7 @@
         <v>44257</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15707,7 +15707,7 @@
         <v>44260</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15764,7 +15764,7 @@
         <v>44263</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15821,7 +15821,7 @@
         <v>44267</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15883,7 +15883,7 @@
         <v>44270</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15965,7 +15965,7 @@
         <v>44292</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16022,7 +16022,7 @@
         <v>44295</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16079,7 +16079,7 @@
         <v>44298</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16136,7 +16136,7 @@
         <v>44305</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16198,7 +16198,7 @@
         <v>44305</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16260,7 +16260,7 @@
         <v>44305</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16322,7 +16322,7 @@
         <v>44316</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16379,7 +16379,7 @@
         <v>44340</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16441,7 +16441,7 @@
         <v>44343</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16498,7 +16498,7 @@
         <v>44344</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16555,7 +16555,7 @@
         <v>44347</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16612,7 +16612,7 @@
         <v>44347</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16669,7 +16669,7 @@
         <v>44347</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16726,7 +16726,7 @@
         <v>44347</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16783,7 +16783,7 @@
         <v>44362</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16845,7 +16845,7 @@
         <v>44371</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16902,7 +16902,7 @@
         <v>44382</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16959,7 +16959,7 @@
         <v>44386</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17016,7 +17016,7 @@
         <v>44392</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17078,7 +17078,7 @@
         <v>44413</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17135,7 +17135,7 @@
         <v>44428</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17197,7 +17197,7 @@
         <v>44438</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17254,7 +17254,7 @@
         <v>44438</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17311,7 +17311,7 @@
         <v>44439</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17368,7 +17368,7 @@
         <v>44447</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17430,7 +17430,7 @@
         <v>44447</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17492,7 +17492,7 @@
         <v>44454</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17549,7 +17549,7 @@
         <v>44461</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17606,7 +17606,7 @@
         <v>44461</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17663,7 +17663,7 @@
         <v>44468</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17725,7 +17725,7 @@
         <v>44469</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17782,7 +17782,7 @@
         <v>44474</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17839,7 +17839,7 @@
         <v>44476</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17901,7 +17901,7 @@
         <v>44477</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17958,7 +17958,7 @@
         <v>44480</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18040,7 +18040,7 @@
         <v>44490</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18097,7 +18097,7 @@
         <v>44490</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18154,7 +18154,7 @@
         <v>44491</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18216,7 +18216,7 @@
         <v>44491</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18278,7 +18278,7 @@
         <v>44501</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18335,7 +18335,7 @@
         <v>44502</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18392,7 +18392,7 @@
         <v>44502</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18449,7 +18449,7 @@
         <v>44503</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18511,7 +18511,7 @@
         <v>44510</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         <v>44515</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18625,7 +18625,7 @@
         <v>44516</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18682,7 +18682,7 @@
         <v>44530</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         <v>44531</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18796,7 +18796,7 @@
         <v>44538</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18853,7 +18853,7 @@
         <v>44540</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18910,7 +18910,7 @@
         <v>44566</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18967,7 +18967,7 @@
         <v>44572</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19024,7 +19024,7 @@
         <v>44582</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19081,7 +19081,7 @@
         <v>44585</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19138,7 +19138,7 @@
         <v>44592</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19195,7 +19195,7 @@
         <v>44593</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19257,7 +19257,7 @@
         <v>44600</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19314,7 +19314,7 @@
         <v>44602</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19371,7 +19371,7 @@
         <v>44620</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19428,7 +19428,7 @@
         <v>44621</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19485,7 +19485,7 @@
         <v>44624</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19542,7 +19542,7 @@
         <v>44634</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19599,7 +19599,7 @@
         <v>44635</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19656,7 +19656,7 @@
         <v>44650</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19713,7 +19713,7 @@
         <v>44651</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19770,7 +19770,7 @@
         <v>44651</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19827,7 +19827,7 @@
         <v>44655</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19884,7 +19884,7 @@
         <v>44670</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19941,7 +19941,7 @@
         <v>44693</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19998,7 +19998,7 @@
         <v>44698</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20055,7 +20055,7 @@
         <v>44713</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20117,7 +20117,7 @@
         <v>44728</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         <v>44728</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20241,7 +20241,7 @@
         <v>44743</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20298,7 +20298,7 @@
         <v>44743</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20355,7 +20355,7 @@
         <v>44749</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20412,7 +20412,7 @@
         <v>44789</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20474,7 +20474,7 @@
         <v>44789</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20536,7 +20536,7 @@
         <v>44798</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20593,7 +20593,7 @@
         <v>44816</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20650,7 +20650,7 @@
         <v>44816</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20707,7 +20707,7 @@
         <v>44816</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20764,7 +20764,7 @@
         <v>44820</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20821,7 +20821,7 @@
         <v>44827</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20883,7 +20883,7 @@
         <v>44827</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20945,7 +20945,7 @@
         <v>44858</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21007,7 +21007,7 @@
         <v>44866</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21069,7 +21069,7 @@
         <v>44868</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21131,7 +21131,7 @@
         <v>44872</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21188,7 +21188,7 @@
         <v>44872</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21250,7 +21250,7 @@
         <v>44874</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21307,7 +21307,7 @@
         <v>44874</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21364,7 +21364,7 @@
         <v>44879</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21421,7 +21421,7 @@
         <v>44879</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21478,7 +21478,7 @@
         <v>44903</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21535,7 +21535,7 @@
         <v>44916</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21592,7 +21592,7 @@
         <v>44944</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21649,7 +21649,7 @@
         <v>44953</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21706,7 +21706,7 @@
         <v>44953</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21763,7 +21763,7 @@
         <v>44953</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21820,7 +21820,7 @@
         <v>44971</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21882,7 +21882,7 @@
         <v>44985</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21944,7 +21944,7 @@
         <v>44985</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22006,7 +22006,7 @@
         <v>44986</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22063,7 +22063,7 @@
         <v>44987</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22120,7 +22120,7 @@
         <v>44987</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22177,7 +22177,7 @@
         <v>44994</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22234,7 +22234,7 @@
         <v>44994</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22291,7 +22291,7 @@
         <v>45016</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22353,7 +22353,7 @@
         <v>45022</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22415,7 +22415,7 @@
         <v>45048</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22472,7 +22472,7 @@
         <v>45048</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22529,7 +22529,7 @@
         <v>45070</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22591,7 +22591,7 @@
         <v>45077</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22648,7 +22648,7 @@
         <v>45077</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22705,7 +22705,7 @@
         <v>45077</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22762,7 +22762,7 @@
         <v>45077</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22819,7 +22819,7 @@
         <v>45077</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22876,7 +22876,7 @@
         <v>45077</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22933,7 +22933,7 @@
         <v>45077</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22990,7 +22990,7 @@
         <v>45085</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23047,7 +23047,7 @@
         <v>45090</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23109,7 +23109,7 @@
         <v>45090</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23171,7 +23171,7 @@
         <v>45093</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23233,7 +23233,7 @@
         <v>45096</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23290,7 +23290,7 @@
         <v>45096</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23347,7 +23347,7 @@
         <v>45099</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23404,7 +23404,7 @@
         <v>45104</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23461,7 +23461,7 @@
         <v>45104</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23518,7 +23518,7 @@
         <v>45105</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23575,7 +23575,7 @@
         <v>45105</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23632,7 +23632,7 @@
         <v>45110</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23689,7 +23689,7 @@
         <v>45110</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23746,7 +23746,7 @@
         <v>45110</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23803,7 +23803,7 @@
         <v>45117</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23865,7 +23865,7 @@
         <v>45118</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23927,7 +23927,7 @@
         <v>45119</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23989,7 +23989,7 @@
         <v>45119</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24051,7 +24051,7 @@
         <v>45119</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24113,7 +24113,7 @@
         <v>45119</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24170,7 +24170,7 @@
         <v>45138</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24227,7 +24227,7 @@
         <v>45138</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24284,7 +24284,7 @@
         <v>45145</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24341,7 +24341,7 @@
         <v>45149</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24398,7 +24398,7 @@
         <v>45159</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24455,7 +24455,7 @@
         <v>45159</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24512,7 +24512,7 @@
         <v>45161</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24569,7 +24569,7 @@
         <v>45169</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24626,7 +24626,7 @@
         <v>45170</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24683,7 +24683,7 @@
         <v>45170</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24740,7 +24740,7 @@
         <v>45184</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>

--- a/Översikt YDRE.xlsx
+++ b/Översikt YDRE.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y408"/>
+  <dimension ref="A1:Y409"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44257</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>43409</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>43517</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>45070</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         <v>43405</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1013,7 +1013,7 @@
         <v>44732</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>45138</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         <v>43524</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1275,7 +1275,7 @@
         <v>43665</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>43910</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1449,7 +1449,7 @@
         <v>44087</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
         <v>44187</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1624,7 +1624,7 @@
         <v>44358</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1709,7 +1709,7 @@
         <v>44468</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
         <v>44468</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1889,7 +1889,7 @@
         <v>44831</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1979,7 +1979,7 @@
         <v>44874</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>45090</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2154,7 +2154,7 @@
         <v>43336</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2211,7 +2211,7 @@
         <v>43339</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
         <v>43354</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2325,7 +2325,7 @@
         <v>43355</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2382,7 +2382,7 @@
         <v>43355</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2439,7 +2439,7 @@
         <v>43356</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2496,7 +2496,7 @@
         <v>43362</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2553,7 +2553,7 @@
         <v>43375</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
         <v>43375</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2667,7 +2667,7 @@
         <v>43381</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2724,7 +2724,7 @@
         <v>43385</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         <v>43385</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2838,7 +2838,7 @@
         <v>43389</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2895,7 +2895,7 @@
         <v>43390</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2952,7 +2952,7 @@
         <v>43390</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3009,7 +3009,7 @@
         <v>43392</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3066,7 +3066,7 @@
         <v>43399</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3123,7 +3123,7 @@
         <v>43403</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         <v>43403</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3237,7 +3237,7 @@
         <v>43411</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3294,7 +3294,7 @@
         <v>43411</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3351,7 +3351,7 @@
         <v>43411</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3408,7 +3408,7 @@
         <v>43412</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3465,7 +3465,7 @@
         <v>43416</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3522,7 +3522,7 @@
         <v>43423</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3584,7 +3584,7 @@
         <v>43424</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3641,7 +3641,7 @@
         <v>43425</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3698,7 +3698,7 @@
         <v>43425</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3755,7 +3755,7 @@
         <v>43433</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3812,7 +3812,7 @@
         <v>43433</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3869,7 +3869,7 @@
         <v>43433</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3926,7 +3926,7 @@
         <v>43434</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3983,7 +3983,7 @@
         <v>43439</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>43439</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>43440</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>43445</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         <v>43445</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>43451</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>43451</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>43452</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4449,7 +4449,7 @@
         <v>43455</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>43455</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         <v>43468</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>43468</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
         <v>43475</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>43475</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>43479</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
         <v>43479</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4910,7 +4910,7 @@
         <v>43480</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4972,7 +4972,7 @@
         <v>43486</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5029,7 +5029,7 @@
         <v>43487</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>43489</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>43494</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>43494</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         <v>43495</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
         <v>43496</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         <v>43496</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         <v>43502</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>43503</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5557,7 +5557,7 @@
         <v>43509</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5614,7 +5614,7 @@
         <v>43514</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5671,7 +5671,7 @@
         <v>43514</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5728,7 +5728,7 @@
         <v>43517</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
         <v>43521</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5842,7 +5842,7 @@
         <v>43521</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5899,7 +5899,7 @@
         <v>43524</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5956,7 +5956,7 @@
         <v>43524</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6013,7 +6013,7 @@
         <v>43524</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6070,7 +6070,7 @@
         <v>43524</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
         <v>43524</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>43524</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
         <v>43528</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6298,7 +6298,7 @@
         <v>43528</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6360,7 +6360,7 @@
         <v>43532</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6417,7 +6417,7 @@
         <v>43544</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6474,7 +6474,7 @@
         <v>43546</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6536,7 +6536,7 @@
         <v>43553</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6593,7 +6593,7 @@
         <v>43553</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6650,7 +6650,7 @@
         <v>43558</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6707,7 +6707,7 @@
         <v>43560</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6764,7 +6764,7 @@
         <v>43564</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6821,7 +6821,7 @@
         <v>43585</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>43587</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6935,7 +6935,7 @@
         <v>43593</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6997,7 +6997,7 @@
         <v>43594</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7054,7 +7054,7 @@
         <v>43594</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7111,7 +7111,7 @@
         <v>43595</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7168,7 +7168,7 @@
         <v>43601</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
         <v>43605</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>43608</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7349,7 +7349,7 @@
         <v>43626</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7406,7 +7406,7 @@
         <v>43628</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7463,7 +7463,7 @@
         <v>43630</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         <v>43634</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7577,7 +7577,7 @@
         <v>43647</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7634,7 +7634,7 @@
         <v>43661</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7691,7 +7691,7 @@
         <v>43679</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7748,7 +7748,7 @@
         <v>43682</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7805,7 +7805,7 @@
         <v>43683</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7862,7 +7862,7 @@
         <v>43689</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7919,7 +7919,7 @@
         <v>43692</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7976,7 +7976,7 @@
         <v>43692</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         <v>43699</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8090,7 +8090,7 @@
         <v>43705</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8147,7 +8147,7 @@
         <v>43711</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>43712</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>43712</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>43713</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>43713</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>43717</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>43721</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>43731</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>43735</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>43738</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>43748</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>43753</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8836,7 +8836,7 @@
         <v>43761</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8898,7 +8898,7 @@
         <v>43768</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8955,7 +8955,7 @@
         <v>43769</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9012,7 +9012,7 @@
         <v>43773</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9069,7 +9069,7 @@
         <v>43773</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9126,7 +9126,7 @@
         <v>43773</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9183,7 +9183,7 @@
         <v>43773</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9240,7 +9240,7 @@
         <v>43781</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9297,7 +9297,7 @@
         <v>43788</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9359,7 +9359,7 @@
         <v>43791</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9421,7 +9421,7 @@
         <v>43796</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9478,7 +9478,7 @@
         <v>43805</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9535,7 +9535,7 @@
         <v>43808</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9597,7 +9597,7 @@
         <v>43811</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9659,7 +9659,7 @@
         <v>43812</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9716,7 +9716,7 @@
         <v>43837</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9773,7 +9773,7 @@
         <v>43837</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9830,7 +9830,7 @@
         <v>43839</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9887,7 +9887,7 @@
         <v>43850</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9944,7 +9944,7 @@
         <v>43851</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10001,7 +10001,7 @@
         <v>43851</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10058,7 +10058,7 @@
         <v>43854</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10115,7 +10115,7 @@
         <v>43859</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10172,7 +10172,7 @@
         <v>43859</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10229,7 +10229,7 @@
         <v>43866</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10286,7 +10286,7 @@
         <v>43866</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10343,7 +10343,7 @@
         <v>43867</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10400,7 +10400,7 @@
         <v>43867</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
         <v>43867</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10514,7 +10514,7 @@
         <v>43867</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10571,7 +10571,7 @@
         <v>43875</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10628,7 +10628,7 @@
         <v>43892</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10685,7 +10685,7 @@
         <v>43892</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10742,7 +10742,7 @@
         <v>43899</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10799,7 +10799,7 @@
         <v>43900</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10856,7 +10856,7 @@
         <v>43907</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10913,7 +10913,7 @@
         <v>43914</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10970,7 +10970,7 @@
         <v>43928</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11027,7 +11027,7 @@
         <v>43945</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>43955</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>43958</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11203,7 +11203,7 @@
         <v>43963</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11265,7 +11265,7 @@
         <v>43964</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11327,7 +11327,7 @@
         <v>43964</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11389,7 +11389,7 @@
         <v>43964</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11451,7 +11451,7 @@
         <v>43964</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11513,7 +11513,7 @@
         <v>43970</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11575,7 +11575,7 @@
         <v>43970</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11637,7 +11637,7 @@
         <v>43970</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11699,7 +11699,7 @@
         <v>43970</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11761,7 +11761,7 @@
         <v>43970</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11823,7 +11823,7 @@
         <v>43980</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11885,7 +11885,7 @@
         <v>43987</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11942,7 +11942,7 @@
         <v>43987</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11999,7 +11999,7 @@
         <v>43987</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12056,7 +12056,7 @@
         <v>43990</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12113,7 +12113,7 @@
         <v>44015</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12170,7 +12170,7 @@
         <v>44018</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12227,7 +12227,7 @@
         <v>44018</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12284,7 +12284,7 @@
         <v>44020</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12341,7 +12341,7 @@
         <v>44020</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12398,7 +12398,7 @@
         <v>44028</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12455,7 +12455,7 @@
         <v>44029</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12517,7 +12517,7 @@
         <v>44029</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12579,7 +12579,7 @@
         <v>44029</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12641,7 +12641,7 @@
         <v>44039</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12698,7 +12698,7 @@
         <v>44049</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12755,7 +12755,7 @@
         <v>44049</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12812,7 +12812,7 @@
         <v>44049</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12869,7 +12869,7 @@
         <v>44057</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12926,7 +12926,7 @@
         <v>44064</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12983,7 +12983,7 @@
         <v>44069</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13040,7 +13040,7 @@
         <v>44074</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13102,7 +13102,7 @@
         <v>44074</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13164,7 +13164,7 @@
         <v>44074</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13226,7 +13226,7 @@
         <v>44077</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>44083</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         <v>44087</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13407,7 +13407,7 @@
         <v>44087</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13469,7 +13469,7 @@
         <v>44088</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13526,7 +13526,7 @@
         <v>44089</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13583,7 +13583,7 @@
         <v>44089</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13640,7 +13640,7 @@
         <v>44092</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13697,7 +13697,7 @@
         <v>44095</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13754,7 +13754,7 @@
         <v>44095</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13811,7 +13811,7 @@
         <v>44102</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13868,7 +13868,7 @@
         <v>44104</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13925,7 +13925,7 @@
         <v>44104</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13982,7 +13982,7 @@
         <v>44104</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14039,7 +14039,7 @@
         <v>44104</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14096,7 +14096,7 @@
         <v>44104</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14153,7 +14153,7 @@
         <v>44109</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14210,7 +14210,7 @@
         <v>44116</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14267,7 +14267,7 @@
         <v>44120</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14324,7 +14324,7 @@
         <v>44124</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14381,7 +14381,7 @@
         <v>44124</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14438,7 +14438,7 @@
         <v>44126</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14495,7 +14495,7 @@
         <v>44130</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14552,7 +14552,7 @@
         <v>44130</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14609,7 +14609,7 @@
         <v>44130</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>44138</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14723,7 +14723,7 @@
         <v>44141</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14780,7 +14780,7 @@
         <v>44144</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14842,7 +14842,7 @@
         <v>44168</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14899,7 +14899,7 @@
         <v>44168</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14956,7 +14956,7 @@
         <v>44168</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15013,7 +15013,7 @@
         <v>44168</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15070,7 +15070,7 @@
         <v>44179</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15127,7 +15127,7 @@
         <v>44181</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15184,7 +15184,7 @@
         <v>44183</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15246,7 +15246,7 @@
         <v>44186</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15303,7 +15303,7 @@
         <v>44187</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15360,7 +15360,7 @@
         <v>44200</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15417,7 +15417,7 @@
         <v>44203</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15474,7 +15474,7 @@
         <v>44211</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15531,7 +15531,7 @@
         <v>44211</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15593,7 +15593,7 @@
         <v>44257</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15650,7 +15650,7 @@
         <v>44257</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15707,7 +15707,7 @@
         <v>44260</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15764,7 +15764,7 @@
         <v>44263</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15821,7 +15821,7 @@
         <v>44267</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15883,7 +15883,7 @@
         <v>44270</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15965,7 +15965,7 @@
         <v>44292</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16022,7 +16022,7 @@
         <v>44295</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16079,7 +16079,7 @@
         <v>44298</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16136,7 +16136,7 @@
         <v>44305</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16198,7 +16198,7 @@
         <v>44305</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16260,7 +16260,7 @@
         <v>44305</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16322,7 +16322,7 @@
         <v>44316</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16379,7 +16379,7 @@
         <v>44340</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16441,7 +16441,7 @@
         <v>44343</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16498,7 +16498,7 @@
         <v>44344</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16555,7 +16555,7 @@
         <v>44347</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16612,7 +16612,7 @@
         <v>44347</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16669,7 +16669,7 @@
         <v>44347</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16726,7 +16726,7 @@
         <v>44347</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16783,7 +16783,7 @@
         <v>44362</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16845,7 +16845,7 @@
         <v>44371</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16902,7 +16902,7 @@
         <v>44382</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16959,7 +16959,7 @@
         <v>44386</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17016,7 +17016,7 @@
         <v>44392</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17078,7 +17078,7 @@
         <v>44413</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17135,7 +17135,7 @@
         <v>44428</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17197,7 +17197,7 @@
         <v>44438</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17254,7 +17254,7 @@
         <v>44438</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17311,7 +17311,7 @@
         <v>44439</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17368,7 +17368,7 @@
         <v>44447</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17430,7 +17430,7 @@
         <v>44447</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17492,7 +17492,7 @@
         <v>44454</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17549,7 +17549,7 @@
         <v>44461</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17606,7 +17606,7 @@
         <v>44461</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17663,7 +17663,7 @@
         <v>44468</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17725,7 +17725,7 @@
         <v>44469</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17782,7 +17782,7 @@
         <v>44474</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17839,7 +17839,7 @@
         <v>44476</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17901,7 +17901,7 @@
         <v>44477</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17958,7 +17958,7 @@
         <v>44480</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18040,7 +18040,7 @@
         <v>44490</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18097,7 +18097,7 @@
         <v>44490</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18154,7 +18154,7 @@
         <v>44491</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18216,7 +18216,7 @@
         <v>44491</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18278,7 +18278,7 @@
         <v>44501</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18335,7 +18335,7 @@
         <v>44502</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18392,7 +18392,7 @@
         <v>44502</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18449,7 +18449,7 @@
         <v>44503</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18511,7 +18511,7 @@
         <v>44510</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         <v>44515</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18625,7 +18625,7 @@
         <v>44516</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18682,7 +18682,7 @@
         <v>44530</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         <v>44531</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18796,7 +18796,7 @@
         <v>44538</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18853,7 +18853,7 @@
         <v>44540</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18910,7 +18910,7 @@
         <v>44566</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18967,7 +18967,7 @@
         <v>44572</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19024,7 +19024,7 @@
         <v>44582</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19081,7 +19081,7 @@
         <v>44585</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19138,7 +19138,7 @@
         <v>44592</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19195,7 +19195,7 @@
         <v>44593</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19257,7 +19257,7 @@
         <v>44600</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19314,7 +19314,7 @@
         <v>44602</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19371,7 +19371,7 @@
         <v>44620</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19428,7 +19428,7 @@
         <v>44621</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19485,7 +19485,7 @@
         <v>44624</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19542,7 +19542,7 @@
         <v>44634</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19599,7 +19599,7 @@
         <v>44635</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19656,7 +19656,7 @@
         <v>44650</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19713,7 +19713,7 @@
         <v>44651</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19770,7 +19770,7 @@
         <v>44651</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19827,7 +19827,7 @@
         <v>44655</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19884,7 +19884,7 @@
         <v>44670</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19941,7 +19941,7 @@
         <v>44693</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19998,7 +19998,7 @@
         <v>44698</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20055,7 +20055,7 @@
         <v>44713</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20117,7 +20117,7 @@
         <v>44728</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         <v>44728</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20241,7 +20241,7 @@
         <v>44743</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20298,7 +20298,7 @@
         <v>44743</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20355,7 +20355,7 @@
         <v>44749</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20412,7 +20412,7 @@
         <v>44789</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20474,7 +20474,7 @@
         <v>44789</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20536,7 +20536,7 @@
         <v>44798</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20593,7 +20593,7 @@
         <v>44816</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20650,7 +20650,7 @@
         <v>44816</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20707,7 +20707,7 @@
         <v>44816</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20764,7 +20764,7 @@
         <v>44820</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20821,7 +20821,7 @@
         <v>44827</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20883,7 +20883,7 @@
         <v>44827</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20945,7 +20945,7 @@
         <v>44858</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21007,7 +21007,7 @@
         <v>44866</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21069,7 +21069,7 @@
         <v>44868</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21131,7 +21131,7 @@
         <v>44872</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21188,7 +21188,7 @@
         <v>44872</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21250,7 +21250,7 @@
         <v>44874</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21307,7 +21307,7 @@
         <v>44874</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21364,7 +21364,7 @@
         <v>44879</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21421,7 +21421,7 @@
         <v>44879</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21478,7 +21478,7 @@
         <v>44903</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21535,7 +21535,7 @@
         <v>44916</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21592,7 +21592,7 @@
         <v>44944</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21649,7 +21649,7 @@
         <v>44953</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21706,7 +21706,7 @@
         <v>44953</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21763,7 +21763,7 @@
         <v>44953</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21820,7 +21820,7 @@
         <v>44971</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21882,7 +21882,7 @@
         <v>44985</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21944,7 +21944,7 @@
         <v>44985</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22006,7 +22006,7 @@
         <v>44986</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22063,7 +22063,7 @@
         <v>44987</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22120,7 +22120,7 @@
         <v>44987</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22177,7 +22177,7 @@
         <v>44994</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22234,7 +22234,7 @@
         <v>44994</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22291,7 +22291,7 @@
         <v>45016</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22353,7 +22353,7 @@
         <v>45022</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22415,7 +22415,7 @@
         <v>45048</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22472,7 +22472,7 @@
         <v>45048</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22529,7 +22529,7 @@
         <v>45070</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22591,7 +22591,7 @@
         <v>45077</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22648,7 +22648,7 @@
         <v>45077</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22705,7 +22705,7 @@
         <v>45077</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22762,7 +22762,7 @@
         <v>45077</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22819,7 +22819,7 @@
         <v>45077</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22876,7 +22876,7 @@
         <v>45077</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22933,7 +22933,7 @@
         <v>45077</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22990,7 +22990,7 @@
         <v>45085</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23047,7 +23047,7 @@
         <v>45090</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23109,7 +23109,7 @@
         <v>45090</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23171,7 +23171,7 @@
         <v>45093</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23233,7 +23233,7 @@
         <v>45096</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23290,7 +23290,7 @@
         <v>45096</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23347,7 +23347,7 @@
         <v>45099</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23404,7 +23404,7 @@
         <v>45104</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23461,7 +23461,7 @@
         <v>45104</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23518,7 +23518,7 @@
         <v>45105</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23575,7 +23575,7 @@
         <v>45105</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23632,7 +23632,7 @@
         <v>45110</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23689,7 +23689,7 @@
         <v>45110</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23746,7 +23746,7 @@
         <v>45110</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23803,7 +23803,7 @@
         <v>45117</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23865,7 +23865,7 @@
         <v>45118</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23927,7 +23927,7 @@
         <v>45119</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23989,7 +23989,7 @@
         <v>45119</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24051,7 +24051,7 @@
         <v>45119</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24113,7 +24113,7 @@
         <v>45119</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24170,7 +24170,7 @@
         <v>45138</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24227,7 +24227,7 @@
         <v>45138</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24284,7 +24284,7 @@
         <v>45145</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24341,7 +24341,7 @@
         <v>45149</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24398,7 +24398,7 @@
         <v>45159</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24455,7 +24455,7 @@
         <v>45159</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24512,7 +24512,7 @@
         <v>45161</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24569,7 +24569,7 @@
         <v>45169</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24626,7 +24626,7 @@
         <v>45170</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24683,7 +24683,7 @@
         <v>45170</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24730,7 +24730,7 @@
       </c>
       <c r="R407" s="2" t="inlineStr"/>
     </row>
-    <row r="408">
+    <row r="408" ht="15" customHeight="1">
       <c r="A408" t="inlineStr">
         <is>
           <t>A 43455-2023</t>
@@ -24740,7 +24740,7 @@
         <v>45184</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24786,6 +24786,63 @@
         <v>0</v>
       </c>
       <c r="R408" s="2" t="inlineStr"/>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>A 43904-2023</t>
+        </is>
+      </c>
+      <c r="B409" s="1" t="n">
+        <v>45187</v>
+      </c>
+      <c r="C409" s="1" t="n">
+        <v>45189</v>
+      </c>
+      <c r="D409" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E409" t="inlineStr">
+        <is>
+          <t>YDRE</t>
+        </is>
+      </c>
+      <c r="G409" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H409" t="n">
+        <v>0</v>
+      </c>
+      <c r="I409" t="n">
+        <v>0</v>
+      </c>
+      <c r="J409" t="n">
+        <v>0</v>
+      </c>
+      <c r="K409" t="n">
+        <v>0</v>
+      </c>
+      <c r="L409" t="n">
+        <v>0</v>
+      </c>
+      <c r="M409" t="n">
+        <v>0</v>
+      </c>
+      <c r="N409" t="n">
+        <v>0</v>
+      </c>
+      <c r="O409" t="n">
+        <v>0</v>
+      </c>
+      <c r="P409" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q409" t="n">
+        <v>0</v>
+      </c>
+      <c r="R409" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt YDRE.xlsx
+++ b/Översikt YDRE.xlsx
@@ -572,7 +572,7 @@
         <v>44257</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>43409</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>43517</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>45070</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         <v>43405</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1013,7 +1013,7 @@
         <v>44732</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>45138</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         <v>43524</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1275,7 +1275,7 @@
         <v>43665</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>43910</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1449,7 +1449,7 @@
         <v>44087</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
         <v>44187</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1624,7 +1624,7 @@
         <v>44358</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1709,7 +1709,7 @@
         <v>44468</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
         <v>44468</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1889,7 +1889,7 @@
         <v>44831</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1979,7 +1979,7 @@
         <v>44874</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>45090</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2154,7 +2154,7 @@
         <v>43336</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2211,7 +2211,7 @@
         <v>43339</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
         <v>43354</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2325,7 +2325,7 @@
         <v>43355</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2382,7 +2382,7 @@
         <v>43355</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2439,7 +2439,7 @@
         <v>43356</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2496,7 +2496,7 @@
         <v>43362</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2553,7 +2553,7 @@
         <v>43375</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
         <v>43375</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2667,7 +2667,7 @@
         <v>43381</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2724,7 +2724,7 @@
         <v>43385</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         <v>43385</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2838,7 +2838,7 @@
         <v>43389</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2895,7 +2895,7 @@
         <v>43390</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2952,7 +2952,7 @@
         <v>43390</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3009,7 +3009,7 @@
         <v>43392</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3066,7 +3066,7 @@
         <v>43399</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3123,7 +3123,7 @@
         <v>43403</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         <v>43403</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3237,7 +3237,7 @@
         <v>43411</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3294,7 +3294,7 @@
         <v>43411</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3351,7 +3351,7 @@
         <v>43411</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3408,7 +3408,7 @@
         <v>43412</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3465,7 +3465,7 @@
         <v>43416</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3522,7 +3522,7 @@
         <v>43423</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3584,7 +3584,7 @@
         <v>43424</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3641,7 +3641,7 @@
         <v>43425</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3698,7 +3698,7 @@
         <v>43425</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3755,7 +3755,7 @@
         <v>43433</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3812,7 +3812,7 @@
         <v>43433</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3869,7 +3869,7 @@
         <v>43433</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3926,7 +3926,7 @@
         <v>43434</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3983,7 +3983,7 @@
         <v>43439</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>43439</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>43440</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>43445</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         <v>43445</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>43451</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>43451</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>43452</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4449,7 +4449,7 @@
         <v>43455</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>43455</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         <v>43468</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>43468</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
         <v>43475</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>43475</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>43479</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
         <v>43479</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4910,7 +4910,7 @@
         <v>43480</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4972,7 +4972,7 @@
         <v>43486</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5029,7 +5029,7 @@
         <v>43487</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>43489</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>43494</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>43494</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         <v>43495</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
         <v>43496</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         <v>43496</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         <v>43502</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>43503</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5557,7 +5557,7 @@
         <v>43509</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5614,7 +5614,7 @@
         <v>43514</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5671,7 +5671,7 @@
         <v>43514</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5728,7 +5728,7 @@
         <v>43517</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
         <v>43521</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5842,7 +5842,7 @@
         <v>43521</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5899,7 +5899,7 @@
         <v>43524</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5956,7 +5956,7 @@
         <v>43524</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6013,7 +6013,7 @@
         <v>43524</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6070,7 +6070,7 @@
         <v>43524</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
         <v>43524</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>43524</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
         <v>43528</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6298,7 +6298,7 @@
         <v>43528</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6360,7 +6360,7 @@
         <v>43532</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6417,7 +6417,7 @@
         <v>43544</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6474,7 +6474,7 @@
         <v>43546</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6536,7 +6536,7 @@
         <v>43553</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6593,7 +6593,7 @@
         <v>43553</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6650,7 +6650,7 @@
         <v>43558</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6707,7 +6707,7 @@
         <v>43560</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6764,7 +6764,7 @@
         <v>43564</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6821,7 +6821,7 @@
         <v>43585</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>43587</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6935,7 +6935,7 @@
         <v>43593</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6997,7 +6997,7 @@
         <v>43594</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7054,7 +7054,7 @@
         <v>43594</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7111,7 +7111,7 @@
         <v>43595</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7168,7 +7168,7 @@
         <v>43601</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
         <v>43605</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>43608</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7349,7 +7349,7 @@
         <v>43626</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7406,7 +7406,7 @@
         <v>43628</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7463,7 +7463,7 @@
         <v>43630</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         <v>43634</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7577,7 +7577,7 @@
         <v>43647</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7634,7 +7634,7 @@
         <v>43661</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7691,7 +7691,7 @@
         <v>43679</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7748,7 +7748,7 @@
         <v>43682</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7805,7 +7805,7 @@
         <v>43683</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7862,7 +7862,7 @@
         <v>43689</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7919,7 +7919,7 @@
         <v>43692</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7976,7 +7976,7 @@
         <v>43692</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         <v>43699</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8090,7 +8090,7 @@
         <v>43705</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8147,7 +8147,7 @@
         <v>43711</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>43712</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>43712</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>43713</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>43713</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>43717</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>43721</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>43731</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>43735</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>43738</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>43748</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>43753</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8836,7 +8836,7 @@
         <v>43761</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8898,7 +8898,7 @@
         <v>43768</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8955,7 +8955,7 @@
         <v>43769</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9012,7 +9012,7 @@
         <v>43773</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9069,7 +9069,7 @@
         <v>43773</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9126,7 +9126,7 @@
         <v>43773</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9183,7 +9183,7 @@
         <v>43773</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9240,7 +9240,7 @@
         <v>43781</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9297,7 +9297,7 @@
         <v>43788</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9359,7 +9359,7 @@
         <v>43791</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9421,7 +9421,7 @@
         <v>43796</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9478,7 +9478,7 @@
         <v>43805</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9535,7 +9535,7 @@
         <v>43808</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9597,7 +9597,7 @@
         <v>43811</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9659,7 +9659,7 @@
         <v>43812</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9716,7 +9716,7 @@
         <v>43837</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9773,7 +9773,7 @@
         <v>43837</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9830,7 +9830,7 @@
         <v>43839</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9887,7 +9887,7 @@
         <v>43850</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9944,7 +9944,7 @@
         <v>43851</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10001,7 +10001,7 @@
         <v>43851</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10058,7 +10058,7 @@
         <v>43854</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10115,7 +10115,7 @@
         <v>43859</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10172,7 +10172,7 @@
         <v>43859</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10229,7 +10229,7 @@
         <v>43866</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10286,7 +10286,7 @@
         <v>43866</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10343,7 +10343,7 @@
         <v>43867</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10400,7 +10400,7 @@
         <v>43867</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
         <v>43867</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10514,7 +10514,7 @@
         <v>43867</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10571,7 +10571,7 @@
         <v>43875</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10628,7 +10628,7 @@
         <v>43892</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10685,7 +10685,7 @@
         <v>43892</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10742,7 +10742,7 @@
         <v>43899</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10799,7 +10799,7 @@
         <v>43900</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10856,7 +10856,7 @@
         <v>43907</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10913,7 +10913,7 @@
         <v>43914</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10970,7 +10970,7 @@
         <v>43928</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11027,7 +11027,7 @@
         <v>43945</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>43955</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>43958</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11203,7 +11203,7 @@
         <v>43963</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11265,7 +11265,7 @@
         <v>43964</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11327,7 +11327,7 @@
         <v>43964</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11389,7 +11389,7 @@
         <v>43964</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11451,7 +11451,7 @@
         <v>43964</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11513,7 +11513,7 @@
         <v>43970</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11575,7 +11575,7 @@
         <v>43970</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11637,7 +11637,7 @@
         <v>43970</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11699,7 +11699,7 @@
         <v>43970</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11761,7 +11761,7 @@
         <v>43970</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11823,7 +11823,7 @@
         <v>43980</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11885,7 +11885,7 @@
         <v>43987</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11942,7 +11942,7 @@
         <v>43987</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11999,7 +11999,7 @@
         <v>43987</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12056,7 +12056,7 @@
         <v>43990</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12113,7 +12113,7 @@
         <v>44015</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12170,7 +12170,7 @@
         <v>44018</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12227,7 +12227,7 @@
         <v>44018</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12284,7 +12284,7 @@
         <v>44020</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12341,7 +12341,7 @@
         <v>44020</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12398,7 +12398,7 @@
         <v>44028</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12455,7 +12455,7 @@
         <v>44029</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12517,7 +12517,7 @@
         <v>44029</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12579,7 +12579,7 @@
         <v>44029</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12641,7 +12641,7 @@
         <v>44039</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12698,7 +12698,7 @@
         <v>44049</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12755,7 +12755,7 @@
         <v>44049</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12812,7 +12812,7 @@
         <v>44049</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12869,7 +12869,7 @@
         <v>44057</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12926,7 +12926,7 @@
         <v>44064</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12983,7 +12983,7 @@
         <v>44069</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13040,7 +13040,7 @@
         <v>44074</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13102,7 +13102,7 @@
         <v>44074</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13164,7 +13164,7 @@
         <v>44074</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13226,7 +13226,7 @@
         <v>44077</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>44083</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         <v>44087</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13407,7 +13407,7 @@
         <v>44087</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13469,7 +13469,7 @@
         <v>44088</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13526,7 +13526,7 @@
         <v>44089</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13583,7 +13583,7 @@
         <v>44089</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13640,7 +13640,7 @@
         <v>44092</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13697,7 +13697,7 @@
         <v>44095</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13754,7 +13754,7 @@
         <v>44095</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13811,7 +13811,7 @@
         <v>44102</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13868,7 +13868,7 @@
         <v>44104</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13925,7 +13925,7 @@
         <v>44104</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13982,7 +13982,7 @@
         <v>44104</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14039,7 +14039,7 @@
         <v>44104</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14096,7 +14096,7 @@
         <v>44104</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14153,7 +14153,7 @@
         <v>44109</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14210,7 +14210,7 @@
         <v>44116</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14267,7 +14267,7 @@
         <v>44120</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14324,7 +14324,7 @@
         <v>44124</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14381,7 +14381,7 @@
         <v>44124</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14438,7 +14438,7 @@
         <v>44126</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14495,7 +14495,7 @@
         <v>44130</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14552,7 +14552,7 @@
         <v>44130</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14609,7 +14609,7 @@
         <v>44130</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>44138</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14723,7 +14723,7 @@
         <v>44141</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14780,7 +14780,7 @@
         <v>44144</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14842,7 +14842,7 @@
         <v>44168</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14899,7 +14899,7 @@
         <v>44168</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14956,7 +14956,7 @@
         <v>44168</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15013,7 +15013,7 @@
         <v>44168</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15070,7 +15070,7 @@
         <v>44179</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15127,7 +15127,7 @@
         <v>44181</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15184,7 +15184,7 @@
         <v>44183</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15246,7 +15246,7 @@
         <v>44186</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15303,7 +15303,7 @@
         <v>44187</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15360,7 +15360,7 @@
         <v>44200</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15417,7 +15417,7 @@
         <v>44203</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15474,7 +15474,7 @@
         <v>44211</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15531,7 +15531,7 @@
         <v>44211</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15593,7 +15593,7 @@
         <v>44257</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15650,7 +15650,7 @@
         <v>44257</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15707,7 +15707,7 @@
         <v>44260</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15764,7 +15764,7 @@
         <v>44263</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15821,7 +15821,7 @@
         <v>44267</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15883,7 +15883,7 @@
         <v>44270</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15965,7 +15965,7 @@
         <v>44292</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16022,7 +16022,7 @@
         <v>44295</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16079,7 +16079,7 @@
         <v>44298</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16136,7 +16136,7 @@
         <v>44305</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16198,7 +16198,7 @@
         <v>44305</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16260,7 +16260,7 @@
         <v>44305</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16322,7 +16322,7 @@
         <v>44316</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16379,7 +16379,7 @@
         <v>44340</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16441,7 +16441,7 @@
         <v>44343</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16498,7 +16498,7 @@
         <v>44344</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16555,7 +16555,7 @@
         <v>44347</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16612,7 +16612,7 @@
         <v>44347</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16669,7 +16669,7 @@
         <v>44347</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16726,7 +16726,7 @@
         <v>44347</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16783,7 +16783,7 @@
         <v>44362</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16845,7 +16845,7 @@
         <v>44371</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16902,7 +16902,7 @@
         <v>44382</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16959,7 +16959,7 @@
         <v>44386</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17016,7 +17016,7 @@
         <v>44392</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17078,7 +17078,7 @@
         <v>44413</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17135,7 +17135,7 @@
         <v>44428</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17197,7 +17197,7 @@
         <v>44438</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17254,7 +17254,7 @@
         <v>44438</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17311,7 +17311,7 @@
         <v>44439</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17368,7 +17368,7 @@
         <v>44447</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17430,7 +17430,7 @@
         <v>44447</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17492,7 +17492,7 @@
         <v>44454</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17549,7 +17549,7 @@
         <v>44461</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17606,7 +17606,7 @@
         <v>44461</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17663,7 +17663,7 @@
         <v>44468</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17725,7 +17725,7 @@
         <v>44469</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17782,7 +17782,7 @@
         <v>44474</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17839,7 +17839,7 @@
         <v>44476</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17901,7 +17901,7 @@
         <v>44477</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17958,7 +17958,7 @@
         <v>44480</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18040,7 +18040,7 @@
         <v>44490</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18097,7 +18097,7 @@
         <v>44490</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18154,7 +18154,7 @@
         <v>44491</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18216,7 +18216,7 @@
         <v>44491</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18278,7 +18278,7 @@
         <v>44501</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18335,7 +18335,7 @@
         <v>44502</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18392,7 +18392,7 @@
         <v>44502</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18449,7 +18449,7 @@
         <v>44503</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18511,7 +18511,7 @@
         <v>44510</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         <v>44515</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18625,7 +18625,7 @@
         <v>44516</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18682,7 +18682,7 @@
         <v>44530</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         <v>44531</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18796,7 +18796,7 @@
         <v>44538</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18853,7 +18853,7 @@
         <v>44540</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18910,7 +18910,7 @@
         <v>44566</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18967,7 +18967,7 @@
         <v>44572</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19024,7 +19024,7 @@
         <v>44582</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19081,7 +19081,7 @@
         <v>44585</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19138,7 +19138,7 @@
         <v>44592</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19195,7 +19195,7 @@
         <v>44593</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19257,7 +19257,7 @@
         <v>44600</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19314,7 +19314,7 @@
         <v>44602</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19371,7 +19371,7 @@
         <v>44620</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19428,7 +19428,7 @@
         <v>44621</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19485,7 +19485,7 @@
         <v>44624</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19542,7 +19542,7 @@
         <v>44634</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19599,7 +19599,7 @@
         <v>44635</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19656,7 +19656,7 @@
         <v>44650</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19713,7 +19713,7 @@
         <v>44651</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19770,7 +19770,7 @@
         <v>44651</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19827,7 +19827,7 @@
         <v>44655</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19884,7 +19884,7 @@
         <v>44670</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19941,7 +19941,7 @@
         <v>44693</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19998,7 +19998,7 @@
         <v>44698</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20055,7 +20055,7 @@
         <v>44713</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20117,7 +20117,7 @@
         <v>44728</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         <v>44728</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20241,7 +20241,7 @@
         <v>44743</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20298,7 +20298,7 @@
         <v>44743</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20355,7 +20355,7 @@
         <v>44749</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20412,7 +20412,7 @@
         <v>44789</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20474,7 +20474,7 @@
         <v>44789</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20536,7 +20536,7 @@
         <v>44798</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20593,7 +20593,7 @@
         <v>44816</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20650,7 +20650,7 @@
         <v>44816</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20707,7 +20707,7 @@
         <v>44816</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20764,7 +20764,7 @@
         <v>44820</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20821,7 +20821,7 @@
         <v>44827</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20883,7 +20883,7 @@
         <v>44827</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20945,7 +20945,7 @@
         <v>44858</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21007,7 +21007,7 @@
         <v>44866</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21069,7 +21069,7 @@
         <v>44868</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21131,7 +21131,7 @@
         <v>44872</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21188,7 +21188,7 @@
         <v>44872</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21250,7 +21250,7 @@
         <v>44874</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21307,7 +21307,7 @@
         <v>44874</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21364,7 +21364,7 @@
         <v>44879</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21421,7 +21421,7 @@
         <v>44879</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21478,7 +21478,7 @@
         <v>44903</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21535,7 +21535,7 @@
         <v>44916</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21592,7 +21592,7 @@
         <v>44944</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21649,7 +21649,7 @@
         <v>44953</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21706,7 +21706,7 @@
         <v>44953</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21763,7 +21763,7 @@
         <v>44953</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21820,7 +21820,7 @@
         <v>44971</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21882,7 +21882,7 @@
         <v>44985</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21944,7 +21944,7 @@
         <v>44985</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22006,7 +22006,7 @@
         <v>44986</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22063,7 +22063,7 @@
         <v>44987</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22120,7 +22120,7 @@
         <v>44987</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22177,7 +22177,7 @@
         <v>44994</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22234,7 +22234,7 @@
         <v>44994</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22291,7 +22291,7 @@
         <v>45016</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22353,7 +22353,7 @@
         <v>45022</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22415,7 +22415,7 @@
         <v>45048</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22472,7 +22472,7 @@
         <v>45048</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22529,7 +22529,7 @@
         <v>45070</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22591,7 +22591,7 @@
         <v>45077</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22648,7 +22648,7 @@
         <v>45077</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22705,7 +22705,7 @@
         <v>45077</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22762,7 +22762,7 @@
         <v>45077</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22819,7 +22819,7 @@
         <v>45077</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22876,7 +22876,7 @@
         <v>45077</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22933,7 +22933,7 @@
         <v>45077</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22990,7 +22990,7 @@
         <v>45085</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23047,7 +23047,7 @@
         <v>45090</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23109,7 +23109,7 @@
         <v>45090</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23171,7 +23171,7 @@
         <v>45093</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23233,7 +23233,7 @@
         <v>45096</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23290,7 +23290,7 @@
         <v>45096</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23347,7 +23347,7 @@
         <v>45099</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23404,7 +23404,7 @@
         <v>45104</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23461,7 +23461,7 @@
         <v>45104</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23518,7 +23518,7 @@
         <v>45105</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23575,7 +23575,7 @@
         <v>45105</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23632,7 +23632,7 @@
         <v>45110</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23689,7 +23689,7 @@
         <v>45110</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23746,7 +23746,7 @@
         <v>45110</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23803,7 +23803,7 @@
         <v>45117</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23865,7 +23865,7 @@
         <v>45118</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23927,7 +23927,7 @@
         <v>45119</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23989,7 +23989,7 @@
         <v>45119</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24051,7 +24051,7 @@
         <v>45119</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24113,7 +24113,7 @@
         <v>45119</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24170,7 +24170,7 @@
         <v>45138</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24227,7 +24227,7 @@
         <v>45138</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24284,7 +24284,7 @@
         <v>45145</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24341,7 +24341,7 @@
         <v>45149</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24398,7 +24398,7 @@
         <v>45159</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24455,7 +24455,7 @@
         <v>45159</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24512,7 +24512,7 @@
         <v>45161</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24569,7 +24569,7 @@
         <v>45169</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24626,7 +24626,7 @@
         <v>45170</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24683,7 +24683,7 @@
         <v>45170</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24740,7 +24740,7 @@
         <v>45184</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24797,7 +24797,7 @@
         <v>45187</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>

--- a/Översikt YDRE.xlsx
+++ b/Översikt YDRE.xlsx
@@ -572,7 +572,7 @@
         <v>44257</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>43409</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>43517</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>45070</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         <v>43405</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1013,7 +1013,7 @@
         <v>44732</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>45138</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         <v>43524</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1275,7 +1275,7 @@
         <v>43665</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>43910</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1449,7 +1449,7 @@
         <v>44087</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
         <v>44187</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1624,7 +1624,7 @@
         <v>44358</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1709,7 +1709,7 @@
         <v>44468</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
         <v>44468</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1889,7 +1889,7 @@
         <v>44831</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1979,7 +1979,7 @@
         <v>44874</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>45090</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2154,7 +2154,7 @@
         <v>43336</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2211,7 +2211,7 @@
         <v>43339</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
         <v>43354</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2325,7 +2325,7 @@
         <v>43355</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2382,7 +2382,7 @@
         <v>43355</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2439,7 +2439,7 @@
         <v>43356</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2496,7 +2496,7 @@
         <v>43362</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2553,7 +2553,7 @@
         <v>43375</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
         <v>43375</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2667,7 +2667,7 @@
         <v>43381</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2724,7 +2724,7 @@
         <v>43385</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         <v>43385</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2838,7 +2838,7 @@
         <v>43389</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2895,7 +2895,7 @@
         <v>43390</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2952,7 +2952,7 @@
         <v>43390</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3009,7 +3009,7 @@
         <v>43392</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3066,7 +3066,7 @@
         <v>43399</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3123,7 +3123,7 @@
         <v>43403</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         <v>43403</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3237,7 +3237,7 @@
         <v>43411</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3294,7 +3294,7 @@
         <v>43411</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3351,7 +3351,7 @@
         <v>43411</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3408,7 +3408,7 @@
         <v>43412</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3465,7 +3465,7 @@
         <v>43416</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3522,7 +3522,7 @@
         <v>43423</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3584,7 +3584,7 @@
         <v>43424</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3641,7 +3641,7 @@
         <v>43425</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3698,7 +3698,7 @@
         <v>43425</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3755,7 +3755,7 @@
         <v>43433</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3812,7 +3812,7 @@
         <v>43433</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3869,7 +3869,7 @@
         <v>43433</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3926,7 +3926,7 @@
         <v>43434</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3983,7 +3983,7 @@
         <v>43439</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>43439</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>43440</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>43445</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         <v>43445</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>43451</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>43451</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>43452</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4449,7 +4449,7 @@
         <v>43455</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>43455</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         <v>43468</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>43468</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
         <v>43475</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>43475</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>43479</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
         <v>43479</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4910,7 +4910,7 @@
         <v>43480</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4972,7 +4972,7 @@
         <v>43486</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5029,7 +5029,7 @@
         <v>43487</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>43489</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>43494</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>43494</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         <v>43495</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
         <v>43496</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         <v>43496</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         <v>43502</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>43503</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5557,7 +5557,7 @@
         <v>43509</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5614,7 +5614,7 @@
         <v>43514</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5671,7 +5671,7 @@
         <v>43514</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5728,7 +5728,7 @@
         <v>43517</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
         <v>43521</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5842,7 +5842,7 @@
         <v>43521</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5899,7 +5899,7 @@
         <v>43524</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5956,7 +5956,7 @@
         <v>43524</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6013,7 +6013,7 @@
         <v>43524</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6070,7 +6070,7 @@
         <v>43524</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
         <v>43524</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>43524</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
         <v>43528</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6298,7 +6298,7 @@
         <v>43528</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6360,7 +6360,7 @@
         <v>43532</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6417,7 +6417,7 @@
         <v>43544</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6474,7 +6474,7 @@
         <v>43546</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6536,7 +6536,7 @@
         <v>43553</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6593,7 +6593,7 @@
         <v>43553</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6650,7 +6650,7 @@
         <v>43558</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6707,7 +6707,7 @@
         <v>43560</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6764,7 +6764,7 @@
         <v>43564</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6821,7 +6821,7 @@
         <v>43585</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>43587</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6935,7 +6935,7 @@
         <v>43593</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6997,7 +6997,7 @@
         <v>43594</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7054,7 +7054,7 @@
         <v>43594</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7111,7 +7111,7 @@
         <v>43595</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7168,7 +7168,7 @@
         <v>43601</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
         <v>43605</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>43608</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7349,7 +7349,7 @@
         <v>43626</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7406,7 +7406,7 @@
         <v>43628</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7463,7 +7463,7 @@
         <v>43630</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         <v>43634</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7577,7 +7577,7 @@
         <v>43647</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7634,7 +7634,7 @@
         <v>43661</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7691,7 +7691,7 @@
         <v>43679</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7748,7 +7748,7 @@
         <v>43682</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7805,7 +7805,7 @@
         <v>43683</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7862,7 +7862,7 @@
         <v>43689</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7919,7 +7919,7 @@
         <v>43692</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7976,7 +7976,7 @@
         <v>43692</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         <v>43699</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8090,7 +8090,7 @@
         <v>43705</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8147,7 +8147,7 @@
         <v>43711</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>43712</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>43712</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>43713</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>43713</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>43717</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>43721</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>43731</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>43735</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>43738</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>43748</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>43753</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8836,7 +8836,7 @@
         <v>43761</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8898,7 +8898,7 @@
         <v>43768</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8955,7 +8955,7 @@
         <v>43769</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9012,7 +9012,7 @@
         <v>43773</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9069,7 +9069,7 @@
         <v>43773</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9126,7 +9126,7 @@
         <v>43773</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9183,7 +9183,7 @@
         <v>43773</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9240,7 +9240,7 @@
         <v>43781</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9297,7 +9297,7 @@
         <v>43788</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9359,7 +9359,7 @@
         <v>43791</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9421,7 +9421,7 @@
         <v>43796</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9478,7 +9478,7 @@
         <v>43805</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9535,7 +9535,7 @@
         <v>43808</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9597,7 +9597,7 @@
         <v>43811</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9659,7 +9659,7 @@
         <v>43812</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9716,7 +9716,7 @@
         <v>43837</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9773,7 +9773,7 @@
         <v>43837</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9830,7 +9830,7 @@
         <v>43839</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9887,7 +9887,7 @@
         <v>43850</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9944,7 +9944,7 @@
         <v>43851</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10001,7 +10001,7 @@
         <v>43851</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10058,7 +10058,7 @@
         <v>43854</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10115,7 +10115,7 @@
         <v>43859</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10172,7 +10172,7 @@
         <v>43859</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10229,7 +10229,7 @@
         <v>43866</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10286,7 +10286,7 @@
         <v>43866</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10343,7 +10343,7 @@
         <v>43867</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10400,7 +10400,7 @@
         <v>43867</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
         <v>43867</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10514,7 +10514,7 @@
         <v>43867</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10571,7 +10571,7 @@
         <v>43875</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10628,7 +10628,7 @@
         <v>43892</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10685,7 +10685,7 @@
         <v>43892</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10742,7 +10742,7 @@
         <v>43899</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10799,7 +10799,7 @@
         <v>43900</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10856,7 +10856,7 @@
         <v>43907</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10913,7 +10913,7 @@
         <v>43914</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10970,7 +10970,7 @@
         <v>43928</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11027,7 +11027,7 @@
         <v>43945</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>43955</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>43958</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11203,7 +11203,7 @@
         <v>43963</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11265,7 +11265,7 @@
         <v>43964</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11327,7 +11327,7 @@
         <v>43964</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11389,7 +11389,7 @@
         <v>43964</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11451,7 +11451,7 @@
         <v>43964</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11513,7 +11513,7 @@
         <v>43970</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11575,7 +11575,7 @@
         <v>43970</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11637,7 +11637,7 @@
         <v>43970</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11699,7 +11699,7 @@
         <v>43970</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11761,7 +11761,7 @@
         <v>43970</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11823,7 +11823,7 @@
         <v>43980</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11885,7 +11885,7 @@
         <v>43987</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11942,7 +11942,7 @@
         <v>43987</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11999,7 +11999,7 @@
         <v>43987</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12056,7 +12056,7 @@
         <v>43990</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12113,7 +12113,7 @@
         <v>44015</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12170,7 +12170,7 @@
         <v>44018</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12227,7 +12227,7 @@
         <v>44018</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12284,7 +12284,7 @@
         <v>44020</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12341,7 +12341,7 @@
         <v>44020</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12398,7 +12398,7 @@
         <v>44028</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12455,7 +12455,7 @@
         <v>44029</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12517,7 +12517,7 @@
         <v>44029</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12579,7 +12579,7 @@
         <v>44029</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12641,7 +12641,7 @@
         <v>44039</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12698,7 +12698,7 @@
         <v>44049</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12755,7 +12755,7 @@
         <v>44049</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12812,7 +12812,7 @@
         <v>44049</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12869,7 +12869,7 @@
         <v>44057</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12926,7 +12926,7 @@
         <v>44064</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12983,7 +12983,7 @@
         <v>44069</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13040,7 +13040,7 @@
         <v>44074</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13102,7 +13102,7 @@
         <v>44074</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13164,7 +13164,7 @@
         <v>44074</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13226,7 +13226,7 @@
         <v>44077</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>44083</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         <v>44087</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13407,7 +13407,7 @@
         <v>44087</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13469,7 +13469,7 @@
         <v>44088</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13526,7 +13526,7 @@
         <v>44089</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13583,7 +13583,7 @@
         <v>44089</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13640,7 +13640,7 @@
         <v>44092</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13697,7 +13697,7 @@
         <v>44095</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13754,7 +13754,7 @@
         <v>44095</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13811,7 +13811,7 @@
         <v>44102</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13868,7 +13868,7 @@
         <v>44104</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13925,7 +13925,7 @@
         <v>44104</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13982,7 +13982,7 @@
         <v>44104</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14039,7 +14039,7 @@
         <v>44104</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14096,7 +14096,7 @@
         <v>44104</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14153,7 +14153,7 @@
         <v>44109</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14210,7 +14210,7 @@
         <v>44116</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14267,7 +14267,7 @@
         <v>44120</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14324,7 +14324,7 @@
         <v>44124</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14381,7 +14381,7 @@
         <v>44124</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14438,7 +14438,7 @@
         <v>44126</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14495,7 +14495,7 @@
         <v>44130</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14552,7 +14552,7 @@
         <v>44130</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14609,7 +14609,7 @@
         <v>44130</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>44138</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14723,7 +14723,7 @@
         <v>44141</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14780,7 +14780,7 @@
         <v>44144</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14842,7 +14842,7 @@
         <v>44168</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14899,7 +14899,7 @@
         <v>44168</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14956,7 +14956,7 @@
         <v>44168</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15013,7 +15013,7 @@
         <v>44168</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15070,7 +15070,7 @@
         <v>44179</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15127,7 +15127,7 @@
         <v>44181</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15184,7 +15184,7 @@
         <v>44183</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15246,7 +15246,7 @@
         <v>44186</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15303,7 +15303,7 @@
         <v>44187</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15360,7 +15360,7 @@
         <v>44200</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15417,7 +15417,7 @@
         <v>44203</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15474,7 +15474,7 @@
         <v>44211</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15531,7 +15531,7 @@
         <v>44211</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15593,7 +15593,7 @@
         <v>44257</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15650,7 +15650,7 @@
         <v>44257</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15707,7 +15707,7 @@
         <v>44260</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15764,7 +15764,7 @@
         <v>44263</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15821,7 +15821,7 @@
         <v>44267</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15883,7 +15883,7 @@
         <v>44270</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15965,7 +15965,7 @@
         <v>44292</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16022,7 +16022,7 @@
         <v>44295</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16079,7 +16079,7 @@
         <v>44298</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16136,7 +16136,7 @@
         <v>44305</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16198,7 +16198,7 @@
         <v>44305</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16260,7 +16260,7 @@
         <v>44305</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16322,7 +16322,7 @@
         <v>44316</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16379,7 +16379,7 @@
         <v>44340</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16441,7 +16441,7 @@
         <v>44343</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16498,7 +16498,7 @@
         <v>44344</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16555,7 +16555,7 @@
         <v>44347</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16612,7 +16612,7 @@
         <v>44347</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16669,7 +16669,7 @@
         <v>44347</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16726,7 +16726,7 @@
         <v>44347</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16783,7 +16783,7 @@
         <v>44362</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16845,7 +16845,7 @@
         <v>44371</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16902,7 +16902,7 @@
         <v>44382</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16959,7 +16959,7 @@
         <v>44386</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17016,7 +17016,7 @@
         <v>44392</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17078,7 +17078,7 @@
         <v>44413</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17135,7 +17135,7 @@
         <v>44428</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17197,7 +17197,7 @@
         <v>44438</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17254,7 +17254,7 @@
         <v>44438</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17311,7 +17311,7 @@
         <v>44439</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17368,7 +17368,7 @@
         <v>44447</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17430,7 +17430,7 @@
         <v>44447</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17492,7 +17492,7 @@
         <v>44454</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17549,7 +17549,7 @@
         <v>44461</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17606,7 +17606,7 @@
         <v>44461</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17663,7 +17663,7 @@
         <v>44468</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17725,7 +17725,7 @@
         <v>44469</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17782,7 +17782,7 @@
         <v>44474</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17839,7 +17839,7 @@
         <v>44476</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17901,7 +17901,7 @@
         <v>44477</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17958,7 +17958,7 @@
         <v>44480</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18040,7 +18040,7 @@
         <v>44490</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18097,7 +18097,7 @@
         <v>44490</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18154,7 +18154,7 @@
         <v>44491</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18216,7 +18216,7 @@
         <v>44491</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18278,7 +18278,7 @@
         <v>44501</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18335,7 +18335,7 @@
         <v>44502</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18392,7 +18392,7 @@
         <v>44502</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18449,7 +18449,7 @@
         <v>44503</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18511,7 +18511,7 @@
         <v>44510</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         <v>44515</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18625,7 +18625,7 @@
         <v>44516</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18682,7 +18682,7 @@
         <v>44530</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         <v>44531</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18796,7 +18796,7 @@
         <v>44538</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18853,7 +18853,7 @@
         <v>44540</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18910,7 +18910,7 @@
         <v>44566</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18967,7 +18967,7 @@
         <v>44572</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19024,7 +19024,7 @@
         <v>44582</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19081,7 +19081,7 @@
         <v>44585</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19138,7 +19138,7 @@
         <v>44592</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19195,7 +19195,7 @@
         <v>44593</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19257,7 +19257,7 @@
         <v>44600</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19314,7 +19314,7 @@
         <v>44602</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19371,7 +19371,7 @@
         <v>44620</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19428,7 +19428,7 @@
         <v>44621</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19485,7 +19485,7 @@
         <v>44624</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19542,7 +19542,7 @@
         <v>44634</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19599,7 +19599,7 @@
         <v>44635</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19656,7 +19656,7 @@
         <v>44650</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19713,7 +19713,7 @@
         <v>44651</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19770,7 +19770,7 @@
         <v>44651</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19827,7 +19827,7 @@
         <v>44655</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19884,7 +19884,7 @@
         <v>44670</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19941,7 +19941,7 @@
         <v>44693</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19998,7 +19998,7 @@
         <v>44698</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20055,7 +20055,7 @@
         <v>44713</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20117,7 +20117,7 @@
         <v>44728</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         <v>44728</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20241,7 +20241,7 @@
         <v>44743</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20298,7 +20298,7 @@
         <v>44743</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20355,7 +20355,7 @@
         <v>44749</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20412,7 +20412,7 @@
         <v>44789</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20474,7 +20474,7 @@
         <v>44789</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20536,7 +20536,7 @@
         <v>44798</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20593,7 +20593,7 @@
         <v>44816</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20650,7 +20650,7 @@
         <v>44816</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20707,7 +20707,7 @@
         <v>44816</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20764,7 +20764,7 @@
         <v>44820</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20821,7 +20821,7 @@
         <v>44827</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20883,7 +20883,7 @@
         <v>44827</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20945,7 +20945,7 @@
         <v>44858</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21007,7 +21007,7 @@
         <v>44866</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21069,7 +21069,7 @@
         <v>44868</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21131,7 +21131,7 @@
         <v>44872</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21188,7 +21188,7 @@
         <v>44872</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21250,7 +21250,7 @@
         <v>44874</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21307,7 +21307,7 @@
         <v>44874</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21364,7 +21364,7 @@
         <v>44879</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21421,7 +21421,7 @@
         <v>44879</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21478,7 +21478,7 @@
         <v>44903</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21535,7 +21535,7 @@
         <v>44916</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21592,7 +21592,7 @@
         <v>44944</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21649,7 +21649,7 @@
         <v>44953</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21706,7 +21706,7 @@
         <v>44953</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21763,7 +21763,7 @@
         <v>44953</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21820,7 +21820,7 @@
         <v>44971</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21882,7 +21882,7 @@
         <v>44985</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21944,7 +21944,7 @@
         <v>44985</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22006,7 +22006,7 @@
         <v>44986</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22063,7 +22063,7 @@
         <v>44987</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22120,7 +22120,7 @@
         <v>44987</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22177,7 +22177,7 @@
         <v>44994</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22234,7 +22234,7 @@
         <v>44994</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22291,7 +22291,7 @@
         <v>45016</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22353,7 +22353,7 @@
         <v>45022</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22415,7 +22415,7 @@
         <v>45048</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22472,7 +22472,7 @@
         <v>45048</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22529,7 +22529,7 @@
         <v>45070</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22591,7 +22591,7 @@
         <v>45077</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22648,7 +22648,7 @@
         <v>45077</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22705,7 +22705,7 @@
         <v>45077</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22762,7 +22762,7 @@
         <v>45077</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22819,7 +22819,7 @@
         <v>45077</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22876,7 +22876,7 @@
         <v>45077</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22933,7 +22933,7 @@
         <v>45077</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22990,7 +22990,7 @@
         <v>45085</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23047,7 +23047,7 @@
         <v>45090</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23109,7 +23109,7 @@
         <v>45090</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23171,7 +23171,7 @@
         <v>45093</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23233,7 +23233,7 @@
         <v>45096</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23290,7 +23290,7 @@
         <v>45096</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23347,7 +23347,7 @@
         <v>45099</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23404,7 +23404,7 @@
         <v>45104</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23461,7 +23461,7 @@
         <v>45104</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23518,7 +23518,7 @@
         <v>45105</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23575,7 +23575,7 @@
         <v>45105</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23632,7 +23632,7 @@
         <v>45110</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23689,7 +23689,7 @@
         <v>45110</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23746,7 +23746,7 @@
         <v>45110</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23803,7 +23803,7 @@
         <v>45117</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23865,7 +23865,7 @@
         <v>45118</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23927,7 +23927,7 @@
         <v>45119</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23989,7 +23989,7 @@
         <v>45119</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24051,7 +24051,7 @@
         <v>45119</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24113,7 +24113,7 @@
         <v>45119</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24170,7 +24170,7 @@
         <v>45138</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24227,7 +24227,7 @@
         <v>45138</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24284,7 +24284,7 @@
         <v>45145</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24341,7 +24341,7 @@
         <v>45149</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24398,7 +24398,7 @@
         <v>45159</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24455,7 +24455,7 @@
         <v>45159</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24512,7 +24512,7 @@
         <v>45161</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24569,7 +24569,7 @@
         <v>45169</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24626,7 +24626,7 @@
         <v>45170</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24683,7 +24683,7 @@
         <v>45170</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24740,7 +24740,7 @@
         <v>45184</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24797,7 +24797,7 @@
         <v>45187</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>

--- a/Översikt YDRE.xlsx
+++ b/Översikt YDRE.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y409"/>
+  <dimension ref="A1:Y411"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44257</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>43409</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>43517</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>45070</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         <v>43405</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1013,7 +1013,7 @@
         <v>44732</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>45138</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         <v>43524</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1275,7 +1275,7 @@
         <v>43665</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>43910</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1449,7 +1449,7 @@
         <v>44087</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
         <v>44187</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1624,7 +1624,7 @@
         <v>44358</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1709,7 +1709,7 @@
         <v>44468</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
         <v>44468</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1889,7 +1889,7 @@
         <v>44831</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1979,7 +1979,7 @@
         <v>44874</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>45090</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2154,7 +2154,7 @@
         <v>43336</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2211,7 +2211,7 @@
         <v>43339</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
         <v>43354</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2325,7 +2325,7 @@
         <v>43355</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2382,7 +2382,7 @@
         <v>43355</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2439,7 +2439,7 @@
         <v>43356</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2496,7 +2496,7 @@
         <v>43362</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2553,7 +2553,7 @@
         <v>43375</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
         <v>43375</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2667,7 +2667,7 @@
         <v>43381</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2724,7 +2724,7 @@
         <v>43385</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         <v>43385</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2838,7 +2838,7 @@
         <v>43389</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2895,7 +2895,7 @@
         <v>43390</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2952,7 +2952,7 @@
         <v>43390</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3009,7 +3009,7 @@
         <v>43392</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3066,7 +3066,7 @@
         <v>43399</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3123,7 +3123,7 @@
         <v>43403</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         <v>43403</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3237,7 +3237,7 @@
         <v>43411</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3294,7 +3294,7 @@
         <v>43411</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3351,7 +3351,7 @@
         <v>43411</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3408,7 +3408,7 @@
         <v>43412</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3465,7 +3465,7 @@
         <v>43416</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3522,7 +3522,7 @@
         <v>43423</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3584,7 +3584,7 @@
         <v>43424</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3641,7 +3641,7 @@
         <v>43425</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3698,7 +3698,7 @@
         <v>43425</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3755,7 +3755,7 @@
         <v>43433</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3812,7 +3812,7 @@
         <v>43433</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3869,7 +3869,7 @@
         <v>43433</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3926,7 +3926,7 @@
         <v>43434</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3983,7 +3983,7 @@
         <v>43439</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>43439</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>43440</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>43445</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         <v>43445</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>43451</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>43451</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>43452</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4449,7 +4449,7 @@
         <v>43455</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>43455</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         <v>43468</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>43468</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
         <v>43475</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>43475</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>43479</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
         <v>43479</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4910,7 +4910,7 @@
         <v>43480</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4972,7 +4972,7 @@
         <v>43486</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5029,7 +5029,7 @@
         <v>43487</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>43489</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>43494</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>43494</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         <v>43495</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
         <v>43496</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         <v>43496</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         <v>43502</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>43503</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5557,7 +5557,7 @@
         <v>43509</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5614,7 +5614,7 @@
         <v>43514</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5671,7 +5671,7 @@
         <v>43514</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5728,7 +5728,7 @@
         <v>43517</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
         <v>43521</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5842,7 +5842,7 @@
         <v>43521</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5899,7 +5899,7 @@
         <v>43524</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5956,7 +5956,7 @@
         <v>43524</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6013,7 +6013,7 @@
         <v>43524</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6070,7 +6070,7 @@
         <v>43524</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
         <v>43524</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>43524</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
         <v>43528</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6298,7 +6298,7 @@
         <v>43528</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6360,7 +6360,7 @@
         <v>43532</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6417,7 +6417,7 @@
         <v>43544</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6474,7 +6474,7 @@
         <v>43546</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6536,7 +6536,7 @@
         <v>43553</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6593,7 +6593,7 @@
         <v>43553</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6650,7 +6650,7 @@
         <v>43558</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6707,7 +6707,7 @@
         <v>43560</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6764,7 +6764,7 @@
         <v>43564</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6821,7 +6821,7 @@
         <v>43585</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>43587</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6935,7 +6935,7 @@
         <v>43593</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6997,7 +6997,7 @@
         <v>43594</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7054,7 +7054,7 @@
         <v>43594</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7111,7 +7111,7 @@
         <v>43595</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7168,7 +7168,7 @@
         <v>43601</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
         <v>43605</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>43608</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7349,7 +7349,7 @@
         <v>43626</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7406,7 +7406,7 @@
         <v>43628</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7463,7 +7463,7 @@
         <v>43630</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         <v>43634</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7577,7 +7577,7 @@
         <v>43647</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7634,7 +7634,7 @@
         <v>43661</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7691,7 +7691,7 @@
         <v>43679</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7748,7 +7748,7 @@
         <v>43682</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7805,7 +7805,7 @@
         <v>43683</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7862,7 +7862,7 @@
         <v>43689</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7919,7 +7919,7 @@
         <v>43692</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7976,7 +7976,7 @@
         <v>43692</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         <v>43699</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8090,7 +8090,7 @@
         <v>43705</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8147,7 +8147,7 @@
         <v>43711</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>43712</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>43712</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>43713</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>43713</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>43717</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>43721</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>43731</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>43735</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>43738</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>43748</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>43753</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8836,7 +8836,7 @@
         <v>43761</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8898,7 +8898,7 @@
         <v>43768</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8955,7 +8955,7 @@
         <v>43769</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9012,7 +9012,7 @@
         <v>43773</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9069,7 +9069,7 @@
         <v>43773</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9126,7 +9126,7 @@
         <v>43773</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9183,7 +9183,7 @@
         <v>43773</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9240,7 +9240,7 @@
         <v>43781</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9297,7 +9297,7 @@
         <v>43788</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9359,7 +9359,7 @@
         <v>43791</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9421,7 +9421,7 @@
         <v>43796</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9478,7 +9478,7 @@
         <v>43805</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9535,7 +9535,7 @@
         <v>43808</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9597,7 +9597,7 @@
         <v>43811</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9659,7 +9659,7 @@
         <v>43812</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9716,7 +9716,7 @@
         <v>43837</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9773,7 +9773,7 @@
         <v>43837</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9830,7 +9830,7 @@
         <v>43839</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9887,7 +9887,7 @@
         <v>43850</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9944,7 +9944,7 @@
         <v>43851</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10001,7 +10001,7 @@
         <v>43851</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10058,7 +10058,7 @@
         <v>43854</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10115,7 +10115,7 @@
         <v>43859</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10172,7 +10172,7 @@
         <v>43859</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10229,7 +10229,7 @@
         <v>43866</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10286,7 +10286,7 @@
         <v>43866</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10343,7 +10343,7 @@
         <v>43867</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10400,7 +10400,7 @@
         <v>43867</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
         <v>43867</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10514,7 +10514,7 @@
         <v>43867</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10571,7 +10571,7 @@
         <v>43875</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10628,7 +10628,7 @@
         <v>43892</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10685,7 +10685,7 @@
         <v>43892</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10742,7 +10742,7 @@
         <v>43899</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10799,7 +10799,7 @@
         <v>43900</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10856,7 +10856,7 @@
         <v>43907</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10913,7 +10913,7 @@
         <v>43914</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10970,7 +10970,7 @@
         <v>43928</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11027,7 +11027,7 @@
         <v>43945</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>43955</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>43958</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11203,7 +11203,7 @@
         <v>43963</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11265,7 +11265,7 @@
         <v>43964</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11327,7 +11327,7 @@
         <v>43964</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11389,7 +11389,7 @@
         <v>43964</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11451,7 +11451,7 @@
         <v>43964</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11513,7 +11513,7 @@
         <v>43970</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11575,7 +11575,7 @@
         <v>43970</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11637,7 +11637,7 @@
         <v>43970</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11699,7 +11699,7 @@
         <v>43970</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11761,7 +11761,7 @@
         <v>43970</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11823,7 +11823,7 @@
         <v>43980</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11885,7 +11885,7 @@
         <v>43987</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11942,7 +11942,7 @@
         <v>43987</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11999,7 +11999,7 @@
         <v>43987</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12056,7 +12056,7 @@
         <v>43990</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12113,7 +12113,7 @@
         <v>44015</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12170,7 +12170,7 @@
         <v>44018</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12227,7 +12227,7 @@
         <v>44018</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12284,7 +12284,7 @@
         <v>44020</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12341,7 +12341,7 @@
         <v>44020</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12398,7 +12398,7 @@
         <v>44028</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12455,7 +12455,7 @@
         <v>44029</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12517,7 +12517,7 @@
         <v>44029</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12579,7 +12579,7 @@
         <v>44029</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12641,7 +12641,7 @@
         <v>44039</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12698,7 +12698,7 @@
         <v>44049</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12755,7 +12755,7 @@
         <v>44049</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12812,7 +12812,7 @@
         <v>44049</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12869,7 +12869,7 @@
         <v>44057</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12926,7 +12926,7 @@
         <v>44064</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12983,7 +12983,7 @@
         <v>44069</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13040,7 +13040,7 @@
         <v>44074</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13102,7 +13102,7 @@
         <v>44074</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13164,7 +13164,7 @@
         <v>44074</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13226,7 +13226,7 @@
         <v>44077</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>44083</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         <v>44087</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13407,7 +13407,7 @@
         <v>44087</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13469,7 +13469,7 @@
         <v>44088</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13526,7 +13526,7 @@
         <v>44089</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13583,7 +13583,7 @@
         <v>44089</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13640,7 +13640,7 @@
         <v>44092</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13697,7 +13697,7 @@
         <v>44095</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13754,7 +13754,7 @@
         <v>44095</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13811,7 +13811,7 @@
         <v>44102</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13868,7 +13868,7 @@
         <v>44104</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13925,7 +13925,7 @@
         <v>44104</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13982,7 +13982,7 @@
         <v>44104</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14039,7 +14039,7 @@
         <v>44104</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14096,7 +14096,7 @@
         <v>44104</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14153,7 +14153,7 @@
         <v>44109</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14210,7 +14210,7 @@
         <v>44116</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14267,7 +14267,7 @@
         <v>44120</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14324,7 +14324,7 @@
         <v>44124</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14381,7 +14381,7 @@
         <v>44124</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14438,7 +14438,7 @@
         <v>44126</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14495,7 +14495,7 @@
         <v>44130</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14552,7 +14552,7 @@
         <v>44130</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14609,7 +14609,7 @@
         <v>44130</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>44138</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14723,7 +14723,7 @@
         <v>44141</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14780,7 +14780,7 @@
         <v>44144</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14842,7 +14842,7 @@
         <v>44168</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14899,7 +14899,7 @@
         <v>44168</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14956,7 +14956,7 @@
         <v>44168</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15013,7 +15013,7 @@
         <v>44168</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15070,7 +15070,7 @@
         <v>44179</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15127,7 +15127,7 @@
         <v>44181</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15184,7 +15184,7 @@
         <v>44183</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15246,7 +15246,7 @@
         <v>44186</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15303,7 +15303,7 @@
         <v>44187</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15360,7 +15360,7 @@
         <v>44200</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15417,7 +15417,7 @@
         <v>44203</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15474,7 +15474,7 @@
         <v>44211</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15531,7 +15531,7 @@
         <v>44211</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15593,7 +15593,7 @@
         <v>44257</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15650,7 +15650,7 @@
         <v>44257</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15707,7 +15707,7 @@
         <v>44260</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15764,7 +15764,7 @@
         <v>44263</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15821,7 +15821,7 @@
         <v>44267</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15883,7 +15883,7 @@
         <v>44270</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15965,7 +15965,7 @@
         <v>44292</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16022,7 +16022,7 @@
         <v>44295</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16079,7 +16079,7 @@
         <v>44298</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16136,7 +16136,7 @@
         <v>44305</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16198,7 +16198,7 @@
         <v>44305</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16260,7 +16260,7 @@
         <v>44305</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16322,7 +16322,7 @@
         <v>44316</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16379,7 +16379,7 @@
         <v>44340</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16441,7 +16441,7 @@
         <v>44343</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16498,7 +16498,7 @@
         <v>44344</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16555,7 +16555,7 @@
         <v>44347</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16612,7 +16612,7 @@
         <v>44347</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16669,7 +16669,7 @@
         <v>44347</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16726,7 +16726,7 @@
         <v>44347</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16783,7 +16783,7 @@
         <v>44362</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16845,7 +16845,7 @@
         <v>44371</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16902,7 +16902,7 @@
         <v>44382</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16959,7 +16959,7 @@
         <v>44386</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17016,7 +17016,7 @@
         <v>44392</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17078,7 +17078,7 @@
         <v>44413</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17135,7 +17135,7 @@
         <v>44428</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17197,7 +17197,7 @@
         <v>44438</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17254,7 +17254,7 @@
         <v>44438</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17311,7 +17311,7 @@
         <v>44439</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17368,7 +17368,7 @@
         <v>44447</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17430,7 +17430,7 @@
         <v>44447</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17492,7 +17492,7 @@
         <v>44454</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17549,7 +17549,7 @@
         <v>44461</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17606,7 +17606,7 @@
         <v>44461</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17663,7 +17663,7 @@
         <v>44468</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17725,7 +17725,7 @@
         <v>44469</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17782,7 +17782,7 @@
         <v>44474</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17839,7 +17839,7 @@
         <v>44476</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17901,7 +17901,7 @@
         <v>44477</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17958,7 +17958,7 @@
         <v>44480</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18040,7 +18040,7 @@
         <v>44490</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18097,7 +18097,7 @@
         <v>44490</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18154,7 +18154,7 @@
         <v>44491</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18216,7 +18216,7 @@
         <v>44491</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18278,7 +18278,7 @@
         <v>44501</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18335,7 +18335,7 @@
         <v>44502</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18392,7 +18392,7 @@
         <v>44502</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18449,7 +18449,7 @@
         <v>44503</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18511,7 +18511,7 @@
         <v>44510</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         <v>44515</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18625,7 +18625,7 @@
         <v>44516</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18682,7 +18682,7 @@
         <v>44530</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         <v>44531</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18796,7 +18796,7 @@
         <v>44538</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18853,7 +18853,7 @@
         <v>44540</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18910,7 +18910,7 @@
         <v>44566</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18967,7 +18967,7 @@
         <v>44572</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19024,7 +19024,7 @@
         <v>44582</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19081,7 +19081,7 @@
         <v>44585</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19138,7 +19138,7 @@
         <v>44592</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19195,7 +19195,7 @@
         <v>44593</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19257,7 +19257,7 @@
         <v>44600</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19314,7 +19314,7 @@
         <v>44602</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19371,7 +19371,7 @@
         <v>44620</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19428,7 +19428,7 @@
         <v>44621</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19485,7 +19485,7 @@
         <v>44624</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19542,7 +19542,7 @@
         <v>44634</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19599,7 +19599,7 @@
         <v>44635</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19656,7 +19656,7 @@
         <v>44650</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19713,7 +19713,7 @@
         <v>44651</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19770,7 +19770,7 @@
         <v>44651</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19827,7 +19827,7 @@
         <v>44655</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19884,7 +19884,7 @@
         <v>44670</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19941,7 +19941,7 @@
         <v>44693</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19998,7 +19998,7 @@
         <v>44698</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20055,7 +20055,7 @@
         <v>44713</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20117,7 +20117,7 @@
         <v>44728</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         <v>44728</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20241,7 +20241,7 @@
         <v>44743</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20298,7 +20298,7 @@
         <v>44743</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20355,7 +20355,7 @@
         <v>44749</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20412,7 +20412,7 @@
         <v>44789</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20474,7 +20474,7 @@
         <v>44789</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20536,7 +20536,7 @@
         <v>44798</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20593,7 +20593,7 @@
         <v>44816</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20650,7 +20650,7 @@
         <v>44816</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20707,7 +20707,7 @@
         <v>44816</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20764,7 +20764,7 @@
         <v>44820</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20821,7 +20821,7 @@
         <v>44827</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20883,7 +20883,7 @@
         <v>44827</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20945,7 +20945,7 @@
         <v>44858</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21007,7 +21007,7 @@
         <v>44866</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21069,7 +21069,7 @@
         <v>44868</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21131,7 +21131,7 @@
         <v>44872</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21188,7 +21188,7 @@
         <v>44872</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21250,7 +21250,7 @@
         <v>44874</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21307,7 +21307,7 @@
         <v>44874</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21364,7 +21364,7 @@
         <v>44879</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21421,7 +21421,7 @@
         <v>44879</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21478,7 +21478,7 @@
         <v>44903</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21535,7 +21535,7 @@
         <v>44916</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21592,7 +21592,7 @@
         <v>44944</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21649,7 +21649,7 @@
         <v>44953</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21706,7 +21706,7 @@
         <v>44953</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21763,7 +21763,7 @@
         <v>44953</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21820,7 +21820,7 @@
         <v>44971</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21882,7 +21882,7 @@
         <v>44985</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21944,7 +21944,7 @@
         <v>44985</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22006,7 +22006,7 @@
         <v>44986</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22063,7 +22063,7 @@
         <v>44987</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22120,7 +22120,7 @@
         <v>44987</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22177,7 +22177,7 @@
         <v>44994</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22234,7 +22234,7 @@
         <v>44994</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22291,7 +22291,7 @@
         <v>45016</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22353,7 +22353,7 @@
         <v>45022</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22415,7 +22415,7 @@
         <v>45048</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22472,7 +22472,7 @@
         <v>45048</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22529,7 +22529,7 @@
         <v>45070</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22591,7 +22591,7 @@
         <v>45077</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22648,7 +22648,7 @@
         <v>45077</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22705,7 +22705,7 @@
         <v>45077</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22762,7 +22762,7 @@
         <v>45077</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22819,7 +22819,7 @@
         <v>45077</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22876,7 +22876,7 @@
         <v>45077</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22933,7 +22933,7 @@
         <v>45077</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22990,7 +22990,7 @@
         <v>45085</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23047,7 +23047,7 @@
         <v>45090</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23109,7 +23109,7 @@
         <v>45090</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23171,7 +23171,7 @@
         <v>45093</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23233,7 +23233,7 @@
         <v>45096</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23290,7 +23290,7 @@
         <v>45096</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23347,7 +23347,7 @@
         <v>45099</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23404,7 +23404,7 @@
         <v>45104</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23461,7 +23461,7 @@
         <v>45104</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23518,7 +23518,7 @@
         <v>45105</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23575,7 +23575,7 @@
         <v>45105</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23632,7 +23632,7 @@
         <v>45110</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23689,7 +23689,7 @@
         <v>45110</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23746,7 +23746,7 @@
         <v>45110</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23803,7 +23803,7 @@
         <v>45117</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23865,7 +23865,7 @@
         <v>45118</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23927,7 +23927,7 @@
         <v>45119</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23989,7 +23989,7 @@
         <v>45119</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24051,7 +24051,7 @@
         <v>45119</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24113,7 +24113,7 @@
         <v>45119</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24170,7 +24170,7 @@
         <v>45138</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24227,7 +24227,7 @@
         <v>45138</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24284,7 +24284,7 @@
         <v>45145</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24341,7 +24341,7 @@
         <v>45149</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24398,7 +24398,7 @@
         <v>45159</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24455,7 +24455,7 @@
         <v>45159</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24512,7 +24512,7 @@
         <v>45161</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24569,7 +24569,7 @@
         <v>45169</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24626,7 +24626,7 @@
         <v>45170</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24683,7 +24683,7 @@
         <v>45170</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24740,7 +24740,7 @@
         <v>45184</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24787,7 +24787,7 @@
       </c>
       <c r="R408" s="2" t="inlineStr"/>
     </row>
-    <row r="409">
+    <row r="409" ht="15" customHeight="1">
       <c r="A409" t="inlineStr">
         <is>
           <t>A 43904-2023</t>
@@ -24797,7 +24797,7 @@
         <v>45187</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24843,6 +24843,120 @@
         <v>0</v>
       </c>
       <c r="R409" s="2" t="inlineStr"/>
+    </row>
+    <row r="410" ht="15" customHeight="1">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>A 46583-2023</t>
+        </is>
+      </c>
+      <c r="B410" s="1" t="n">
+        <v>45198</v>
+      </c>
+      <c r="C410" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D410" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E410" t="inlineStr">
+        <is>
+          <t>YDRE</t>
+        </is>
+      </c>
+      <c r="G410" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="H410" t="n">
+        <v>0</v>
+      </c>
+      <c r="I410" t="n">
+        <v>0</v>
+      </c>
+      <c r="J410" t="n">
+        <v>0</v>
+      </c>
+      <c r="K410" t="n">
+        <v>0</v>
+      </c>
+      <c r="L410" t="n">
+        <v>0</v>
+      </c>
+      <c r="M410" t="n">
+        <v>0</v>
+      </c>
+      <c r="N410" t="n">
+        <v>0</v>
+      </c>
+      <c r="O410" t="n">
+        <v>0</v>
+      </c>
+      <c r="P410" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q410" t="n">
+        <v>0</v>
+      </c>
+      <c r="R410" s="2" t="inlineStr"/>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>A 46578-2023</t>
+        </is>
+      </c>
+      <c r="B411" s="1" t="n">
+        <v>45198</v>
+      </c>
+      <c r="C411" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D411" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E411" t="inlineStr">
+        <is>
+          <t>YDRE</t>
+        </is>
+      </c>
+      <c r="G411" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H411" t="n">
+        <v>0</v>
+      </c>
+      <c r="I411" t="n">
+        <v>0</v>
+      </c>
+      <c r="J411" t="n">
+        <v>0</v>
+      </c>
+      <c r="K411" t="n">
+        <v>0</v>
+      </c>
+      <c r="L411" t="n">
+        <v>0</v>
+      </c>
+      <c r="M411" t="n">
+        <v>0</v>
+      </c>
+      <c r="N411" t="n">
+        <v>0</v>
+      </c>
+      <c r="O411" t="n">
+        <v>0</v>
+      </c>
+      <c r="P411" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q411" t="n">
+        <v>0</v>
+      </c>
+      <c r="R411" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt YDRE.xlsx
+++ b/Översikt YDRE.xlsx
@@ -572,7 +572,7 @@
         <v>44257</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>43409</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>43517</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>45070</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         <v>43405</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1013,7 +1013,7 @@
         <v>44732</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>45138</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         <v>43524</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1275,7 +1275,7 @@
         <v>43665</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>43910</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1449,7 +1449,7 @@
         <v>44087</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
         <v>44187</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1624,7 +1624,7 @@
         <v>44358</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1709,7 +1709,7 @@
         <v>44468</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
         <v>44468</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1889,7 +1889,7 @@
         <v>44831</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1979,7 +1979,7 @@
         <v>44874</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>45090</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2154,7 +2154,7 @@
         <v>43336</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2211,7 +2211,7 @@
         <v>43339</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
         <v>43354</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2325,7 +2325,7 @@
         <v>43355</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2382,7 +2382,7 @@
         <v>43355</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2439,7 +2439,7 @@
         <v>43356</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2496,7 +2496,7 @@
         <v>43362</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2553,7 +2553,7 @@
         <v>43375</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
         <v>43375</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2667,7 +2667,7 @@
         <v>43381</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2724,7 +2724,7 @@
         <v>43385</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         <v>43385</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2838,7 +2838,7 @@
         <v>43389</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2895,7 +2895,7 @@
         <v>43390</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2952,7 +2952,7 @@
         <v>43390</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3009,7 +3009,7 @@
         <v>43392</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3066,7 +3066,7 @@
         <v>43399</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3123,7 +3123,7 @@
         <v>43403</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         <v>43403</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3237,7 +3237,7 @@
         <v>43411</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3294,7 +3294,7 @@
         <v>43411</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3351,7 +3351,7 @@
         <v>43411</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3408,7 +3408,7 @@
         <v>43412</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3465,7 +3465,7 @@
         <v>43416</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3522,7 +3522,7 @@
         <v>43423</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3584,7 +3584,7 @@
         <v>43424</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3641,7 +3641,7 @@
         <v>43425</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3698,7 +3698,7 @@
         <v>43425</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3755,7 +3755,7 @@
         <v>43433</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3812,7 +3812,7 @@
         <v>43433</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3869,7 +3869,7 @@
         <v>43433</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3926,7 +3926,7 @@
         <v>43434</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3983,7 +3983,7 @@
         <v>43439</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>43439</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>43440</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>43445</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         <v>43445</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>43451</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>43451</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>43452</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4449,7 +4449,7 @@
         <v>43455</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>43455</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         <v>43468</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>43468</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
         <v>43475</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>43475</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>43479</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
         <v>43479</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4910,7 +4910,7 @@
         <v>43480</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4972,7 +4972,7 @@
         <v>43486</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5029,7 +5029,7 @@
         <v>43487</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>43489</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>43494</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>43494</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         <v>43495</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
         <v>43496</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         <v>43496</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         <v>43502</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>43503</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5557,7 +5557,7 @@
         <v>43509</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5614,7 +5614,7 @@
         <v>43514</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5671,7 +5671,7 @@
         <v>43514</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5728,7 +5728,7 @@
         <v>43517</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
         <v>43521</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5842,7 +5842,7 @@
         <v>43521</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5899,7 +5899,7 @@
         <v>43524</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5956,7 +5956,7 @@
         <v>43524</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6013,7 +6013,7 @@
         <v>43524</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6070,7 +6070,7 @@
         <v>43524</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
         <v>43524</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>43524</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
         <v>43528</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6298,7 +6298,7 @@
         <v>43528</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6360,7 +6360,7 @@
         <v>43532</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6417,7 +6417,7 @@
         <v>43544</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6474,7 +6474,7 @@
         <v>43546</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6536,7 +6536,7 @@
         <v>43553</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6593,7 +6593,7 @@
         <v>43553</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6650,7 +6650,7 @@
         <v>43558</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6707,7 +6707,7 @@
         <v>43560</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6764,7 +6764,7 @@
         <v>43564</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6821,7 +6821,7 @@
         <v>43585</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>43587</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6935,7 +6935,7 @@
         <v>43593</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6997,7 +6997,7 @@
         <v>43594</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7054,7 +7054,7 @@
         <v>43594</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7111,7 +7111,7 @@
         <v>43595</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7168,7 +7168,7 @@
         <v>43601</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
         <v>43605</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>43608</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7349,7 +7349,7 @@
         <v>43626</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7406,7 +7406,7 @@
         <v>43628</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7463,7 +7463,7 @@
         <v>43630</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         <v>43634</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7577,7 +7577,7 @@
         <v>43647</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7634,7 +7634,7 @@
         <v>43661</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7691,7 +7691,7 @@
         <v>43679</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7748,7 +7748,7 @@
         <v>43682</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7805,7 +7805,7 @@
         <v>43683</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7862,7 +7862,7 @@
         <v>43689</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7919,7 +7919,7 @@
         <v>43692</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7976,7 +7976,7 @@
         <v>43692</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         <v>43699</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8090,7 +8090,7 @@
         <v>43705</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8147,7 +8147,7 @@
         <v>43711</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>43712</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>43712</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>43713</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>43713</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>43717</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>43721</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>43731</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>43735</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>43738</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>43748</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>43753</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8836,7 +8836,7 @@
         <v>43761</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8898,7 +8898,7 @@
         <v>43768</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8955,7 +8955,7 @@
         <v>43769</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9012,7 +9012,7 @@
         <v>43773</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9069,7 +9069,7 @@
         <v>43773</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9126,7 +9126,7 @@
         <v>43773</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9183,7 +9183,7 @@
         <v>43773</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9240,7 +9240,7 @@
         <v>43781</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9297,7 +9297,7 @@
         <v>43788</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9359,7 +9359,7 @@
         <v>43791</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9421,7 +9421,7 @@
         <v>43796</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9478,7 +9478,7 @@
         <v>43805</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9535,7 +9535,7 @@
         <v>43808</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9597,7 +9597,7 @@
         <v>43811</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9659,7 +9659,7 @@
         <v>43812</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9716,7 +9716,7 @@
         <v>43837</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9773,7 +9773,7 @@
         <v>43837</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9830,7 +9830,7 @@
         <v>43839</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9887,7 +9887,7 @@
         <v>43850</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9944,7 +9944,7 @@
         <v>43851</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10001,7 +10001,7 @@
         <v>43851</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10058,7 +10058,7 @@
         <v>43854</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10115,7 +10115,7 @@
         <v>43859</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10172,7 +10172,7 @@
         <v>43859</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10229,7 +10229,7 @@
         <v>43866</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10286,7 +10286,7 @@
         <v>43866</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10343,7 +10343,7 @@
         <v>43867</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10400,7 +10400,7 @@
         <v>43867</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
         <v>43867</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10514,7 +10514,7 @@
         <v>43867</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10571,7 +10571,7 @@
         <v>43875</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10628,7 +10628,7 @@
         <v>43892</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10685,7 +10685,7 @@
         <v>43892</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10742,7 +10742,7 @@
         <v>43899</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10799,7 +10799,7 @@
         <v>43900</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10856,7 +10856,7 @@
         <v>43907</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10913,7 +10913,7 @@
         <v>43914</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10970,7 +10970,7 @@
         <v>43928</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11027,7 +11027,7 @@
         <v>43945</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>43955</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>43958</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11203,7 +11203,7 @@
         <v>43963</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11265,7 +11265,7 @@
         <v>43964</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11327,7 +11327,7 @@
         <v>43964</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11389,7 +11389,7 @@
         <v>43964</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11451,7 +11451,7 @@
         <v>43964</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11513,7 +11513,7 @@
         <v>43970</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11575,7 +11575,7 @@
         <v>43970</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11637,7 +11637,7 @@
         <v>43970</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11699,7 +11699,7 @@
         <v>43970</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11761,7 +11761,7 @@
         <v>43970</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11823,7 +11823,7 @@
         <v>43980</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11885,7 +11885,7 @@
         <v>43987</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11942,7 +11942,7 @@
         <v>43987</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11999,7 +11999,7 @@
         <v>43987</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12056,7 +12056,7 @@
         <v>43990</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12113,7 +12113,7 @@
         <v>44015</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12170,7 +12170,7 @@
         <v>44018</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12227,7 +12227,7 @@
         <v>44018</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12284,7 +12284,7 @@
         <v>44020</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12341,7 +12341,7 @@
         <v>44020</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12398,7 +12398,7 @@
         <v>44028</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12455,7 +12455,7 @@
         <v>44029</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12517,7 +12517,7 @@
         <v>44029</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12579,7 +12579,7 @@
         <v>44029</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12641,7 +12641,7 @@
         <v>44039</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12698,7 +12698,7 @@
         <v>44049</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12755,7 +12755,7 @@
         <v>44049</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12812,7 +12812,7 @@
         <v>44049</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12869,7 +12869,7 @@
         <v>44057</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12926,7 +12926,7 @@
         <v>44064</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12983,7 +12983,7 @@
         <v>44069</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13040,7 +13040,7 @@
         <v>44074</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13102,7 +13102,7 @@
         <v>44074</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13164,7 +13164,7 @@
         <v>44074</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13226,7 +13226,7 @@
         <v>44077</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>44083</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         <v>44087</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13407,7 +13407,7 @@
         <v>44087</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13469,7 +13469,7 @@
         <v>44088</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13526,7 +13526,7 @@
         <v>44089</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13583,7 +13583,7 @@
         <v>44089</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13640,7 +13640,7 @@
         <v>44092</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13697,7 +13697,7 @@
         <v>44095</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13754,7 +13754,7 @@
         <v>44095</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13811,7 +13811,7 @@
         <v>44102</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13868,7 +13868,7 @@
         <v>44104</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13925,7 +13925,7 @@
         <v>44104</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13982,7 +13982,7 @@
         <v>44104</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14039,7 +14039,7 @@
         <v>44104</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14096,7 +14096,7 @@
         <v>44104</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14153,7 +14153,7 @@
         <v>44109</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14210,7 +14210,7 @@
         <v>44116</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14267,7 +14267,7 @@
         <v>44120</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14324,7 +14324,7 @@
         <v>44124</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14381,7 +14381,7 @@
         <v>44124</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14438,7 +14438,7 @@
         <v>44126</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14495,7 +14495,7 @@
         <v>44130</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14552,7 +14552,7 @@
         <v>44130</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14609,7 +14609,7 @@
         <v>44130</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>44138</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14723,7 +14723,7 @@
         <v>44141</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14780,7 +14780,7 @@
         <v>44144</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14842,7 +14842,7 @@
         <v>44168</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14899,7 +14899,7 @@
         <v>44168</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14956,7 +14956,7 @@
         <v>44168</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15013,7 +15013,7 @@
         <v>44168</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15070,7 +15070,7 @@
         <v>44179</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15127,7 +15127,7 @@
         <v>44181</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15184,7 +15184,7 @@
         <v>44183</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15246,7 +15246,7 @@
         <v>44186</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15303,7 +15303,7 @@
         <v>44187</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15360,7 +15360,7 @@
         <v>44200</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15417,7 +15417,7 @@
         <v>44203</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15474,7 +15474,7 @@
         <v>44211</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15531,7 +15531,7 @@
         <v>44211</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15593,7 +15593,7 @@
         <v>44257</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15650,7 +15650,7 @@
         <v>44257</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15707,7 +15707,7 @@
         <v>44260</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15764,7 +15764,7 @@
         <v>44263</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15821,7 +15821,7 @@
         <v>44267</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15883,7 +15883,7 @@
         <v>44270</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15965,7 +15965,7 @@
         <v>44292</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16022,7 +16022,7 @@
         <v>44295</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16079,7 +16079,7 @@
         <v>44298</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16136,7 +16136,7 @@
         <v>44305</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16198,7 +16198,7 @@
         <v>44305</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16260,7 +16260,7 @@
         <v>44305</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16322,7 +16322,7 @@
         <v>44316</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16379,7 +16379,7 @@
         <v>44340</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16441,7 +16441,7 @@
         <v>44343</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16498,7 +16498,7 @@
         <v>44344</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16555,7 +16555,7 @@
         <v>44347</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16612,7 +16612,7 @@
         <v>44347</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16669,7 +16669,7 @@
         <v>44347</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16726,7 +16726,7 @@
         <v>44347</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16783,7 +16783,7 @@
         <v>44362</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16845,7 +16845,7 @@
         <v>44371</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16902,7 +16902,7 @@
         <v>44382</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16959,7 +16959,7 @@
         <v>44386</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17016,7 +17016,7 @@
         <v>44392</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17078,7 +17078,7 @@
         <v>44413</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17135,7 +17135,7 @@
         <v>44428</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17197,7 +17197,7 @@
         <v>44438</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17254,7 +17254,7 @@
         <v>44438</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17311,7 +17311,7 @@
         <v>44439</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17368,7 +17368,7 @@
         <v>44447</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17430,7 +17430,7 @@
         <v>44447</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17492,7 +17492,7 @@
         <v>44454</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17549,7 +17549,7 @@
         <v>44461</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17606,7 +17606,7 @@
         <v>44461</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17663,7 +17663,7 @@
         <v>44468</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17725,7 +17725,7 @@
         <v>44469</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17782,7 +17782,7 @@
         <v>44474</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17839,7 +17839,7 @@
         <v>44476</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17901,7 +17901,7 @@
         <v>44477</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17958,7 +17958,7 @@
         <v>44480</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18040,7 +18040,7 @@
         <v>44490</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18097,7 +18097,7 @@
         <v>44490</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18154,7 +18154,7 @@
         <v>44491</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18216,7 +18216,7 @@
         <v>44491</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18278,7 +18278,7 @@
         <v>44501</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18335,7 +18335,7 @@
         <v>44502</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18392,7 +18392,7 @@
         <v>44502</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18449,7 +18449,7 @@
         <v>44503</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18511,7 +18511,7 @@
         <v>44510</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         <v>44515</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18625,7 +18625,7 @@
         <v>44516</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18682,7 +18682,7 @@
         <v>44530</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         <v>44531</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18796,7 +18796,7 @@
         <v>44538</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18853,7 +18853,7 @@
         <v>44540</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18910,7 +18910,7 @@
         <v>44566</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18967,7 +18967,7 @@
         <v>44572</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19024,7 +19024,7 @@
         <v>44582</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19081,7 +19081,7 @@
         <v>44585</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19138,7 +19138,7 @@
         <v>44592</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19195,7 +19195,7 @@
         <v>44593</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19257,7 +19257,7 @@
         <v>44600</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19314,7 +19314,7 @@
         <v>44602</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19371,7 +19371,7 @@
         <v>44620</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19428,7 +19428,7 @@
         <v>44621</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19485,7 +19485,7 @@
         <v>44624</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19542,7 +19542,7 @@
         <v>44634</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19599,7 +19599,7 @@
         <v>44635</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19656,7 +19656,7 @@
         <v>44650</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19713,7 +19713,7 @@
         <v>44651</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19770,7 +19770,7 @@
         <v>44651</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19827,7 +19827,7 @@
         <v>44655</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19884,7 +19884,7 @@
         <v>44670</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19941,7 +19941,7 @@
         <v>44693</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19998,7 +19998,7 @@
         <v>44698</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20055,7 +20055,7 @@
         <v>44713</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20117,7 +20117,7 @@
         <v>44728</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         <v>44728</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20241,7 +20241,7 @@
         <v>44743</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20298,7 +20298,7 @@
         <v>44743</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20355,7 +20355,7 @@
         <v>44749</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20412,7 +20412,7 @@
         <v>44789</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20474,7 +20474,7 @@
         <v>44789</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20536,7 +20536,7 @@
         <v>44798</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20593,7 +20593,7 @@
         <v>44816</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20650,7 +20650,7 @@
         <v>44816</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20707,7 +20707,7 @@
         <v>44816</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20764,7 +20764,7 @@
         <v>44820</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20821,7 +20821,7 @@
         <v>44827</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20883,7 +20883,7 @@
         <v>44827</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20945,7 +20945,7 @@
         <v>44858</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21007,7 +21007,7 @@
         <v>44866</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21069,7 +21069,7 @@
         <v>44868</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21131,7 +21131,7 @@
         <v>44872</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21188,7 +21188,7 @@
         <v>44872</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21250,7 +21250,7 @@
         <v>44874</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21307,7 +21307,7 @@
         <v>44874</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21364,7 +21364,7 @@
         <v>44879</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21421,7 +21421,7 @@
         <v>44879</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21478,7 +21478,7 @@
         <v>44903</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21535,7 +21535,7 @@
         <v>44916</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21592,7 +21592,7 @@
         <v>44944</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21649,7 +21649,7 @@
         <v>44953</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21706,7 +21706,7 @@
         <v>44953</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21763,7 +21763,7 @@
         <v>44953</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21820,7 +21820,7 @@
         <v>44971</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21882,7 +21882,7 @@
         <v>44985</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21944,7 +21944,7 @@
         <v>44985</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22006,7 +22006,7 @@
         <v>44986</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22063,7 +22063,7 @@
         <v>44987</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22120,7 +22120,7 @@
         <v>44987</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22177,7 +22177,7 @@
         <v>44994</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22234,7 +22234,7 @@
         <v>44994</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22291,7 +22291,7 @@
         <v>45016</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22353,7 +22353,7 @@
         <v>45022</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22415,7 +22415,7 @@
         <v>45048</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22472,7 +22472,7 @@
         <v>45048</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22529,7 +22529,7 @@
         <v>45070</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22591,7 +22591,7 @@
         <v>45077</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22648,7 +22648,7 @@
         <v>45077</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22705,7 +22705,7 @@
         <v>45077</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22762,7 +22762,7 @@
         <v>45077</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22819,7 +22819,7 @@
         <v>45077</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22876,7 +22876,7 @@
         <v>45077</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22933,7 +22933,7 @@
         <v>45077</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22990,7 +22990,7 @@
         <v>45085</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23047,7 +23047,7 @@
         <v>45090</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23109,7 +23109,7 @@
         <v>45090</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23171,7 +23171,7 @@
         <v>45093</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23233,7 +23233,7 @@
         <v>45096</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23290,7 +23290,7 @@
         <v>45096</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23347,7 +23347,7 @@
         <v>45099</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23404,7 +23404,7 @@
         <v>45104</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23461,7 +23461,7 @@
         <v>45104</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23518,7 +23518,7 @@
         <v>45105</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23575,7 +23575,7 @@
         <v>45105</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23632,7 +23632,7 @@
         <v>45110</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23689,7 +23689,7 @@
         <v>45110</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23746,7 +23746,7 @@
         <v>45110</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23803,7 +23803,7 @@
         <v>45117</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23865,7 +23865,7 @@
         <v>45118</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23927,7 +23927,7 @@
         <v>45119</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23989,7 +23989,7 @@
         <v>45119</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24051,7 +24051,7 @@
         <v>45119</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24113,7 +24113,7 @@
         <v>45119</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24170,7 +24170,7 @@
         <v>45138</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24227,7 +24227,7 @@
         <v>45138</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24284,7 +24284,7 @@
         <v>45145</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24341,7 +24341,7 @@
         <v>45149</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24398,7 +24398,7 @@
         <v>45159</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24455,7 +24455,7 @@
         <v>45159</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24512,7 +24512,7 @@
         <v>45161</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24569,7 +24569,7 @@
         <v>45169</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24626,7 +24626,7 @@
         <v>45170</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24683,7 +24683,7 @@
         <v>45170</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24740,7 +24740,7 @@
         <v>45184</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24797,7 +24797,7 @@
         <v>45187</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24854,7 +24854,7 @@
         <v>45198</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24911,7 +24911,7 @@
         <v>45198</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>

--- a/Översikt YDRE.xlsx
+++ b/Översikt YDRE.xlsx
@@ -572,7 +572,7 @@
         <v>44257</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>43409</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>43517</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>45070</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         <v>43405</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1013,7 +1013,7 @@
         <v>44732</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>45138</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         <v>43524</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1275,7 +1275,7 @@
         <v>43665</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>43910</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1449,7 +1449,7 @@
         <v>44087</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
         <v>44187</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1624,7 +1624,7 @@
         <v>44358</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1709,7 +1709,7 @@
         <v>44468</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
         <v>44468</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1889,7 +1889,7 @@
         <v>44831</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1979,7 +1979,7 @@
         <v>44874</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>45090</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2154,7 +2154,7 @@
         <v>43336</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2211,7 +2211,7 @@
         <v>43339</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
         <v>43354</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2325,7 +2325,7 @@
         <v>43355</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2382,7 +2382,7 @@
         <v>43355</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2439,7 +2439,7 @@
         <v>43356</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2496,7 +2496,7 @@
         <v>43362</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2553,7 +2553,7 @@
         <v>43375</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
         <v>43375</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2667,7 +2667,7 @@
         <v>43381</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2724,7 +2724,7 @@
         <v>43385</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         <v>43385</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2838,7 +2838,7 @@
         <v>43389</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2895,7 +2895,7 @@
         <v>43390</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2952,7 +2952,7 @@
         <v>43390</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3009,7 +3009,7 @@
         <v>43392</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3066,7 +3066,7 @@
         <v>43399</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3123,7 +3123,7 @@
         <v>43403</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         <v>43403</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3237,7 +3237,7 @@
         <v>43411</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3294,7 +3294,7 @@
         <v>43411</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3351,7 +3351,7 @@
         <v>43411</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3408,7 +3408,7 @@
         <v>43412</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3465,7 +3465,7 @@
         <v>43416</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3522,7 +3522,7 @@
         <v>43423</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3584,7 +3584,7 @@
         <v>43424</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3641,7 +3641,7 @@
         <v>43425</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3698,7 +3698,7 @@
         <v>43425</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3755,7 +3755,7 @@
         <v>43433</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3812,7 +3812,7 @@
         <v>43433</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3869,7 +3869,7 @@
         <v>43433</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3926,7 +3926,7 @@
         <v>43434</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3983,7 +3983,7 @@
         <v>43439</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>43439</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>43440</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>43445</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         <v>43445</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>43451</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>43451</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>43452</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4449,7 +4449,7 @@
         <v>43455</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>43455</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         <v>43468</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>43468</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
         <v>43475</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>43475</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>43479</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
         <v>43479</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4910,7 +4910,7 @@
         <v>43480</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4972,7 +4972,7 @@
         <v>43486</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5029,7 +5029,7 @@
         <v>43487</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>43489</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>43494</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>43494</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         <v>43495</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
         <v>43496</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         <v>43496</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         <v>43502</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>43503</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5557,7 +5557,7 @@
         <v>43509</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5614,7 +5614,7 @@
         <v>43514</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5671,7 +5671,7 @@
         <v>43514</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5728,7 +5728,7 @@
         <v>43517</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
         <v>43521</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5842,7 +5842,7 @@
         <v>43521</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5899,7 +5899,7 @@
         <v>43524</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5956,7 +5956,7 @@
         <v>43524</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6013,7 +6013,7 @@
         <v>43524</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6070,7 +6070,7 @@
         <v>43524</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
         <v>43524</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>43524</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
         <v>43528</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6298,7 +6298,7 @@
         <v>43528</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6360,7 +6360,7 @@
         <v>43532</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6417,7 +6417,7 @@
         <v>43544</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6474,7 +6474,7 @@
         <v>43546</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6536,7 +6536,7 @@
         <v>43553</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6593,7 +6593,7 @@
         <v>43553</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6650,7 +6650,7 @@
         <v>43558</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6707,7 +6707,7 @@
         <v>43560</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6764,7 +6764,7 @@
         <v>43564</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6821,7 +6821,7 @@
         <v>43585</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>43587</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6935,7 +6935,7 @@
         <v>43593</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6997,7 +6997,7 @@
         <v>43594</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7054,7 +7054,7 @@
         <v>43594</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7111,7 +7111,7 @@
         <v>43595</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7168,7 +7168,7 @@
         <v>43601</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
         <v>43605</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>43608</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7349,7 +7349,7 @@
         <v>43626</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7406,7 +7406,7 @@
         <v>43628</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7463,7 +7463,7 @@
         <v>43630</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         <v>43634</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7577,7 +7577,7 @@
         <v>43647</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7634,7 +7634,7 @@
         <v>43661</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7691,7 +7691,7 @@
         <v>43679</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7748,7 +7748,7 @@
         <v>43682</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7805,7 +7805,7 @@
         <v>43683</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7862,7 +7862,7 @@
         <v>43689</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7919,7 +7919,7 @@
         <v>43692</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7976,7 +7976,7 @@
         <v>43692</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         <v>43699</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8090,7 +8090,7 @@
         <v>43705</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8147,7 +8147,7 @@
         <v>43711</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>43712</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>43712</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>43713</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>43713</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>43717</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>43721</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>43731</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>43735</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>43738</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>43748</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>43753</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8836,7 +8836,7 @@
         <v>43761</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8898,7 +8898,7 @@
         <v>43768</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8955,7 +8955,7 @@
         <v>43769</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9012,7 +9012,7 @@
         <v>43773</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9069,7 +9069,7 @@
         <v>43773</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9126,7 +9126,7 @@
         <v>43773</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9183,7 +9183,7 @@
         <v>43773</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9240,7 +9240,7 @@
         <v>43781</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9297,7 +9297,7 @@
         <v>43788</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9359,7 +9359,7 @@
         <v>43791</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9421,7 +9421,7 @@
         <v>43796</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9478,7 +9478,7 @@
         <v>43805</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9535,7 +9535,7 @@
         <v>43808</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9597,7 +9597,7 @@
         <v>43811</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9659,7 +9659,7 @@
         <v>43812</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9716,7 +9716,7 @@
         <v>43837</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9773,7 +9773,7 @@
         <v>43837</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9830,7 +9830,7 @@
         <v>43839</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9887,7 +9887,7 @@
         <v>43850</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9944,7 +9944,7 @@
         <v>43851</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10001,7 +10001,7 @@
         <v>43851</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10058,7 +10058,7 @@
         <v>43854</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10115,7 +10115,7 @@
         <v>43859</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10172,7 +10172,7 @@
         <v>43859</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10229,7 +10229,7 @@
         <v>43866</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10286,7 +10286,7 @@
         <v>43866</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10343,7 +10343,7 @@
         <v>43867</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10400,7 +10400,7 @@
         <v>43867</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
         <v>43867</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10514,7 +10514,7 @@
         <v>43867</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10571,7 +10571,7 @@
         <v>43875</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10628,7 +10628,7 @@
         <v>43892</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10685,7 +10685,7 @@
         <v>43892</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10742,7 +10742,7 @@
         <v>43899</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10799,7 +10799,7 @@
         <v>43900</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10856,7 +10856,7 @@
         <v>43907</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10913,7 +10913,7 @@
         <v>43914</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10970,7 +10970,7 @@
         <v>43928</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11027,7 +11027,7 @@
         <v>43945</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>43955</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>43958</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11203,7 +11203,7 @@
         <v>43963</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11265,7 +11265,7 @@
         <v>43964</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11327,7 +11327,7 @@
         <v>43964</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11389,7 +11389,7 @@
         <v>43964</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11451,7 +11451,7 @@
         <v>43964</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11513,7 +11513,7 @@
         <v>43970</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11575,7 +11575,7 @@
         <v>43970</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11637,7 +11637,7 @@
         <v>43970</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11699,7 +11699,7 @@
         <v>43970</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11761,7 +11761,7 @@
         <v>43970</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11823,7 +11823,7 @@
         <v>43980</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11885,7 +11885,7 @@
         <v>43987</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11942,7 +11942,7 @@
         <v>43987</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11999,7 +11999,7 @@
         <v>43987</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12056,7 +12056,7 @@
         <v>43990</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12113,7 +12113,7 @@
         <v>44015</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12170,7 +12170,7 @@
         <v>44018</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12227,7 +12227,7 @@
         <v>44018</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12284,7 +12284,7 @@
         <v>44020</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12341,7 +12341,7 @@
         <v>44020</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12398,7 +12398,7 @@
         <v>44028</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12455,7 +12455,7 @@
         <v>44029</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12517,7 +12517,7 @@
         <v>44029</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12579,7 +12579,7 @@
         <v>44029</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12641,7 +12641,7 @@
         <v>44039</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12698,7 +12698,7 @@
         <v>44049</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12755,7 +12755,7 @@
         <v>44049</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12812,7 +12812,7 @@
         <v>44049</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12869,7 +12869,7 @@
         <v>44057</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12926,7 +12926,7 @@
         <v>44064</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12983,7 +12983,7 @@
         <v>44069</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13040,7 +13040,7 @@
         <v>44074</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13102,7 +13102,7 @@
         <v>44074</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13164,7 +13164,7 @@
         <v>44074</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13226,7 +13226,7 @@
         <v>44077</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>44083</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         <v>44087</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13407,7 +13407,7 @@
         <v>44087</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13469,7 +13469,7 @@
         <v>44088</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13526,7 +13526,7 @@
         <v>44089</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13583,7 +13583,7 @@
         <v>44089</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13640,7 +13640,7 @@
         <v>44092</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13697,7 +13697,7 @@
         <v>44095</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13754,7 +13754,7 @@
         <v>44095</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13811,7 +13811,7 @@
         <v>44102</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13868,7 +13868,7 @@
         <v>44104</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13925,7 +13925,7 @@
         <v>44104</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13982,7 +13982,7 @@
         <v>44104</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14039,7 +14039,7 @@
         <v>44104</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14096,7 +14096,7 @@
         <v>44104</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14153,7 +14153,7 @@
         <v>44109</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14210,7 +14210,7 @@
         <v>44116</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14267,7 +14267,7 @@
         <v>44120</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14324,7 +14324,7 @@
         <v>44124</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14381,7 +14381,7 @@
         <v>44124</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14438,7 +14438,7 @@
         <v>44126</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14495,7 +14495,7 @@
         <v>44130</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14552,7 +14552,7 @@
         <v>44130</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14609,7 +14609,7 @@
         <v>44130</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>44138</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14723,7 +14723,7 @@
         <v>44141</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14780,7 +14780,7 @@
         <v>44144</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14842,7 +14842,7 @@
         <v>44168</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14899,7 +14899,7 @@
         <v>44168</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14956,7 +14956,7 @@
         <v>44168</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15013,7 +15013,7 @@
         <v>44168</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15070,7 +15070,7 @@
         <v>44179</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15127,7 +15127,7 @@
         <v>44181</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15184,7 +15184,7 @@
         <v>44183</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15246,7 +15246,7 @@
         <v>44186</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15303,7 +15303,7 @@
         <v>44187</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15360,7 +15360,7 @@
         <v>44200</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15417,7 +15417,7 @@
         <v>44203</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15474,7 +15474,7 @@
         <v>44211</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15531,7 +15531,7 @@
         <v>44211</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15593,7 +15593,7 @@
         <v>44257</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15650,7 +15650,7 @@
         <v>44257</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15707,7 +15707,7 @@
         <v>44260</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15764,7 +15764,7 @@
         <v>44263</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15821,7 +15821,7 @@
         <v>44267</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15883,7 +15883,7 @@
         <v>44270</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15965,7 +15965,7 @@
         <v>44292</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16022,7 +16022,7 @@
         <v>44295</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16079,7 +16079,7 @@
         <v>44298</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16136,7 +16136,7 @@
         <v>44305</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16198,7 +16198,7 @@
         <v>44305</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16260,7 +16260,7 @@
         <v>44305</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16322,7 +16322,7 @@
         <v>44316</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16379,7 +16379,7 @@
         <v>44340</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16441,7 +16441,7 @@
         <v>44343</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16498,7 +16498,7 @@
         <v>44344</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16555,7 +16555,7 @@
         <v>44347</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16612,7 +16612,7 @@
         <v>44347</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16669,7 +16669,7 @@
         <v>44347</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16726,7 +16726,7 @@
         <v>44347</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16783,7 +16783,7 @@
         <v>44362</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16845,7 +16845,7 @@
         <v>44371</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16902,7 +16902,7 @@
         <v>44382</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16959,7 +16959,7 @@
         <v>44386</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17016,7 +17016,7 @@
         <v>44392</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17078,7 +17078,7 @@
         <v>44413</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17135,7 +17135,7 @@
         <v>44428</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17197,7 +17197,7 @@
         <v>44438</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17254,7 +17254,7 @@
         <v>44438</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17311,7 +17311,7 @@
         <v>44439</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17368,7 +17368,7 @@
         <v>44447</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17430,7 +17430,7 @@
         <v>44447</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17492,7 +17492,7 @@
         <v>44454</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17549,7 +17549,7 @@
         <v>44461</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17606,7 +17606,7 @@
         <v>44461</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17663,7 +17663,7 @@
         <v>44468</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17725,7 +17725,7 @@
         <v>44469</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17782,7 +17782,7 @@
         <v>44474</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17839,7 +17839,7 @@
         <v>44476</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17901,7 +17901,7 @@
         <v>44477</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17958,7 +17958,7 @@
         <v>44480</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18040,7 +18040,7 @@
         <v>44490</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18097,7 +18097,7 @@
         <v>44490</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18154,7 +18154,7 @@
         <v>44491</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18216,7 +18216,7 @@
         <v>44491</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18278,7 +18278,7 @@
         <v>44501</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18335,7 +18335,7 @@
         <v>44502</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18392,7 +18392,7 @@
         <v>44502</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18449,7 +18449,7 @@
         <v>44503</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18511,7 +18511,7 @@
         <v>44510</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         <v>44515</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18625,7 +18625,7 @@
         <v>44516</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18682,7 +18682,7 @@
         <v>44530</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         <v>44531</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18796,7 +18796,7 @@
         <v>44538</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18853,7 +18853,7 @@
         <v>44540</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18910,7 +18910,7 @@
         <v>44566</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18967,7 +18967,7 @@
         <v>44572</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19024,7 +19024,7 @@
         <v>44582</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19081,7 +19081,7 @@
         <v>44585</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19138,7 +19138,7 @@
         <v>44592</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19195,7 +19195,7 @@
         <v>44593</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19257,7 +19257,7 @@
         <v>44600</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19314,7 +19314,7 @@
         <v>44602</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19371,7 +19371,7 @@
         <v>44620</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19428,7 +19428,7 @@
         <v>44621</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19485,7 +19485,7 @@
         <v>44624</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19542,7 +19542,7 @@
         <v>44634</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19599,7 +19599,7 @@
         <v>44635</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19656,7 +19656,7 @@
         <v>44650</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19713,7 +19713,7 @@
         <v>44651</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19770,7 +19770,7 @@
         <v>44651</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19827,7 +19827,7 @@
         <v>44655</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19884,7 +19884,7 @@
         <v>44670</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19941,7 +19941,7 @@
         <v>44693</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19998,7 +19998,7 @@
         <v>44698</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20055,7 +20055,7 @@
         <v>44713</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20117,7 +20117,7 @@
         <v>44728</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         <v>44728</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20241,7 +20241,7 @@
         <v>44743</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20298,7 +20298,7 @@
         <v>44743</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20355,7 +20355,7 @@
         <v>44749</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20412,7 +20412,7 @@
         <v>44789</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20474,7 +20474,7 @@
         <v>44789</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20536,7 +20536,7 @@
         <v>44798</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20593,7 +20593,7 @@
         <v>44816</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20650,7 +20650,7 @@
         <v>44816</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20707,7 +20707,7 @@
         <v>44816</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20764,7 +20764,7 @@
         <v>44820</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20821,7 +20821,7 @@
         <v>44827</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20883,7 +20883,7 @@
         <v>44827</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20945,7 +20945,7 @@
         <v>44858</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21007,7 +21007,7 @@
         <v>44866</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21069,7 +21069,7 @@
         <v>44868</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21131,7 +21131,7 @@
         <v>44872</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21188,7 +21188,7 @@
         <v>44872</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21250,7 +21250,7 @@
         <v>44874</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21307,7 +21307,7 @@
         <v>44874</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21364,7 +21364,7 @@
         <v>44879</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21421,7 +21421,7 @@
         <v>44879</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21478,7 +21478,7 @@
         <v>44903</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21535,7 +21535,7 @@
         <v>44916</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21592,7 +21592,7 @@
         <v>44944</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21649,7 +21649,7 @@
         <v>44953</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21706,7 +21706,7 @@
         <v>44953</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21763,7 +21763,7 @@
         <v>44953</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21820,7 +21820,7 @@
         <v>44971</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21882,7 +21882,7 @@
         <v>44985</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21944,7 +21944,7 @@
         <v>44985</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22006,7 +22006,7 @@
         <v>44986</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22063,7 +22063,7 @@
         <v>44987</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22120,7 +22120,7 @@
         <v>44987</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22177,7 +22177,7 @@
         <v>44994</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22234,7 +22234,7 @@
         <v>44994</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22291,7 +22291,7 @@
         <v>45016</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22353,7 +22353,7 @@
         <v>45022</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22415,7 +22415,7 @@
         <v>45048</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22472,7 +22472,7 @@
         <v>45048</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22529,7 +22529,7 @@
         <v>45070</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22591,7 +22591,7 @@
         <v>45077</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22648,7 +22648,7 @@
         <v>45077</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22705,7 +22705,7 @@
         <v>45077</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22762,7 +22762,7 @@
         <v>45077</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22819,7 +22819,7 @@
         <v>45077</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22876,7 +22876,7 @@
         <v>45077</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22933,7 +22933,7 @@
         <v>45077</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22990,7 +22990,7 @@
         <v>45085</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23047,7 +23047,7 @@
         <v>45090</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23109,7 +23109,7 @@
         <v>45090</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23171,7 +23171,7 @@
         <v>45093</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23233,7 +23233,7 @@
         <v>45096</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23290,7 +23290,7 @@
         <v>45096</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23347,7 +23347,7 @@
         <v>45099</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23404,7 +23404,7 @@
         <v>45104</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23461,7 +23461,7 @@
         <v>45104</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23518,7 +23518,7 @@
         <v>45105</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23575,7 +23575,7 @@
         <v>45105</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23632,7 +23632,7 @@
         <v>45110</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23689,7 +23689,7 @@
         <v>45110</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23746,7 +23746,7 @@
         <v>45110</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23803,7 +23803,7 @@
         <v>45117</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23865,7 +23865,7 @@
         <v>45118</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23927,7 +23927,7 @@
         <v>45119</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23989,7 +23989,7 @@
         <v>45119</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24051,7 +24051,7 @@
         <v>45119</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24113,7 +24113,7 @@
         <v>45119</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24170,7 +24170,7 @@
         <v>45138</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24227,7 +24227,7 @@
         <v>45138</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24284,7 +24284,7 @@
         <v>45145</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24341,7 +24341,7 @@
         <v>45149</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24398,7 +24398,7 @@
         <v>45159</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24455,7 +24455,7 @@
         <v>45159</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24512,7 +24512,7 @@
         <v>45161</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24569,7 +24569,7 @@
         <v>45169</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24626,7 +24626,7 @@
         <v>45170</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24683,7 +24683,7 @@
         <v>45170</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24740,7 +24740,7 @@
         <v>45184</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24797,7 +24797,7 @@
         <v>45187</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24854,7 +24854,7 @@
         <v>45198</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24911,7 +24911,7 @@
         <v>45198</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>

--- a/Översikt YDRE.xlsx
+++ b/Översikt YDRE.xlsx
@@ -572,7 +572,7 @@
         <v>44257</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>43409</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>43517</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>45070</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         <v>43405</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1013,7 +1013,7 @@
         <v>44732</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>45138</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         <v>43524</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1275,7 +1275,7 @@
         <v>43665</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>43910</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1449,7 +1449,7 @@
         <v>44087</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
         <v>44187</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1624,7 +1624,7 @@
         <v>44358</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1709,7 +1709,7 @@
         <v>44468</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
         <v>44468</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1889,7 +1889,7 @@
         <v>44831</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1979,7 +1979,7 @@
         <v>44874</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>45090</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2154,7 +2154,7 @@
         <v>43336</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2211,7 +2211,7 @@
         <v>43339</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
         <v>43354</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2325,7 +2325,7 @@
         <v>43355</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2382,7 +2382,7 @@
         <v>43355</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2439,7 +2439,7 @@
         <v>43356</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2496,7 +2496,7 @@
         <v>43362</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2553,7 +2553,7 @@
         <v>43375</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
         <v>43375</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2667,7 +2667,7 @@
         <v>43381</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2724,7 +2724,7 @@
         <v>43385</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         <v>43385</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2838,7 +2838,7 @@
         <v>43389</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2895,7 +2895,7 @@
         <v>43390</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2952,7 +2952,7 @@
         <v>43390</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3009,7 +3009,7 @@
         <v>43392</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3066,7 +3066,7 @@
         <v>43399</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3123,7 +3123,7 @@
         <v>43403</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         <v>43403</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3237,7 +3237,7 @@
         <v>43411</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3294,7 +3294,7 @@
         <v>43411</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3351,7 +3351,7 @@
         <v>43411</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3408,7 +3408,7 @@
         <v>43412</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3465,7 +3465,7 @@
         <v>43416</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3522,7 +3522,7 @@
         <v>43423</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3584,7 +3584,7 @@
         <v>43424</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3641,7 +3641,7 @@
         <v>43425</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3698,7 +3698,7 @@
         <v>43425</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3755,7 +3755,7 @@
         <v>43433</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3812,7 +3812,7 @@
         <v>43433</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3869,7 +3869,7 @@
         <v>43433</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3926,7 +3926,7 @@
         <v>43434</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3983,7 +3983,7 @@
         <v>43439</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>43439</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>43440</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>43445</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         <v>43445</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>43451</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>43451</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>43452</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4449,7 +4449,7 @@
         <v>43455</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>43455</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         <v>43468</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>43468</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
         <v>43475</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>43475</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>43479</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
         <v>43479</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4910,7 +4910,7 @@
         <v>43480</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4972,7 +4972,7 @@
         <v>43486</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5029,7 +5029,7 @@
         <v>43487</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>43489</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>43494</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>43494</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         <v>43495</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
         <v>43496</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         <v>43496</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         <v>43502</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>43503</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5557,7 +5557,7 @@
         <v>43509</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5614,7 +5614,7 @@
         <v>43514</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5671,7 +5671,7 @@
         <v>43514</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5728,7 +5728,7 @@
         <v>43517</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
         <v>43521</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5842,7 +5842,7 @@
         <v>43521</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5899,7 +5899,7 @@
         <v>43524</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5956,7 +5956,7 @@
         <v>43524</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6013,7 +6013,7 @@
         <v>43524</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6070,7 +6070,7 @@
         <v>43524</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
         <v>43524</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>43524</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
         <v>43528</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6298,7 +6298,7 @@
         <v>43528</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6360,7 +6360,7 @@
         <v>43532</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6417,7 +6417,7 @@
         <v>43544</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6474,7 +6474,7 @@
         <v>43546</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6536,7 +6536,7 @@
         <v>43553</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6593,7 +6593,7 @@
         <v>43553</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6650,7 +6650,7 @@
         <v>43558</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6707,7 +6707,7 @@
         <v>43560</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6764,7 +6764,7 @@
         <v>43564</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6821,7 +6821,7 @@
         <v>43585</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>43587</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6935,7 +6935,7 @@
         <v>43593</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6997,7 +6997,7 @@
         <v>43594</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7054,7 +7054,7 @@
         <v>43594</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7111,7 +7111,7 @@
         <v>43595</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7168,7 +7168,7 @@
         <v>43601</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
         <v>43605</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>43608</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7349,7 +7349,7 @@
         <v>43626</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7406,7 +7406,7 @@
         <v>43628</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7463,7 +7463,7 @@
         <v>43630</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         <v>43634</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7577,7 +7577,7 @@
         <v>43647</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7634,7 +7634,7 @@
         <v>43661</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7691,7 +7691,7 @@
         <v>43679</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7748,7 +7748,7 @@
         <v>43682</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7805,7 +7805,7 @@
         <v>43683</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7862,7 +7862,7 @@
         <v>43689</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7919,7 +7919,7 @@
         <v>43692</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7976,7 +7976,7 @@
         <v>43692</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         <v>43699</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8090,7 +8090,7 @@
         <v>43705</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8147,7 +8147,7 @@
         <v>43711</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>43712</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>43712</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>43713</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>43713</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>43717</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>43721</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>43731</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>43735</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>43738</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>43748</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>43753</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8836,7 +8836,7 @@
         <v>43761</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8898,7 +8898,7 @@
         <v>43768</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8955,7 +8955,7 @@
         <v>43769</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9012,7 +9012,7 @@
         <v>43773</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9069,7 +9069,7 @@
         <v>43773</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9126,7 +9126,7 @@
         <v>43773</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9183,7 +9183,7 @@
         <v>43773</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9240,7 +9240,7 @@
         <v>43781</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9297,7 +9297,7 @@
         <v>43788</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9359,7 +9359,7 @@
         <v>43791</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9421,7 +9421,7 @@
         <v>43796</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9478,7 +9478,7 @@
         <v>43805</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9535,7 +9535,7 @@
         <v>43808</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9597,7 +9597,7 @@
         <v>43811</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9659,7 +9659,7 @@
         <v>43812</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9716,7 +9716,7 @@
         <v>43837</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9773,7 +9773,7 @@
         <v>43837</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9830,7 +9830,7 @@
         <v>43839</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9887,7 +9887,7 @@
         <v>43850</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9944,7 +9944,7 @@
         <v>43851</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10001,7 +10001,7 @@
         <v>43851</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10058,7 +10058,7 @@
         <v>43854</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10115,7 +10115,7 @@
         <v>43859</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10172,7 +10172,7 @@
         <v>43859</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10229,7 +10229,7 @@
         <v>43866</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10286,7 +10286,7 @@
         <v>43866</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10343,7 +10343,7 @@
         <v>43867</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10400,7 +10400,7 @@
         <v>43867</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
         <v>43867</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10514,7 +10514,7 @@
         <v>43867</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10571,7 +10571,7 @@
         <v>43875</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10628,7 +10628,7 @@
         <v>43892</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10685,7 +10685,7 @@
         <v>43892</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10742,7 +10742,7 @@
         <v>43899</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10799,7 +10799,7 @@
         <v>43900</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10856,7 +10856,7 @@
         <v>43907</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10913,7 +10913,7 @@
         <v>43914</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10970,7 +10970,7 @@
         <v>43928</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11027,7 +11027,7 @@
         <v>43945</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>43955</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>43958</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11203,7 +11203,7 @@
         <v>43963</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11265,7 +11265,7 @@
         <v>43964</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11327,7 +11327,7 @@
         <v>43964</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11389,7 +11389,7 @@
         <v>43964</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11451,7 +11451,7 @@
         <v>43964</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11513,7 +11513,7 @@
         <v>43970</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11575,7 +11575,7 @@
         <v>43970</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11637,7 +11637,7 @@
         <v>43970</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11699,7 +11699,7 @@
         <v>43970</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11761,7 +11761,7 @@
         <v>43970</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11823,7 +11823,7 @@
         <v>43980</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11885,7 +11885,7 @@
         <v>43987</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11942,7 +11942,7 @@
         <v>43987</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11999,7 +11999,7 @@
         <v>43987</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12056,7 +12056,7 @@
         <v>43990</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12113,7 +12113,7 @@
         <v>44015</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12170,7 +12170,7 @@
         <v>44018</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12227,7 +12227,7 @@
         <v>44018</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12284,7 +12284,7 @@
         <v>44020</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12341,7 +12341,7 @@
         <v>44020</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12398,7 +12398,7 @@
         <v>44028</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12455,7 +12455,7 @@
         <v>44029</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12517,7 +12517,7 @@
         <v>44029</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12579,7 +12579,7 @@
         <v>44029</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12641,7 +12641,7 @@
         <v>44039</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12698,7 +12698,7 @@
         <v>44049</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12755,7 +12755,7 @@
         <v>44049</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12812,7 +12812,7 @@
         <v>44049</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12869,7 +12869,7 @@
         <v>44057</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12926,7 +12926,7 @@
         <v>44064</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12983,7 +12983,7 @@
         <v>44069</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13040,7 +13040,7 @@
         <v>44074</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13102,7 +13102,7 @@
         <v>44074</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13164,7 +13164,7 @@
         <v>44074</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13226,7 +13226,7 @@
         <v>44077</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>44083</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         <v>44087</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13407,7 +13407,7 @@
         <v>44087</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13469,7 +13469,7 @@
         <v>44088</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13526,7 +13526,7 @@
         <v>44089</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13583,7 +13583,7 @@
         <v>44089</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13640,7 +13640,7 @@
         <v>44092</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13697,7 +13697,7 @@
         <v>44095</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13754,7 +13754,7 @@
         <v>44095</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13811,7 +13811,7 @@
         <v>44102</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13868,7 +13868,7 @@
         <v>44104</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13925,7 +13925,7 @@
         <v>44104</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13982,7 +13982,7 @@
         <v>44104</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14039,7 +14039,7 @@
         <v>44104</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14096,7 +14096,7 @@
         <v>44104</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14153,7 +14153,7 @@
         <v>44109</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14210,7 +14210,7 @@
         <v>44116</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14267,7 +14267,7 @@
         <v>44120</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14324,7 +14324,7 @@
         <v>44124</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14381,7 +14381,7 @@
         <v>44124</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14438,7 +14438,7 @@
         <v>44126</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14495,7 +14495,7 @@
         <v>44130</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14552,7 +14552,7 @@
         <v>44130</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14609,7 +14609,7 @@
         <v>44130</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>44138</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14723,7 +14723,7 @@
         <v>44141</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14780,7 +14780,7 @@
         <v>44144</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14842,7 +14842,7 @@
         <v>44168</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14899,7 +14899,7 @@
         <v>44168</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14956,7 +14956,7 @@
         <v>44168</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15013,7 +15013,7 @@
         <v>44168</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15070,7 +15070,7 @@
         <v>44179</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15127,7 +15127,7 @@
         <v>44181</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15184,7 +15184,7 @@
         <v>44183</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15246,7 +15246,7 @@
         <v>44186</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15303,7 +15303,7 @@
         <v>44187</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15360,7 +15360,7 @@
         <v>44200</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15417,7 +15417,7 @@
         <v>44203</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15474,7 +15474,7 @@
         <v>44211</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15531,7 +15531,7 @@
         <v>44211</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15593,7 +15593,7 @@
         <v>44257</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15650,7 +15650,7 @@
         <v>44257</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15707,7 +15707,7 @@
         <v>44260</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15764,7 +15764,7 @@
         <v>44263</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15821,7 +15821,7 @@
         <v>44267</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15883,7 +15883,7 @@
         <v>44270</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15965,7 +15965,7 @@
         <v>44292</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16022,7 +16022,7 @@
         <v>44295</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16079,7 +16079,7 @@
         <v>44298</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16136,7 +16136,7 @@
         <v>44305</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16198,7 +16198,7 @@
         <v>44305</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16260,7 +16260,7 @@
         <v>44305</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16322,7 +16322,7 @@
         <v>44316</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16379,7 +16379,7 @@
         <v>44340</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16441,7 +16441,7 @@
         <v>44343</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16498,7 +16498,7 @@
         <v>44344</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16555,7 +16555,7 @@
         <v>44347</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16612,7 +16612,7 @@
         <v>44347</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16669,7 +16669,7 @@
         <v>44347</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16726,7 +16726,7 @@
         <v>44347</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16783,7 +16783,7 @@
         <v>44362</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16845,7 +16845,7 @@
         <v>44371</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16902,7 +16902,7 @@
         <v>44382</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16959,7 +16959,7 @@
         <v>44386</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17016,7 +17016,7 @@
         <v>44392</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17078,7 +17078,7 @@
         <v>44413</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17135,7 +17135,7 @@
         <v>44428</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17197,7 +17197,7 @@
         <v>44438</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17254,7 +17254,7 @@
         <v>44438</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17311,7 +17311,7 @@
         <v>44439</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17368,7 +17368,7 @@
         <v>44447</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17430,7 +17430,7 @@
         <v>44447</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17492,7 +17492,7 @@
         <v>44454</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17549,7 +17549,7 @@
         <v>44461</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17606,7 +17606,7 @@
         <v>44461</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17663,7 +17663,7 @@
         <v>44468</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17725,7 +17725,7 @@
         <v>44469</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17782,7 +17782,7 @@
         <v>44474</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17839,7 +17839,7 @@
         <v>44476</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17901,7 +17901,7 @@
         <v>44477</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17958,7 +17958,7 @@
         <v>44480</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18040,7 +18040,7 @@
         <v>44490</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18097,7 +18097,7 @@
         <v>44490</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18154,7 +18154,7 @@
         <v>44491</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18216,7 +18216,7 @@
         <v>44491</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18278,7 +18278,7 @@
         <v>44501</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18335,7 +18335,7 @@
         <v>44502</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18392,7 +18392,7 @@
         <v>44502</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18449,7 +18449,7 @@
         <v>44503</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18511,7 +18511,7 @@
         <v>44510</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         <v>44515</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18625,7 +18625,7 @@
         <v>44516</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18682,7 +18682,7 @@
         <v>44530</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         <v>44531</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18796,7 +18796,7 @@
         <v>44538</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18853,7 +18853,7 @@
         <v>44540</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18910,7 +18910,7 @@
         <v>44566</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18967,7 +18967,7 @@
         <v>44572</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19024,7 +19024,7 @@
         <v>44582</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19081,7 +19081,7 @@
         <v>44585</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19138,7 +19138,7 @@
         <v>44592</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19195,7 +19195,7 @@
         <v>44593</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19257,7 +19257,7 @@
         <v>44600</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19314,7 +19314,7 @@
         <v>44602</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19371,7 +19371,7 @@
         <v>44620</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19428,7 +19428,7 @@
         <v>44621</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19485,7 +19485,7 @@
         <v>44624</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19542,7 +19542,7 @@
         <v>44634</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19599,7 +19599,7 @@
         <v>44635</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19656,7 +19656,7 @@
         <v>44650</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19713,7 +19713,7 @@
         <v>44651</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19770,7 +19770,7 @@
         <v>44651</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19827,7 +19827,7 @@
         <v>44655</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19884,7 +19884,7 @@
         <v>44670</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19941,7 +19941,7 @@
         <v>44693</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19998,7 +19998,7 @@
         <v>44698</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20055,7 +20055,7 @@
         <v>44713</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20117,7 +20117,7 @@
         <v>44728</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         <v>44728</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20241,7 +20241,7 @@
         <v>44743</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20298,7 +20298,7 @@
         <v>44743</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20355,7 +20355,7 @@
         <v>44749</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20412,7 +20412,7 @@
         <v>44789</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20474,7 +20474,7 @@
         <v>44789</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20536,7 +20536,7 @@
         <v>44798</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20593,7 +20593,7 @@
         <v>44816</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20650,7 +20650,7 @@
         <v>44816</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20707,7 +20707,7 @@
         <v>44816</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20764,7 +20764,7 @@
         <v>44820</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20821,7 +20821,7 @@
         <v>44827</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20883,7 +20883,7 @@
         <v>44827</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20945,7 +20945,7 @@
         <v>44858</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21007,7 +21007,7 @@
         <v>44866</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21069,7 +21069,7 @@
         <v>44868</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21131,7 +21131,7 @@
         <v>44872</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21188,7 +21188,7 @@
         <v>44872</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21250,7 +21250,7 @@
         <v>44874</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21307,7 +21307,7 @@
         <v>44874</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21364,7 +21364,7 @@
         <v>44879</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21421,7 +21421,7 @@
         <v>44879</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21478,7 +21478,7 @@
         <v>44903</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21535,7 +21535,7 @@
         <v>44916</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21592,7 +21592,7 @@
         <v>44944</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21649,7 +21649,7 @@
         <v>44953</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21706,7 +21706,7 @@
         <v>44953</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21763,7 +21763,7 @@
         <v>44953</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21820,7 +21820,7 @@
         <v>44971</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21882,7 +21882,7 @@
         <v>44985</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21944,7 +21944,7 @@
         <v>44985</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22006,7 +22006,7 @@
         <v>44986</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22063,7 +22063,7 @@
         <v>44987</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22120,7 +22120,7 @@
         <v>44987</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22177,7 +22177,7 @@
         <v>44994</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22234,7 +22234,7 @@
         <v>44994</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22291,7 +22291,7 @@
         <v>45016</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22353,7 +22353,7 @@
         <v>45022</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22415,7 +22415,7 @@
         <v>45048</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22472,7 +22472,7 @@
         <v>45048</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22529,7 +22529,7 @@
         <v>45070</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22591,7 +22591,7 @@
         <v>45077</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22648,7 +22648,7 @@
         <v>45077</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22705,7 +22705,7 @@
         <v>45077</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22762,7 +22762,7 @@
         <v>45077</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22819,7 +22819,7 @@
         <v>45077</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22876,7 +22876,7 @@
         <v>45077</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22933,7 +22933,7 @@
         <v>45077</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22990,7 +22990,7 @@
         <v>45085</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23047,7 +23047,7 @@
         <v>45090</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23109,7 +23109,7 @@
         <v>45090</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23171,7 +23171,7 @@
         <v>45093</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23233,7 +23233,7 @@
         <v>45096</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23290,7 +23290,7 @@
         <v>45096</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23347,7 +23347,7 @@
         <v>45099</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23404,7 +23404,7 @@
         <v>45104</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23461,7 +23461,7 @@
         <v>45104</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23518,7 +23518,7 @@
         <v>45105</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23575,7 +23575,7 @@
         <v>45105</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23632,7 +23632,7 @@
         <v>45110</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23689,7 +23689,7 @@
         <v>45110</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23746,7 +23746,7 @@
         <v>45110</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23803,7 +23803,7 @@
         <v>45117</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23865,7 +23865,7 @@
         <v>45118</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23927,7 +23927,7 @@
         <v>45119</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23989,7 +23989,7 @@
         <v>45119</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24051,7 +24051,7 @@
         <v>45119</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24113,7 +24113,7 @@
         <v>45119</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24170,7 +24170,7 @@
         <v>45138</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24227,7 +24227,7 @@
         <v>45138</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24284,7 +24284,7 @@
         <v>45145</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24341,7 +24341,7 @@
         <v>45149</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24398,7 +24398,7 @@
         <v>45159</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24455,7 +24455,7 @@
         <v>45159</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24512,7 +24512,7 @@
         <v>45161</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24569,7 +24569,7 @@
         <v>45169</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24626,7 +24626,7 @@
         <v>45170</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24683,7 +24683,7 @@
         <v>45170</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24740,7 +24740,7 @@
         <v>45184</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24797,7 +24797,7 @@
         <v>45187</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24854,7 +24854,7 @@
         <v>45198</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24911,7 +24911,7 @@
         <v>45198</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>

--- a/Översikt YDRE.xlsx
+++ b/Översikt YDRE.xlsx
@@ -572,7 +572,7 @@
         <v>44257</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>43409</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>43517</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>45070</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         <v>43405</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1013,7 +1013,7 @@
         <v>44732</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>45138</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
         <v>43524</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1275,7 +1275,7 @@
         <v>43665</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>43910</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1449,7 +1449,7 @@
         <v>44087</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
         <v>44187</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1624,7 +1624,7 @@
         <v>44358</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1709,7 +1709,7 @@
         <v>44468</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
         <v>44468</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1889,7 +1889,7 @@
         <v>44831</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1979,7 +1979,7 @@
         <v>44874</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2064,7 +2064,7 @@
         <v>45090</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2154,7 +2154,7 @@
         <v>43336</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2211,7 +2211,7 @@
         <v>43339</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
         <v>43354</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2325,7 +2325,7 @@
         <v>43355</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2382,7 +2382,7 @@
         <v>43355</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2439,7 +2439,7 @@
         <v>43356</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2496,7 +2496,7 @@
         <v>43362</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2553,7 +2553,7 @@
         <v>43375</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
         <v>43375</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2667,7 +2667,7 @@
         <v>43381</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2724,7 +2724,7 @@
         <v>43385</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         <v>43385</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2838,7 +2838,7 @@
         <v>43389</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2895,7 +2895,7 @@
         <v>43390</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2952,7 +2952,7 @@
         <v>43390</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3009,7 +3009,7 @@
         <v>43392</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3066,7 +3066,7 @@
         <v>43399</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3123,7 +3123,7 @@
         <v>43403</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         <v>43403</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3237,7 +3237,7 @@
         <v>43411</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3294,7 +3294,7 @@
         <v>43411</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3351,7 +3351,7 @@
         <v>43411</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3408,7 +3408,7 @@
         <v>43412</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3465,7 +3465,7 @@
         <v>43416</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3522,7 +3522,7 @@
         <v>43423</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3584,7 +3584,7 @@
         <v>43424</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3641,7 +3641,7 @@
         <v>43425</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3698,7 +3698,7 @@
         <v>43425</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3755,7 +3755,7 @@
         <v>43433</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3812,7 +3812,7 @@
         <v>43433</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3869,7 +3869,7 @@
         <v>43433</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3926,7 +3926,7 @@
         <v>43434</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3983,7 +3983,7 @@
         <v>43439</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>43439</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         <v>43440</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         <v>43445</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         <v>43445</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>43451</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4335,7 +4335,7 @@
         <v>43451</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4392,7 +4392,7 @@
         <v>43452</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4449,7 +4449,7 @@
         <v>43455</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
         <v>43455</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         <v>43468</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4625,7 +4625,7 @@
         <v>43468</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
         <v>43475</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>43475</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>43479</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
         <v>43479</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4910,7 +4910,7 @@
         <v>43480</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4972,7 +4972,7 @@
         <v>43486</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5029,7 +5029,7 @@
         <v>43487</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5091,7 +5091,7 @@
         <v>43489</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         <v>43494</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>43494</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         <v>43495</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
         <v>43496</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5386,7 +5386,7 @@
         <v>43496</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         <v>43502</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>43503</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5557,7 +5557,7 @@
         <v>43509</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5614,7 +5614,7 @@
         <v>43514</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5671,7 +5671,7 @@
         <v>43514</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5728,7 +5728,7 @@
         <v>43517</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
         <v>43521</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5842,7 +5842,7 @@
         <v>43521</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5899,7 +5899,7 @@
         <v>43524</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5956,7 +5956,7 @@
         <v>43524</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6013,7 +6013,7 @@
         <v>43524</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6070,7 +6070,7 @@
         <v>43524</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
         <v>43524</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>43524</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
         <v>43528</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6298,7 +6298,7 @@
         <v>43528</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6360,7 +6360,7 @@
         <v>43532</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6417,7 +6417,7 @@
         <v>43544</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6474,7 +6474,7 @@
         <v>43546</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6536,7 +6536,7 @@
         <v>43553</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6593,7 +6593,7 @@
         <v>43553</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6650,7 +6650,7 @@
         <v>43558</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6707,7 +6707,7 @@
         <v>43560</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6764,7 +6764,7 @@
         <v>43564</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6821,7 +6821,7 @@
         <v>43585</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
         <v>43587</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6935,7 +6935,7 @@
         <v>43593</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6997,7 +6997,7 @@
         <v>43594</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7054,7 +7054,7 @@
         <v>43594</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7111,7 +7111,7 @@
         <v>43595</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7168,7 +7168,7 @@
         <v>43601</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
         <v>43605</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>43608</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7349,7 +7349,7 @@
         <v>43626</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7406,7 +7406,7 @@
         <v>43628</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7463,7 +7463,7 @@
         <v>43630</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         <v>43634</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7577,7 +7577,7 @@
         <v>43647</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7634,7 +7634,7 @@
         <v>43661</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7691,7 +7691,7 @@
         <v>43679</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7748,7 +7748,7 @@
         <v>43682</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7805,7 +7805,7 @@
         <v>43683</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7862,7 +7862,7 @@
         <v>43689</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7919,7 +7919,7 @@
         <v>43692</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7976,7 +7976,7 @@
         <v>43692</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         <v>43699</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8090,7 +8090,7 @@
         <v>43705</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8147,7 +8147,7 @@
         <v>43711</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>43712</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>43712</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8318,7 +8318,7 @@
         <v>43713</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8375,7 +8375,7 @@
         <v>43713</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>43717</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8489,7 +8489,7 @@
         <v>43721</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         <v>43731</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
         <v>43735</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         <v>43738</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8717,7 +8717,7 @@
         <v>43748</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>43753</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8836,7 +8836,7 @@
         <v>43761</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8898,7 +8898,7 @@
         <v>43768</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8955,7 +8955,7 @@
         <v>43769</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9012,7 +9012,7 @@
         <v>43773</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9069,7 +9069,7 @@
         <v>43773</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9126,7 +9126,7 @@
         <v>43773</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9183,7 +9183,7 @@
         <v>43773</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9240,7 +9240,7 @@
         <v>43781</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9297,7 +9297,7 @@
         <v>43788</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9359,7 +9359,7 @@
         <v>43791</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9421,7 +9421,7 @@
         <v>43796</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9478,7 +9478,7 @@
         <v>43805</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9535,7 +9535,7 @@
         <v>43808</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9597,7 +9597,7 @@
         <v>43811</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9659,7 +9659,7 @@
         <v>43812</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9716,7 +9716,7 @@
         <v>43837</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9773,7 +9773,7 @@
         <v>43837</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9830,7 +9830,7 @@
         <v>43839</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9887,7 +9887,7 @@
         <v>43850</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9944,7 +9944,7 @@
         <v>43851</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10001,7 +10001,7 @@
         <v>43851</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10058,7 +10058,7 @@
         <v>43854</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10115,7 +10115,7 @@
         <v>43859</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10172,7 +10172,7 @@
         <v>43859</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10229,7 +10229,7 @@
         <v>43866</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10286,7 +10286,7 @@
         <v>43866</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10343,7 +10343,7 @@
         <v>43867</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10400,7 +10400,7 @@
         <v>43867</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
         <v>43867</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10514,7 +10514,7 @@
         <v>43867</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10571,7 +10571,7 @@
         <v>43875</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10628,7 +10628,7 @@
         <v>43892</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10685,7 +10685,7 @@
         <v>43892</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10742,7 +10742,7 @@
         <v>43899</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10799,7 +10799,7 @@
         <v>43900</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10856,7 +10856,7 @@
         <v>43907</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10913,7 +10913,7 @@
         <v>43914</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10970,7 +10970,7 @@
         <v>43928</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11027,7 +11027,7 @@
         <v>43945</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>43955</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>43958</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11203,7 +11203,7 @@
         <v>43963</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11265,7 +11265,7 @@
         <v>43964</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11327,7 +11327,7 @@
         <v>43964</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11389,7 +11389,7 @@
         <v>43964</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11451,7 +11451,7 @@
         <v>43964</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11513,7 +11513,7 @@
         <v>43970</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11575,7 +11575,7 @@
         <v>43970</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11637,7 +11637,7 @@
         <v>43970</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11699,7 +11699,7 @@
         <v>43970</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11761,7 +11761,7 @@
         <v>43970</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11823,7 +11823,7 @@
         <v>43980</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11885,7 +11885,7 @@
         <v>43987</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11942,7 +11942,7 @@
         <v>43987</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11999,7 +11999,7 @@
         <v>43987</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12056,7 +12056,7 @@
         <v>43990</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12113,7 +12113,7 @@
         <v>44015</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12170,7 +12170,7 @@
         <v>44018</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12227,7 +12227,7 @@
         <v>44018</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12284,7 +12284,7 @@
         <v>44020</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12341,7 +12341,7 @@
         <v>44020</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12398,7 +12398,7 @@
         <v>44028</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12455,7 +12455,7 @@
         <v>44029</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12517,7 +12517,7 @@
         <v>44029</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12579,7 +12579,7 @@
         <v>44029</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12641,7 +12641,7 @@
         <v>44039</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12698,7 +12698,7 @@
         <v>44049</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12755,7 +12755,7 @@
         <v>44049</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12812,7 +12812,7 @@
         <v>44049</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12869,7 +12869,7 @@
         <v>44057</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12926,7 +12926,7 @@
         <v>44064</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12983,7 +12983,7 @@
         <v>44069</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13040,7 +13040,7 @@
         <v>44074</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13102,7 +13102,7 @@
         <v>44074</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13164,7 +13164,7 @@
         <v>44074</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13226,7 +13226,7 @@
         <v>44077</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>44083</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         <v>44087</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13407,7 +13407,7 @@
         <v>44087</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13469,7 +13469,7 @@
         <v>44088</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13526,7 +13526,7 @@
         <v>44089</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13583,7 +13583,7 @@
         <v>44089</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13640,7 +13640,7 @@
         <v>44092</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13697,7 +13697,7 @@
         <v>44095</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13754,7 +13754,7 @@
         <v>44095</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13811,7 +13811,7 @@
         <v>44102</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13868,7 +13868,7 @@
         <v>44104</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13925,7 +13925,7 @@
         <v>44104</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13982,7 +13982,7 @@
         <v>44104</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14039,7 +14039,7 @@
         <v>44104</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14096,7 +14096,7 @@
         <v>44104</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14153,7 +14153,7 @@
         <v>44109</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14210,7 +14210,7 @@
         <v>44116</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14267,7 +14267,7 @@
         <v>44120</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14324,7 +14324,7 @@
         <v>44124</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14381,7 +14381,7 @@
         <v>44124</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14438,7 +14438,7 @@
         <v>44126</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14495,7 +14495,7 @@
         <v>44130</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14552,7 +14552,7 @@
         <v>44130</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14609,7 +14609,7 @@
         <v>44130</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>44138</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14723,7 +14723,7 @@
         <v>44141</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14780,7 +14780,7 @@
         <v>44144</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14842,7 +14842,7 @@
         <v>44168</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14899,7 +14899,7 @@
         <v>44168</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14956,7 +14956,7 @@
         <v>44168</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15013,7 +15013,7 @@
         <v>44168</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15070,7 +15070,7 @@
         <v>44179</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15127,7 +15127,7 @@
         <v>44181</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15184,7 +15184,7 @@
         <v>44183</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15246,7 +15246,7 @@
         <v>44186</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15303,7 +15303,7 @@
         <v>44187</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15360,7 +15360,7 @@
         <v>44200</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15417,7 +15417,7 @@
         <v>44203</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15474,7 +15474,7 @@
         <v>44211</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15531,7 +15531,7 @@
         <v>44211</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15593,7 +15593,7 @@
         <v>44257</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15650,7 +15650,7 @@
         <v>44257</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15707,7 +15707,7 @@
         <v>44260</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15764,7 +15764,7 @@
         <v>44263</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15821,7 +15821,7 @@
         <v>44267</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15883,7 +15883,7 @@
         <v>44270</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15965,7 +15965,7 @@
         <v>44292</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16022,7 +16022,7 @@
         <v>44295</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16079,7 +16079,7 @@
         <v>44298</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16136,7 +16136,7 @@
         <v>44305</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16198,7 +16198,7 @@
         <v>44305</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16260,7 +16260,7 @@
         <v>44305</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16322,7 +16322,7 @@
         <v>44316</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16379,7 +16379,7 @@
         <v>44340</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16441,7 +16441,7 @@
         <v>44343</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16498,7 +16498,7 @@
         <v>44344</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16555,7 +16555,7 @@
         <v>44347</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16612,7 +16612,7 @@
         <v>44347</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16669,7 +16669,7 @@
         <v>44347</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16726,7 +16726,7 @@
         <v>44347</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16783,7 +16783,7 @@
         <v>44362</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16845,7 +16845,7 @@
         <v>44371</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16902,7 +16902,7 @@
         <v>44382</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16959,7 +16959,7 @@
         <v>44386</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17016,7 +17016,7 @@
         <v>44392</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17078,7 +17078,7 @@
         <v>44413</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17135,7 +17135,7 @@
         <v>44428</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17197,7 +17197,7 @@
         <v>44438</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17254,7 +17254,7 @@
         <v>44438</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17311,7 +17311,7 @@
         <v>44439</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17368,7 +17368,7 @@
         <v>44447</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17430,7 +17430,7 @@
         <v>44447</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17492,7 +17492,7 @@
         <v>44454</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17549,7 +17549,7 @@
         <v>44461</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17606,7 +17606,7 @@
         <v>44461</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17663,7 +17663,7 @@
         <v>44468</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17725,7 +17725,7 @@
         <v>44469</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17782,7 +17782,7 @@
         <v>44474</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17839,7 +17839,7 @@
         <v>44476</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17901,7 +17901,7 @@
         <v>44477</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17958,7 +17958,7 @@
         <v>44480</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18040,7 +18040,7 @@
         <v>44490</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18097,7 +18097,7 @@
         <v>44490</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18154,7 +18154,7 @@
         <v>44491</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18216,7 +18216,7 @@
         <v>44491</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18278,7 +18278,7 @@
         <v>44501</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18335,7 +18335,7 @@
         <v>44502</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18392,7 +18392,7 @@
         <v>44502</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18449,7 +18449,7 @@
         <v>44503</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18511,7 +18511,7 @@
         <v>44510</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         <v>44515</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18625,7 +18625,7 @@
         <v>44516</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18682,7 +18682,7 @@
         <v>44530</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         <v>44531</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18796,7 +18796,7 @@
         <v>44538</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18853,7 +18853,7 @@
         <v>44540</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18910,7 +18910,7 @@
         <v>44566</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18967,7 +18967,7 @@
         <v>44572</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19024,7 +19024,7 @@
         <v>44582</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19081,7 +19081,7 @@
         <v>44585</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19138,7 +19138,7 @@
         <v>44592</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19195,7 +19195,7 @@
         <v>44593</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19257,7 +19257,7 @@
         <v>44600</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19314,7 +19314,7 @@
         <v>44602</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19371,7 +19371,7 @@
         <v>44620</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19428,7 +19428,7 @@
         <v>44621</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19485,7 +19485,7 @@
         <v>44624</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19542,7 +19542,7 @@
         <v>44634</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19599,7 +19599,7 @@
         <v>44635</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19656,7 +19656,7 @@
         <v>44650</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19713,7 +19713,7 @@
         <v>44651</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19770,7 +19770,7 @@
         <v>44651</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19827,7 +19827,7 @@
         <v>44655</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19884,7 +19884,7 @@
         <v>44670</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19941,7 +19941,7 @@
         <v>44693</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19998,7 +19998,7 @@
         <v>44698</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20055,7 +20055,7 @@
         <v>44713</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20117,7 +20117,7 @@
         <v>44728</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         <v>44728</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20241,7 +20241,7 @@
         <v>44743</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20298,7 +20298,7 @@
         <v>44743</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20355,7 +20355,7 @@
         <v>44749</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20412,7 +20412,7 @@
         <v>44789</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20474,7 +20474,7 @@
         <v>44789</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20536,7 +20536,7 @@
         <v>44798</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20593,7 +20593,7 @@
         <v>44816</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20650,7 +20650,7 @@
         <v>44816</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20707,7 +20707,7 @@
         <v>44816</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20764,7 +20764,7 @@
         <v>44820</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20821,7 +20821,7 @@
         <v>44827</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20883,7 +20883,7 @@
         <v>44827</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20945,7 +20945,7 @@
         <v>44858</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21007,7 +21007,7 @@
         <v>44866</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21069,7 +21069,7 @@
         <v>44868</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21131,7 +21131,7 @@
         <v>44872</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21188,7 +21188,7 @@
         <v>44872</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21250,7 +21250,7 @@
         <v>44874</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21307,7 +21307,7 @@
         <v>44874</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21364,7 +21364,7 @@
         <v>44879</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21421,7 +21421,7 @@
         <v>44879</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21478,7 +21478,7 @@
         <v>44903</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21535,7 +21535,7 @@
         <v>44916</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21592,7 +21592,7 @@
         <v>44944</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21649,7 +21649,7 @@
         <v>44953</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21706,7 +21706,7 @@
         <v>44953</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21763,7 +21763,7 @@
         <v>44953</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21820,7 +21820,7 @@
         <v>44971</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21882,7 +21882,7 @@
         <v>44985</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21944,7 +21944,7 @@
         <v>44985</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22006,7 +22006,7 @@
         <v>44986</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22063,7 +22063,7 @@
         <v>44987</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22120,7 +22120,7 @@
         <v>44987</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22177,7 +22177,7 @@
         <v>44994</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22234,7 +22234,7 @@
         <v>44994</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22291,7 +22291,7 @@
         <v>45016</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22353,7 +22353,7 @@
         <v>45022</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22415,7 +22415,7 @@
         <v>45048</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22472,7 +22472,7 @@
         <v>45048</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22529,7 +22529,7 @@
         <v>45070</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22591,7 +22591,7 @@
         <v>45077</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22648,7 +22648,7 @@
         <v>45077</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22705,7 +22705,7 @@
         <v>45077</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22762,7 +22762,7 @@
         <v>45077</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22819,7 +22819,7 @@
         <v>45077</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22876,7 +22876,7 @@
         <v>45077</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22933,7 +22933,7 @@
         <v>45077</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22990,7 +22990,7 @@
         <v>45085</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23047,7 +23047,7 @@
         <v>45090</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23109,7 +23109,7 @@
         <v>45090</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23171,7 +23171,7 @@
         <v>45093</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23233,7 +23233,7 @@
         <v>45096</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23290,7 +23290,7 @@
         <v>45096</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23347,7 +23347,7 @@
         <v>45099</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23404,7 +23404,7 @@
         <v>45104</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23461,7 +23461,7 @@
         <v>45104</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23518,7 +23518,7 @@
         <v>45105</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23575,7 +23575,7 @@
         <v>45105</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23632,7 +23632,7 @@
         <v>45110</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23689,7 +23689,7 @@
         <v>45110</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23746,7 +23746,7 @@
         <v>45110</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23803,7 +23803,7 @@
         <v>45117</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23865,7 +23865,7 @@
         <v>45118</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23927,7 +23927,7 @@
         <v>45119</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23989,7 +23989,7 @@
         <v>45119</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24051,7 +24051,7 @@
         <v>45119</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24113,7 +24113,7 @@
         <v>45119</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24170,7 +24170,7 @@
         <v>45138</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24227,7 +24227,7 @@
         <v>45138</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24284,7 +24284,7 @@
         <v>45145</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24341,7 +24341,7 @@
         <v>45149</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24398,7 +24398,7 @@
         <v>45159</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24455,7 +24455,7 @@
         <v>45159</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24512,7 +24512,7 @@
         <v>45161</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24569,7 +24569,7 @@
         <v>45169</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24626,7 +24626,7 @@
         <v>45170</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24683,7 +24683,7 @@
         <v>45170</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24740,7 +24740,7 @@
         <v>45184</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24797,7 +24797,7 @@
         <v>45187</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24854,7 +24854,7 @@
         <v>45198</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24911,7 +24911,7 @@
         <v>45198</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
